--- a/app_auto_case.xlsx
+++ b/app_auto_case.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180">
   <si>
     <t>APP用例更新记录</t>
   </si>
@@ -541,10 +541,7 @@
     <t>jwt_28</t>
   </si>
   <si>
-    <t>安装卸载-卸载成功</t>
-  </si>
-  <si>
-    <t>卸载安装</t>
+    <t>卸载成功</t>
   </si>
   <si>
     <r>
@@ -651,7 +648,7 @@
     <t>jwt_29</t>
   </si>
   <si>
-    <t>安装卸载-卸载后安装成功</t>
+    <t>卸载后安装成功</t>
   </si>
   <si>
     <t>安装成功</t>
@@ -660,10 +657,7 @@
     <t>jwt_30</t>
   </si>
   <si>
-    <t>安装卸载-覆盖安装成功</t>
-  </si>
-  <si>
-    <t>覆盖安装</t>
+    <t>覆盖安装成功</t>
   </si>
   <si>
     <t>1，手机已安装yoosee 线上版本App
@@ -676,13 +670,10 @@
 (安卓需至少测试覆盖安装应用市场版本及上一个版本)</t>
   </si>
   <si>
-    <t>覆盖安装成功</t>
-  </si>
-  <si>
     <t>jwt_31</t>
   </si>
   <si>
-    <t>安装卸载-覆盖安装成功不需要重新输入账号密码</t>
+    <t>覆盖安装成功不需要重新输入账号密码</t>
   </si>
   <si>
     <t>不需要重新输入账号密码等信息，不需要再次授予相关权限，可以直接打开App</t>
@@ -691,7 +682,7 @@
     <t>jwt_32</t>
   </si>
   <si>
-    <t>安装卸载-覆盖安装成功App 内绑定设备显示正常</t>
+    <t>覆盖安装成功App 内绑定设备显示正常</t>
   </si>
   <si>
     <t>App 内绑定设备显示正常，之前App数据，设置都正常保存，没有被篡改（新App特定要求除外）</t>
@@ -702,16 +693,224 @@
   <si>
     <t>监控、回放、智能守护视频播放正常（自动化检查进入监控是否正常）</t>
   </si>
+  <si>
+    <t>监控页设置入口</t>
+  </si>
+  <si>
+    <t>测试的账号为设备的主人</t>
+  </si>
+  <si>
+    <t>进入监控，点击右上角的设置</t>
+  </si>
+  <si>
+    <t>正常进入设置界面</t>
+  </si>
+  <si>
+    <t>设备列表页设置入口</t>
+  </si>
+  <si>
+    <t>设备列表中点击设备右上角的“设置”进入设置</t>
+  </si>
+  <si>
+    <t>卡回放-视频</t>
+  </si>
+  <si>
+    <t>时间轴拖动</t>
+  </si>
+  <si>
+    <t>设备存储卡中有录像记录</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1、APP进入SD卡回放页面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2、往前快速滑动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3、往后快速滑动</t>
+    </r>
+  </si>
+  <si>
+    <t>在刻度停止的位置开始播放</t>
+  </si>
+  <si>
+    <t>播放H265视频</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1、开通SD卡服务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2、设备视频编码为H265</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1、进入SD卡回放页面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2、播放录像</t>
+    </r>
+  </si>
+  <si>
+    <t>可正常播放，无马赛克，声音匹配。（自动化检查播放正常）</t>
+  </si>
+  <si>
+    <t>切换日期到过去</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1、APP进入SD卡回放页面回放录像</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2、回放录像过程中切换到过去有录像的日期</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自动加载切换后日期的录像文件进行回放</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（IOS卡回放需手动播放）</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -805,45 +1004,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -858,16 +1020,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -898,7 +1052,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -908,6 +1114,14 @@
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -922,21 +1136,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -969,7 +1168,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -981,169 +1342,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1272,30 +1471,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1311,32 +1486,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1359,13 +1515,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1377,10 +1576,10 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1389,130 +1588,130 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8071,8 +8270,8 @@
   <sheetPr/>
   <dimension ref="A1:AJ619"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -9185,19 +9384,19 @@
         <v>142</v>
       </c>
       <c r="B29" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="D29" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="E29" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="E29" s="14" t="s">
+      <c r="F29" s="14" t="s">
         <v>146</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>147</v>
       </c>
       <c r="G29" s="23"/>
       <c r="H29" s="24"/>
@@ -9220,22 +9419,22 @@
     </row>
     <row r="30" ht="66" spans="1:24">
       <c r="A30" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="B30" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="C30" s="23" t="s">
+      <c r="D30" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="E30" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="E30" s="14" t="s">
-        <v>146</v>
-      </c>
       <c r="F30" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G30" s="23"/>
       <c r="H30" s="24"/>
@@ -9258,22 +9457,22 @@
     </row>
     <row r="31" s="4" customFormat="1" ht="66" spans="1:24">
       <c r="A31" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="D31" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="E31" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="D31" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="E31" s="20" t="s">
-        <v>155</v>
-      </c>
       <c r="F31" s="23" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G31" s="23"/>
       <c r="H31" s="24"/>
@@ -9296,22 +9495,22 @@
     </row>
     <row r="32" s="4" customFormat="1" ht="115.5" spans="1:24">
       <c r="A32" s="15" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>158</v>
+        <v>18</v>
       </c>
       <c r="C32" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="E32" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="D32" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="E32" s="20" t="s">
-        <v>155</v>
-      </c>
       <c r="F32" s="23" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G32" s="23"/>
       <c r="H32" s="24"/>
@@ -9334,22 +9533,22 @@
     </row>
     <row r="33" ht="148.5" spans="1:24">
       <c r="A33" s="15" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>161</v>
+        <v>18</v>
       </c>
       <c r="C33" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="E33" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="D33" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="E33" s="20" t="s">
-        <v>155</v>
-      </c>
       <c r="F33" s="14" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G33" s="23"/>
       <c r="H33" s="24"/>
@@ -9372,22 +9571,22 @@
     </row>
     <row r="34" ht="115.5" spans="1:24">
       <c r="A34" s="15" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>161</v>
+        <v>18</v>
       </c>
       <c r="C34" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="E34" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="D34" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="E34" s="20" t="s">
-        <v>155</v>
-      </c>
       <c r="F34" s="14" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G34" s="23"/>
       <c r="H34" s="24"/>
@@ -9408,13 +9607,23 @@
       <c r="W34" s="23"/>
       <c r="X34" s="23"/>
     </row>
-    <row r="35" ht="16.5" spans="1:24">
+    <row r="35" ht="33" spans="1:24">
       <c r="A35" s="26"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
+      <c r="B35" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>165</v>
+      </c>
       <c r="G35" s="23"/>
       <c r="H35" s="24"/>
       <c r="I35" s="41"/>
@@ -9434,13 +9643,21 @@
       <c r="W35" s="23"/>
       <c r="X35" s="23"/>
     </row>
-    <row r="36" ht="16.5" spans="1:24">
+    <row r="36" ht="33" spans="1:24">
       <c r="A36" s="26"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
+      <c r="B36" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>165</v>
+      </c>
       <c r="G36" s="23"/>
       <c r="H36" s="24"/>
       <c r="I36" s="41"/>
@@ -9460,13 +9677,23 @@
       <c r="W36" s="23"/>
       <c r="X36" s="23"/>
     </row>
-    <row r="37" ht="16.5" spans="1:24">
+    <row r="37" ht="49.5" spans="1:24">
       <c r="A37" s="26"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
+      <c r="B37" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>172</v>
+      </c>
       <c r="G37" s="23"/>
       <c r="H37" s="24"/>
       <c r="I37" s="41"/>
@@ -9486,13 +9713,23 @@
       <c r="W37" s="23"/>
       <c r="X37" s="23"/>
     </row>
-    <row r="38" ht="16.5" spans="1:24">
+    <row r="38" ht="99" spans="1:24">
       <c r="A38" s="26"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
+      <c r="B38" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>176</v>
+      </c>
       <c r="G38" s="23"/>
       <c r="H38" s="24"/>
       <c r="I38" s="41"/>
@@ -9512,13 +9749,21 @@
       <c r="W38" s="23"/>
       <c r="X38" s="23"/>
     </row>
-    <row r="39" ht="16.5" spans="1:24">
+    <row r="39" ht="115.5" spans="1:24">
       <c r="A39" s="26"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
+      <c r="B39" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>179</v>
+      </c>
       <c r="G39" s="23"/>
       <c r="H39" s="24"/>
       <c r="I39" s="41"/>

--- a/app_auto_case.xlsx
+++ b/app_auto_case.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248">
   <si>
     <t>APP用例更新记录</t>
   </si>
@@ -1024,6 +1024,45 @@
     <t>1.跳转到增值业务H5页面（自动化检测跳转页面显示标题云服务）</t>
   </si>
   <si>
+    <t>jwt_49</t>
+  </si>
+  <si>
+    <t>设置基础</t>
+  </si>
+  <si>
+    <t>全天/报警互切</t>
+  </si>
+  <si>
+    <t>1、设备已插入存储卡</t>
+  </si>
+  <si>
+    <t>1、进入录像设置
+2、设置录像模式从全天录像切为报警录像
+3、设置录像模式从报警录像切为定时录像
+4、设置录像模式从定时录像切为全天录像</t>
+  </si>
+  <si>
+    <t>均可切换成功，响应及时。（自动化测试从全天录像切为报警录像）</t>
+  </si>
+  <si>
+    <t>jwt_50</t>
+  </si>
+  <si>
+    <t>报警/定时录像互切</t>
+  </si>
+  <si>
+    <t>均可切换成功，响应及时。（自动化测试从报警录像切为定时录像）</t>
+  </si>
+  <si>
+    <t>jwt_51</t>
+  </si>
+  <si>
+    <t>全天/定时录像互切</t>
+  </si>
+  <si>
+    <t>均可切换成功，响应及时。（自动化测试从定时录像切为全天录像）</t>
+  </si>
+  <si>
     <t>2，广告自己会滚动刷新</t>
   </si>
   <si>
@@ -1036,8 +1075,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
@@ -1165,70 +1204,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1249,7 +1227,43 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1262,18 +1276,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1293,6 +1300,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -1301,8 +1339,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1329,13 +1368,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1347,7 +1458,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1359,49 +1476,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1419,19 +1500,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1443,7 +1518,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1455,61 +1542,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1648,30 +1687,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1688,20 +1703,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1724,8 +1743,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1744,6 +1772,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1752,10 +1791,10 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1764,133 +1803,133 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -8480,10 +8519,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AJ626"/>
+  <dimension ref="A1:AJ632"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -10410,13 +10449,25 @@
       <c r="AI49" s="61"/>
       <c r="AJ49" s="61"/>
     </row>
-    <row r="50" s="6" customFormat="1" ht="80" customHeight="1" spans="1:36">
-      <c r="A50" s="19"/>
-      <c r="B50" s="23"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
+    <row r="50" s="6" customFormat="1" ht="99" spans="1:36">
+      <c r="A50" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="B50" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="C50" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="D50" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="E50" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="F50" s="30" t="s">
+        <v>239</v>
+      </c>
       <c r="G50" s="23"/>
       <c r="H50" s="29"/>
       <c r="I50" s="23"/>
@@ -10448,515 +10499,611 @@
       <c r="AI50" s="61"/>
       <c r="AJ50" s="61"/>
     </row>
-    <row r="51" s="7" customFormat="1" ht="115.5" spans="1:36">
-      <c r="A51" s="19"/>
-      <c r="B51" s="31" t="s">
+    <row r="51" s="6" customFormat="1" ht="99" spans="1:36">
+      <c r="A51" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="B51" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="C51" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="D51" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="E51" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="F51" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="G51" s="23"/>
+      <c r="H51" s="29"/>
+      <c r="I51" s="23"/>
+      <c r="J51" s="50"/>
+      <c r="K51" s="50"/>
+      <c r="L51" s="51"/>
+      <c r="M51" s="52"/>
+      <c r="N51" s="51"/>
+      <c r="O51" s="51"/>
+      <c r="P51" s="51"/>
+      <c r="Q51" s="51"/>
+      <c r="R51" s="51"/>
+      <c r="S51" s="51"/>
+      <c r="T51" s="51"/>
+      <c r="U51" s="51"/>
+      <c r="V51" s="51"/>
+      <c r="W51" s="51"/>
+      <c r="X51" s="51"/>
+      <c r="Y51" s="51"/>
+      <c r="Z51" s="51"/>
+      <c r="AA51" s="51"/>
+      <c r="AB51" s="61"/>
+      <c r="AC51" s="61"/>
+      <c r="AD51" s="61"/>
+      <c r="AE51" s="61"/>
+      <c r="AF51" s="61"/>
+      <c r="AG51" s="61"/>
+      <c r="AH51" s="61"/>
+      <c r="AI51" s="61"/>
+      <c r="AJ51" s="61"/>
+    </row>
+    <row r="52" s="6" customFormat="1" ht="99" spans="1:36">
+      <c r="A52" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="B52" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="C52" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="D52" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="E52" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="F52" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="G52" s="23"/>
+      <c r="H52" s="29"/>
+      <c r="I52" s="23"/>
+      <c r="J52" s="50"/>
+      <c r="K52" s="50"/>
+      <c r="L52" s="51"/>
+      <c r="M52" s="52"/>
+      <c r="N52" s="51"/>
+      <c r="O52" s="51"/>
+      <c r="P52" s="51"/>
+      <c r="Q52" s="51"/>
+      <c r="R52" s="51"/>
+      <c r="S52" s="51"/>
+      <c r="T52" s="51"/>
+      <c r="U52" s="51"/>
+      <c r="V52" s="51"/>
+      <c r="W52" s="51"/>
+      <c r="X52" s="51"/>
+      <c r="Y52" s="51"/>
+      <c r="Z52" s="51"/>
+      <c r="AA52" s="51"/>
+      <c r="AB52" s="61"/>
+      <c r="AC52" s="61"/>
+      <c r="AD52" s="61"/>
+      <c r="AE52" s="61"/>
+      <c r="AF52" s="61"/>
+      <c r="AG52" s="61"/>
+      <c r="AH52" s="61"/>
+      <c r="AI52" s="61"/>
+      <c r="AJ52" s="61"/>
+    </row>
+    <row r="53" s="6" customFormat="1" ht="16.5" spans="1:36">
+      <c r="A53" s="19"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="29"/>
+      <c r="I53" s="23"/>
+      <c r="J53" s="50"/>
+      <c r="K53" s="50"/>
+      <c r="L53" s="51"/>
+      <c r="M53" s="52"/>
+      <c r="N53" s="51"/>
+      <c r="O53" s="51"/>
+      <c r="P53" s="51"/>
+      <c r="Q53" s="51"/>
+      <c r="R53" s="51"/>
+      <c r="S53" s="51"/>
+      <c r="T53" s="51"/>
+      <c r="U53" s="51"/>
+      <c r="V53" s="51"/>
+      <c r="W53" s="51"/>
+      <c r="X53" s="51"/>
+      <c r="Y53" s="51"/>
+      <c r="Z53" s="51"/>
+      <c r="AA53" s="51"/>
+      <c r="AB53" s="61"/>
+      <c r="AC53" s="61"/>
+      <c r="AD53" s="61"/>
+      <c r="AE53" s="61"/>
+      <c r="AF53" s="61"/>
+      <c r="AG53" s="61"/>
+      <c r="AH53" s="61"/>
+      <c r="AI53" s="61"/>
+      <c r="AJ53" s="61"/>
+    </row>
+    <row r="54" s="6" customFormat="1" ht="16.5" spans="1:36">
+      <c r="A54" s="19"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="29"/>
+      <c r="I54" s="23"/>
+      <c r="J54" s="50"/>
+      <c r="K54" s="50"/>
+      <c r="L54" s="51"/>
+      <c r="M54" s="52"/>
+      <c r="N54" s="51"/>
+      <c r="O54" s="51"/>
+      <c r="P54" s="51"/>
+      <c r="Q54" s="51"/>
+      <c r="R54" s="51"/>
+      <c r="S54" s="51"/>
+      <c r="T54" s="51"/>
+      <c r="U54" s="51"/>
+      <c r="V54" s="51"/>
+      <c r="W54" s="51"/>
+      <c r="X54" s="51"/>
+      <c r="Y54" s="51"/>
+      <c r="Z54" s="51"/>
+      <c r="AA54" s="51"/>
+      <c r="AB54" s="61"/>
+      <c r="AC54" s="61"/>
+      <c r="AD54" s="61"/>
+      <c r="AE54" s="61"/>
+      <c r="AF54" s="61"/>
+      <c r="AG54" s="61"/>
+      <c r="AH54" s="61"/>
+      <c r="AI54" s="61"/>
+      <c r="AJ54" s="61"/>
+    </row>
+    <row r="55" s="6" customFormat="1" ht="16.5" spans="1:36">
+      <c r="A55" s="19"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="29"/>
+      <c r="I55" s="23"/>
+      <c r="J55" s="50"/>
+      <c r="K55" s="50"/>
+      <c r="L55" s="51"/>
+      <c r="M55" s="52"/>
+      <c r="N55" s="51"/>
+      <c r="O55" s="51"/>
+      <c r="P55" s="51"/>
+      <c r="Q55" s="51"/>
+      <c r="R55" s="51"/>
+      <c r="S55" s="51"/>
+      <c r="T55" s="51"/>
+      <c r="U55" s="51"/>
+      <c r="V55" s="51"/>
+      <c r="W55" s="51"/>
+      <c r="X55" s="51"/>
+      <c r="Y55" s="51"/>
+      <c r="Z55" s="51"/>
+      <c r="AA55" s="51"/>
+      <c r="AB55" s="61"/>
+      <c r="AC55" s="61"/>
+      <c r="AD55" s="61"/>
+      <c r="AE55" s="61"/>
+      <c r="AF55" s="61"/>
+      <c r="AG55" s="61"/>
+      <c r="AH55" s="61"/>
+      <c r="AI55" s="61"/>
+      <c r="AJ55" s="61"/>
+    </row>
+    <row r="56" s="6" customFormat="1" ht="80" customHeight="1" spans="1:36">
+      <c r="A56" s="19"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="29"/>
+      <c r="I56" s="23"/>
+      <c r="J56" s="50"/>
+      <c r="K56" s="50"/>
+      <c r="L56" s="51"/>
+      <c r="M56" s="52"/>
+      <c r="N56" s="51"/>
+      <c r="O56" s="51"/>
+      <c r="P56" s="51"/>
+      <c r="Q56" s="51"/>
+      <c r="R56" s="51"/>
+      <c r="S56" s="51"/>
+      <c r="T56" s="51"/>
+      <c r="U56" s="51"/>
+      <c r="V56" s="51"/>
+      <c r="W56" s="51"/>
+      <c r="X56" s="51"/>
+      <c r="Y56" s="51"/>
+      <c r="Z56" s="51"/>
+      <c r="AA56" s="51"/>
+      <c r="AB56" s="61"/>
+      <c r="AC56" s="61"/>
+      <c r="AD56" s="61"/>
+      <c r="AE56" s="61"/>
+      <c r="AF56" s="61"/>
+      <c r="AG56" s="61"/>
+      <c r="AH56" s="61"/>
+      <c r="AI56" s="61"/>
+      <c r="AJ56" s="61"/>
+    </row>
+    <row r="57" s="7" customFormat="1" ht="115.5" spans="1:36">
+      <c r="A57" s="19"/>
+      <c r="B57" s="31" t="s">
         <v>224</v>
       </c>
-      <c r="C51" s="31" t="s">
+      <c r="C57" s="31" t="s">
         <v>225</v>
       </c>
-      <c r="D51" s="31" t="s">
+      <c r="D57" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="E51" s="31" t="s">
+      <c r="E57" s="31" t="s">
         <v>226</v>
       </c>
-      <c r="F51" s="31" t="s">
-        <v>234</v>
-      </c>
-      <c r="G51" s="31" t="s">
-        <v>235</v>
-      </c>
-      <c r="H51" s="32"/>
-      <c r="I51" s="34"/>
-      <c r="J51" s="53"/>
-      <c r="K51" s="53"/>
-      <c r="L51" s="54"/>
-      <c r="M51" s="55"/>
-      <c r="N51" s="54"/>
-      <c r="O51" s="54"/>
-      <c r="P51" s="54"/>
-      <c r="Q51" s="54"/>
-      <c r="R51" s="54"/>
-      <c r="S51" s="54"/>
-      <c r="T51" s="54"/>
-      <c r="U51" s="54"/>
-      <c r="V51" s="54"/>
-      <c r="W51" s="54"/>
-      <c r="X51" s="54"/>
-      <c r="Y51" s="54"/>
-      <c r="Z51" s="54"/>
-      <c r="AA51" s="54"/>
-      <c r="AB51" s="62"/>
-      <c r="AC51" s="62"/>
-      <c r="AD51" s="62"/>
-      <c r="AE51" s="62"/>
-      <c r="AF51" s="62"/>
-      <c r="AG51" s="62"/>
-      <c r="AH51" s="62"/>
-      <c r="AI51" s="62"/>
-      <c r="AJ51" s="62"/>
-    </row>
-    <row r="52" s="7" customFormat="1" ht="16.5" spans="1:36">
-      <c r="A52" s="33"/>
-      <c r="B52" s="23"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="34"/>
-      <c r="H52" s="35"/>
-      <c r="I52" s="34"/>
-      <c r="J52" s="53"/>
-      <c r="K52" s="53"/>
-      <c r="L52" s="54"/>
-      <c r="M52" s="55"/>
-      <c r="N52" s="54"/>
-      <c r="O52" s="54"/>
-      <c r="P52" s="54"/>
-      <c r="Q52" s="54"/>
-      <c r="R52" s="54"/>
-      <c r="S52" s="54"/>
-      <c r="T52" s="54"/>
-      <c r="U52" s="54"/>
-      <c r="V52" s="54"/>
-      <c r="W52" s="54"/>
-      <c r="X52" s="54"/>
-      <c r="Y52" s="54"/>
-      <c r="Z52" s="54"/>
-      <c r="AA52" s="54"/>
-      <c r="AB52" s="62"/>
-      <c r="AC52" s="62"/>
-      <c r="AD52" s="62"/>
-      <c r="AE52" s="62"/>
-      <c r="AF52" s="62"/>
-      <c r="AG52" s="62"/>
-      <c r="AH52" s="62"/>
-      <c r="AI52" s="62"/>
-      <c r="AJ52" s="62"/>
-    </row>
-    <row r="53" s="7" customFormat="1" ht="16.5" spans="1:36">
-      <c r="A53" s="33"/>
-      <c r="B53" s="23"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="35"/>
-      <c r="I53" s="34"/>
-      <c r="J53" s="53"/>
-      <c r="K53" s="53"/>
-      <c r="L53" s="54"/>
-      <c r="M53" s="56"/>
-      <c r="N53" s="34"/>
-      <c r="O53" s="34"/>
-      <c r="P53" s="34"/>
-      <c r="Q53" s="34"/>
-      <c r="R53" s="34"/>
-      <c r="S53" s="34"/>
-      <c r="T53" s="34"/>
-      <c r="U53" s="34"/>
-      <c r="V53" s="34"/>
-      <c r="W53" s="34"/>
-      <c r="X53" s="34"/>
-      <c r="Y53" s="34"/>
-      <c r="Z53" s="34"/>
-      <c r="AA53" s="34"/>
-      <c r="AB53" s="62"/>
-      <c r="AC53" s="62"/>
-      <c r="AD53" s="62"/>
-      <c r="AE53" s="62"/>
-      <c r="AF53" s="62"/>
-      <c r="AG53" s="62"/>
-      <c r="AH53" s="62"/>
-      <c r="AI53" s="62"/>
-      <c r="AJ53" s="62"/>
-    </row>
-    <row r="54" s="8" customFormat="1" ht="16.5" spans="1:36">
-      <c r="A54" s="36"/>
-      <c r="B54" s="23"/>
-      <c r="C54" s="31"/>
-      <c r="D54" s="31"/>
-      <c r="E54" s="31"/>
-      <c r="F54" s="31"/>
-      <c r="G54" s="31"/>
-      <c r="H54" s="32"/>
-      <c r="I54" s="31"/>
-      <c r="J54" s="57"/>
-      <c r="K54" s="57"/>
-      <c r="L54" s="31"/>
-      <c r="M54" s="58"/>
-      <c r="N54" s="31"/>
-      <c r="O54" s="31"/>
-      <c r="P54" s="31"/>
-      <c r="Q54" s="31"/>
-      <c r="R54" s="31"/>
-      <c r="S54" s="31"/>
-      <c r="T54" s="31"/>
-      <c r="U54" s="31"/>
-      <c r="V54" s="31"/>
-      <c r="W54" s="31"/>
-      <c r="X54" s="31"/>
-      <c r="Y54" s="31"/>
-      <c r="Z54" s="31"/>
-      <c r="AA54" s="31"/>
-      <c r="AB54" s="63"/>
-      <c r="AC54" s="63"/>
-      <c r="AD54" s="63"/>
-      <c r="AE54" s="63"/>
-      <c r="AF54" s="63"/>
-      <c r="AG54" s="63"/>
-      <c r="AH54" s="63"/>
-      <c r="AI54" s="63"/>
-      <c r="AJ54" s="63"/>
-    </row>
-    <row r="55" s="8" customFormat="1" ht="16.5" spans="1:36">
-      <c r="A55" s="36"/>
-      <c r="B55" s="23"/>
-      <c r="C55" s="31"/>
-      <c r="D55" s="31"/>
-      <c r="E55" s="31"/>
-      <c r="F55" s="31"/>
-      <c r="G55" s="31"/>
-      <c r="H55" s="32"/>
-      <c r="I55" s="31"/>
-      <c r="J55" s="57"/>
-      <c r="K55" s="57"/>
-      <c r="L55" s="31"/>
-      <c r="M55" s="58"/>
-      <c r="N55" s="31"/>
-      <c r="O55" s="31"/>
-      <c r="P55" s="31"/>
-      <c r="Q55" s="31"/>
-      <c r="R55" s="31"/>
-      <c r="S55" s="31"/>
-      <c r="T55" s="31"/>
-      <c r="U55" s="31"/>
-      <c r="V55" s="31"/>
-      <c r="W55" s="31"/>
-      <c r="X55" s="31"/>
-      <c r="Y55" s="31"/>
-      <c r="Z55" s="31"/>
-      <c r="AA55" s="31"/>
-      <c r="AB55" s="63"/>
-      <c r="AC55" s="63"/>
-      <c r="AD55" s="63"/>
-      <c r="AE55" s="63"/>
-      <c r="AF55" s="63"/>
-      <c r="AG55" s="63"/>
-      <c r="AH55" s="63"/>
-      <c r="AI55" s="63"/>
-      <c r="AJ55" s="63"/>
-    </row>
-    <row r="56" s="8" customFormat="1" ht="16.5" spans="1:36">
-      <c r="A56" s="36"/>
-      <c r="B56" s="23"/>
-      <c r="C56" s="31"/>
-      <c r="D56" s="31"/>
-      <c r="E56" s="31"/>
-      <c r="F56" s="31"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="32"/>
-      <c r="I56" s="31"/>
-      <c r="J56" s="57"/>
-      <c r="K56" s="57"/>
-      <c r="L56" s="31"/>
-      <c r="M56" s="58"/>
-      <c r="N56" s="31"/>
-      <c r="O56" s="31"/>
-      <c r="P56" s="31"/>
-      <c r="Q56" s="31"/>
-      <c r="R56" s="31"/>
-      <c r="S56" s="31"/>
-      <c r="T56" s="31"/>
-      <c r="U56" s="31"/>
-      <c r="V56" s="31"/>
-      <c r="W56" s="31"/>
-      <c r="X56" s="31"/>
-      <c r="Y56" s="31"/>
-      <c r="Z56" s="31"/>
-      <c r="AA56" s="31"/>
-      <c r="AB56" s="63"/>
-      <c r="AC56" s="63"/>
-      <c r="AD56" s="63"/>
-      <c r="AE56" s="63"/>
-      <c r="AF56" s="63"/>
-      <c r="AG56" s="63"/>
-      <c r="AH56" s="63"/>
-      <c r="AI56" s="63"/>
-      <c r="AJ56" s="63"/>
-    </row>
-    <row r="57" s="8" customFormat="1" ht="16.5" spans="1:36">
-      <c r="A57" s="36"/>
-      <c r="B57" s="23"/>
-      <c r="C57" s="31"/>
-      <c r="D57" s="31"/>
-      <c r="E57" s="31"/>
-      <c r="F57" s="31"/>
-      <c r="G57" s="31"/>
+      <c r="F57" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="G57" s="31" t="s">
+        <v>247</v>
+      </c>
       <c r="H57" s="32"/>
-      <c r="I57" s="31"/>
-      <c r="J57" s="57"/>
-      <c r="K57" s="57"/>
-      <c r="L57" s="31"/>
-      <c r="M57" s="58"/>
-      <c r="N57" s="31"/>
-      <c r="O57" s="31"/>
-      <c r="P57" s="31"/>
-      <c r="Q57" s="31"/>
-      <c r="R57" s="31"/>
-      <c r="S57" s="31"/>
-      <c r="T57" s="31"/>
-      <c r="U57" s="31"/>
-      <c r="V57" s="31"/>
-      <c r="W57" s="31"/>
-      <c r="X57" s="31"/>
-      <c r="Y57" s="31"/>
-      <c r="Z57" s="31"/>
-      <c r="AA57" s="31"/>
-      <c r="AB57" s="63"/>
-      <c r="AC57" s="63"/>
-      <c r="AD57" s="63"/>
-      <c r="AE57" s="63"/>
-      <c r="AF57" s="63"/>
-      <c r="AG57" s="63"/>
-      <c r="AH57" s="63"/>
-      <c r="AI57" s="63"/>
-      <c r="AJ57" s="63"/>
-    </row>
-    <row r="58" s="8" customFormat="1" ht="16.5" spans="1:36">
-      <c r="A58" s="36"/>
+      <c r="I57" s="34"/>
+      <c r="J57" s="53"/>
+      <c r="K57" s="53"/>
+      <c r="L57" s="54"/>
+      <c r="M57" s="55"/>
+      <c r="N57" s="54"/>
+      <c r="O57" s="54"/>
+      <c r="P57" s="54"/>
+      <c r="Q57" s="54"/>
+      <c r="R57" s="54"/>
+      <c r="S57" s="54"/>
+      <c r="T57" s="54"/>
+      <c r="U57" s="54"/>
+      <c r="V57" s="54"/>
+      <c r="W57" s="54"/>
+      <c r="X57" s="54"/>
+      <c r="Y57" s="54"/>
+      <c r="Z57" s="54"/>
+      <c r="AA57" s="54"/>
+      <c r="AB57" s="62"/>
+      <c r="AC57" s="62"/>
+      <c r="AD57" s="62"/>
+      <c r="AE57" s="62"/>
+      <c r="AF57" s="62"/>
+      <c r="AG57" s="62"/>
+      <c r="AH57" s="62"/>
+      <c r="AI57" s="62"/>
+      <c r="AJ57" s="62"/>
+    </row>
+    <row r="58" s="7" customFormat="1" ht="16.5" spans="1:36">
+      <c r="A58" s="33"/>
       <c r="B58" s="23"/>
-      <c r="C58" s="31"/>
-      <c r="D58" s="31"/>
-      <c r="E58" s="31"/>
-      <c r="F58" s="31"/>
-      <c r="G58" s="31"/>
-      <c r="H58" s="32"/>
-      <c r="I58" s="31"/>
-      <c r="J58" s="57"/>
-      <c r="K58" s="57"/>
-      <c r="L58" s="31"/>
-      <c r="M58" s="58"/>
-      <c r="N58" s="31"/>
-      <c r="O58" s="31"/>
-      <c r="P58" s="31"/>
-      <c r="Q58" s="31"/>
-      <c r="R58" s="31"/>
-      <c r="S58" s="31"/>
-      <c r="T58" s="31"/>
-      <c r="U58" s="31"/>
-      <c r="V58" s="31"/>
-      <c r="W58" s="31"/>
-      <c r="X58" s="31"/>
-      <c r="Y58" s="31"/>
-      <c r="Z58" s="31"/>
-      <c r="AA58" s="31"/>
-      <c r="AB58" s="63"/>
-      <c r="AC58" s="63"/>
-      <c r="AD58" s="63"/>
-      <c r="AE58" s="63"/>
-      <c r="AF58" s="63"/>
-      <c r="AG58" s="63"/>
-      <c r="AH58" s="63"/>
-      <c r="AI58" s="63"/>
-      <c r="AJ58" s="63"/>
-    </row>
-    <row r="59" s="8" customFormat="1" ht="16.5" spans="1:36">
-      <c r="A59" s="36"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="34"/>
+      <c r="H58" s="35"/>
+      <c r="I58" s="34"/>
+      <c r="J58" s="53"/>
+      <c r="K58" s="53"/>
+      <c r="L58" s="54"/>
+      <c r="M58" s="55"/>
+      <c r="N58" s="54"/>
+      <c r="O58" s="54"/>
+      <c r="P58" s="54"/>
+      <c r="Q58" s="54"/>
+      <c r="R58" s="54"/>
+      <c r="S58" s="54"/>
+      <c r="T58" s="54"/>
+      <c r="U58" s="54"/>
+      <c r="V58" s="54"/>
+      <c r="W58" s="54"/>
+      <c r="X58" s="54"/>
+      <c r="Y58" s="54"/>
+      <c r="Z58" s="54"/>
+      <c r="AA58" s="54"/>
+      <c r="AB58" s="62"/>
+      <c r="AC58" s="62"/>
+      <c r="AD58" s="62"/>
+      <c r="AE58" s="62"/>
+      <c r="AF58" s="62"/>
+      <c r="AG58" s="62"/>
+      <c r="AH58" s="62"/>
+      <c r="AI58" s="62"/>
+      <c r="AJ58" s="62"/>
+    </row>
+    <row r="59" s="7" customFormat="1" ht="16.5" spans="1:36">
+      <c r="A59" s="33"/>
       <c r="B59" s="23"/>
-      <c r="C59" s="31"/>
-      <c r="D59" s="31"/>
-      <c r="E59" s="31"/>
-      <c r="F59" s="31"/>
-      <c r="G59" s="31"/>
-      <c r="H59" s="32"/>
-      <c r="I59" s="31"/>
-      <c r="J59" s="57"/>
-      <c r="K59" s="57"/>
-      <c r="L59" s="31"/>
-      <c r="M59" s="58"/>
-      <c r="N59" s="31"/>
-      <c r="O59" s="31"/>
-      <c r="P59" s="31"/>
-      <c r="Q59" s="31"/>
-      <c r="R59" s="31"/>
-      <c r="S59" s="31"/>
-      <c r="T59" s="31"/>
-      <c r="U59" s="31"/>
-      <c r="V59" s="31"/>
-      <c r="W59" s="31"/>
-      <c r="X59" s="31"/>
-      <c r="Y59" s="31"/>
-      <c r="Z59" s="31"/>
-      <c r="AA59" s="31"/>
-      <c r="AB59" s="63"/>
-      <c r="AC59" s="63"/>
-      <c r="AD59" s="63"/>
-      <c r="AE59" s="63"/>
-      <c r="AF59" s="63"/>
-      <c r="AG59" s="63"/>
-      <c r="AH59" s="63"/>
-      <c r="AI59" s="63"/>
-      <c r="AJ59" s="63"/>
-    </row>
-    <row r="60" ht="16.5" spans="1:24">
-      <c r="A60" s="28"/>
-      <c r="B60" s="25"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="27"/>
-      <c r="I60" s="45"/>
-      <c r="J60" s="38"/>
-      <c r="K60" s="26"/>
-      <c r="L60" s="26"/>
-      <c r="M60" s="26"/>
-      <c r="N60" s="26"/>
-      <c r="O60" s="26"/>
-      <c r="P60" s="26"/>
-      <c r="Q60" s="26"/>
-      <c r="R60" s="26"/>
-      <c r="S60" s="26"/>
-      <c r="T60" s="26"/>
-      <c r="U60" s="26"/>
-      <c r="V60" s="26"/>
-      <c r="W60" s="26"/>
-      <c r="X60" s="26"/>
-    </row>
-    <row r="61" ht="16.5" spans="1:24">
-      <c r="A61" s="28"/>
-      <c r="B61" s="25"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="27"/>
-      <c r="I61" s="45"/>
-      <c r="J61" s="38"/>
-      <c r="K61" s="26"/>
-      <c r="L61" s="26"/>
-      <c r="M61" s="26"/>
-      <c r="N61" s="26"/>
-      <c r="O61" s="26"/>
-      <c r="P61" s="26"/>
-      <c r="Q61" s="26"/>
-      <c r="R61" s="26"/>
-      <c r="S61" s="26"/>
-      <c r="T61" s="26"/>
-      <c r="U61" s="26"/>
-      <c r="V61" s="26"/>
-      <c r="W61" s="26"/>
-      <c r="X61" s="26"/>
-    </row>
-    <row r="62" ht="16.5" spans="1:24">
-      <c r="A62" s="28"/>
-      <c r="B62" s="25"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="26"/>
-      <c r="H62" s="27"/>
-      <c r="I62" s="45"/>
-      <c r="J62" s="38"/>
-      <c r="K62" s="26"/>
-      <c r="L62" s="26"/>
-      <c r="M62" s="26"/>
-      <c r="N62" s="26"/>
-      <c r="O62" s="26"/>
-      <c r="P62" s="26"/>
-      <c r="Q62" s="26"/>
-      <c r="R62" s="26"/>
-      <c r="S62" s="26"/>
-      <c r="T62" s="26"/>
-      <c r="U62" s="26"/>
-      <c r="V62" s="26"/>
-      <c r="W62" s="26"/>
-      <c r="X62" s="26"/>
-    </row>
-    <row r="63" ht="16.5" spans="1:24">
-      <c r="A63" s="28"/>
-      <c r="B63" s="25"/>
-      <c r="C63" s="26"/>
-      <c r="D63" s="26"/>
-      <c r="E63" s="26"/>
-      <c r="F63" s="26"/>
-      <c r="G63" s="26"/>
-      <c r="H63" s="27"/>
-      <c r="I63" s="45"/>
-      <c r="J63" s="38"/>
-      <c r="K63" s="26"/>
-      <c r="L63" s="26"/>
-      <c r="M63" s="26"/>
-      <c r="N63" s="26"/>
-      <c r="O63" s="26"/>
-      <c r="P63" s="26"/>
-      <c r="Q63" s="26"/>
-      <c r="R63" s="26"/>
-      <c r="S63" s="26"/>
-      <c r="T63" s="26"/>
-      <c r="U63" s="26"/>
-      <c r="V63" s="26"/>
-      <c r="W63" s="26"/>
-      <c r="X63" s="26"/>
-    </row>
-    <row r="64" ht="16.5" spans="1:24">
-      <c r="A64" s="28"/>
-      <c r="B64" s="25"/>
-      <c r="C64" s="26"/>
-      <c r="D64" s="26"/>
-      <c r="E64" s="26"/>
-      <c r="F64" s="26"/>
-      <c r="G64" s="26"/>
-      <c r="H64" s="27"/>
-      <c r="I64" s="45"/>
-      <c r="J64" s="38"/>
-      <c r="K64" s="26"/>
-      <c r="L64" s="26"/>
-      <c r="M64" s="26"/>
-      <c r="N64" s="26"/>
-      <c r="O64" s="26"/>
-      <c r="P64" s="26"/>
-      <c r="Q64" s="26"/>
-      <c r="R64" s="26"/>
-      <c r="S64" s="26"/>
-      <c r="T64" s="26"/>
-      <c r="U64" s="26"/>
-      <c r="V64" s="26"/>
-      <c r="W64" s="26"/>
-      <c r="X64" s="26"/>
-    </row>
-    <row r="65" ht="16.5" spans="1:24">
-      <c r="A65" s="28"/>
-      <c r="B65" s="25"/>
-      <c r="C65" s="26"/>
-      <c r="D65" s="26"/>
-      <c r="E65" s="26"/>
-      <c r="F65" s="26"/>
-      <c r="G65" s="26"/>
-      <c r="H65" s="27"/>
-      <c r="I65" s="45"/>
-      <c r="J65" s="38"/>
-      <c r="K65" s="26"/>
-      <c r="L65" s="26"/>
-      <c r="M65" s="26"/>
-      <c r="N65" s="26"/>
-      <c r="O65" s="26"/>
-      <c r="P65" s="26"/>
-      <c r="Q65" s="26"/>
-      <c r="R65" s="26"/>
-      <c r="S65" s="26"/>
-      <c r="T65" s="26"/>
-      <c r="U65" s="26"/>
-      <c r="V65" s="26"/>
-      <c r="W65" s="26"/>
-      <c r="X65" s="26"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="34"/>
+      <c r="G59" s="34"/>
+      <c r="H59" s="35"/>
+      <c r="I59" s="34"/>
+      <c r="J59" s="53"/>
+      <c r="K59" s="53"/>
+      <c r="L59" s="54"/>
+      <c r="M59" s="56"/>
+      <c r="N59" s="34"/>
+      <c r="O59" s="34"/>
+      <c r="P59" s="34"/>
+      <c r="Q59" s="34"/>
+      <c r="R59" s="34"/>
+      <c r="S59" s="34"/>
+      <c r="T59" s="34"/>
+      <c r="U59" s="34"/>
+      <c r="V59" s="34"/>
+      <c r="W59" s="34"/>
+      <c r="X59" s="34"/>
+      <c r="Y59" s="34"/>
+      <c r="Z59" s="34"/>
+      <c r="AA59" s="34"/>
+      <c r="AB59" s="62"/>
+      <c r="AC59" s="62"/>
+      <c r="AD59" s="62"/>
+      <c r="AE59" s="62"/>
+      <c r="AF59" s="62"/>
+      <c r="AG59" s="62"/>
+      <c r="AH59" s="62"/>
+      <c r="AI59" s="62"/>
+      <c r="AJ59" s="62"/>
+    </row>
+    <row r="60" s="8" customFormat="1" ht="16.5" spans="1:36">
+      <c r="A60" s="36"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="32"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="57"/>
+      <c r="K60" s="57"/>
+      <c r="L60" s="31"/>
+      <c r="M60" s="58"/>
+      <c r="N60" s="31"/>
+      <c r="O60" s="31"/>
+      <c r="P60" s="31"/>
+      <c r="Q60" s="31"/>
+      <c r="R60" s="31"/>
+      <c r="S60" s="31"/>
+      <c r="T60" s="31"/>
+      <c r="U60" s="31"/>
+      <c r="V60" s="31"/>
+      <c r="W60" s="31"/>
+      <c r="X60" s="31"/>
+      <c r="Y60" s="31"/>
+      <c r="Z60" s="31"/>
+      <c r="AA60" s="31"/>
+      <c r="AB60" s="63"/>
+      <c r="AC60" s="63"/>
+      <c r="AD60" s="63"/>
+      <c r="AE60" s="63"/>
+      <c r="AF60" s="63"/>
+      <c r="AG60" s="63"/>
+      <c r="AH60" s="63"/>
+      <c r="AI60" s="63"/>
+      <c r="AJ60" s="63"/>
+    </row>
+    <row r="61" s="8" customFormat="1" ht="16.5" spans="1:36">
+      <c r="A61" s="36"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="31"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="32"/>
+      <c r="I61" s="31"/>
+      <c r="J61" s="57"/>
+      <c r="K61" s="57"/>
+      <c r="L61" s="31"/>
+      <c r="M61" s="58"/>
+      <c r="N61" s="31"/>
+      <c r="O61" s="31"/>
+      <c r="P61" s="31"/>
+      <c r="Q61" s="31"/>
+      <c r="R61" s="31"/>
+      <c r="S61" s="31"/>
+      <c r="T61" s="31"/>
+      <c r="U61" s="31"/>
+      <c r="V61" s="31"/>
+      <c r="W61" s="31"/>
+      <c r="X61" s="31"/>
+      <c r="Y61" s="31"/>
+      <c r="Z61" s="31"/>
+      <c r="AA61" s="31"/>
+      <c r="AB61" s="63"/>
+      <c r="AC61" s="63"/>
+      <c r="AD61" s="63"/>
+      <c r="AE61" s="63"/>
+      <c r="AF61" s="63"/>
+      <c r="AG61" s="63"/>
+      <c r="AH61" s="63"/>
+      <c r="AI61" s="63"/>
+      <c r="AJ61" s="63"/>
+    </row>
+    <row r="62" s="8" customFormat="1" ht="16.5" spans="1:36">
+      <c r="A62" s="36"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="31"/>
+      <c r="D62" s="31"/>
+      <c r="E62" s="31"/>
+      <c r="F62" s="31"/>
+      <c r="G62" s="31"/>
+      <c r="H62" s="32"/>
+      <c r="I62" s="31"/>
+      <c r="J62" s="57"/>
+      <c r="K62" s="57"/>
+      <c r="L62" s="31"/>
+      <c r="M62" s="58"/>
+      <c r="N62" s="31"/>
+      <c r="O62" s="31"/>
+      <c r="P62" s="31"/>
+      <c r="Q62" s="31"/>
+      <c r="R62" s="31"/>
+      <c r="S62" s="31"/>
+      <c r="T62" s="31"/>
+      <c r="U62" s="31"/>
+      <c r="V62" s="31"/>
+      <c r="W62" s="31"/>
+      <c r="X62" s="31"/>
+      <c r="Y62" s="31"/>
+      <c r="Z62" s="31"/>
+      <c r="AA62" s="31"/>
+      <c r="AB62" s="63"/>
+      <c r="AC62" s="63"/>
+      <c r="AD62" s="63"/>
+      <c r="AE62" s="63"/>
+      <c r="AF62" s="63"/>
+      <c r="AG62" s="63"/>
+      <c r="AH62" s="63"/>
+      <c r="AI62" s="63"/>
+      <c r="AJ62" s="63"/>
+    </row>
+    <row r="63" s="8" customFormat="1" ht="16.5" spans="1:36">
+      <c r="A63" s="36"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="31"/>
+      <c r="D63" s="31"/>
+      <c r="E63" s="31"/>
+      <c r="F63" s="31"/>
+      <c r="G63" s="31"/>
+      <c r="H63" s="32"/>
+      <c r="I63" s="31"/>
+      <c r="J63" s="57"/>
+      <c r="K63" s="57"/>
+      <c r="L63" s="31"/>
+      <c r="M63" s="58"/>
+      <c r="N63" s="31"/>
+      <c r="O63" s="31"/>
+      <c r="P63" s="31"/>
+      <c r="Q63" s="31"/>
+      <c r="R63" s="31"/>
+      <c r="S63" s="31"/>
+      <c r="T63" s="31"/>
+      <c r="U63" s="31"/>
+      <c r="V63" s="31"/>
+      <c r="W63" s="31"/>
+      <c r="X63" s="31"/>
+      <c r="Y63" s="31"/>
+      <c r="Z63" s="31"/>
+      <c r="AA63" s="31"/>
+      <c r="AB63" s="63"/>
+      <c r="AC63" s="63"/>
+      <c r="AD63" s="63"/>
+      <c r="AE63" s="63"/>
+      <c r="AF63" s="63"/>
+      <c r="AG63" s="63"/>
+      <c r="AH63" s="63"/>
+      <c r="AI63" s="63"/>
+      <c r="AJ63" s="63"/>
+    </row>
+    <row r="64" s="8" customFormat="1" ht="16.5" spans="1:36">
+      <c r="A64" s="36"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="31"/>
+      <c r="E64" s="31"/>
+      <c r="F64" s="31"/>
+      <c r="G64" s="31"/>
+      <c r="H64" s="32"/>
+      <c r="I64" s="31"/>
+      <c r="J64" s="57"/>
+      <c r="K64" s="57"/>
+      <c r="L64" s="31"/>
+      <c r="M64" s="58"/>
+      <c r="N64" s="31"/>
+      <c r="O64" s="31"/>
+      <c r="P64" s="31"/>
+      <c r="Q64" s="31"/>
+      <c r="R64" s="31"/>
+      <c r="S64" s="31"/>
+      <c r="T64" s="31"/>
+      <c r="U64" s="31"/>
+      <c r="V64" s="31"/>
+      <c r="W64" s="31"/>
+      <c r="X64" s="31"/>
+      <c r="Y64" s="31"/>
+      <c r="Z64" s="31"/>
+      <c r="AA64" s="31"/>
+      <c r="AB64" s="63"/>
+      <c r="AC64" s="63"/>
+      <c r="AD64" s="63"/>
+      <c r="AE64" s="63"/>
+      <c r="AF64" s="63"/>
+      <c r="AG64" s="63"/>
+      <c r="AH64" s="63"/>
+      <c r="AI64" s="63"/>
+      <c r="AJ64" s="63"/>
+    </row>
+    <row r="65" s="8" customFormat="1" ht="16.5" spans="1:36">
+      <c r="A65" s="36"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="32"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="57"/>
+      <c r="K65" s="57"/>
+      <c r="L65" s="31"/>
+      <c r="M65" s="58"/>
+      <c r="N65" s="31"/>
+      <c r="O65" s="31"/>
+      <c r="P65" s="31"/>
+      <c r="Q65" s="31"/>
+      <c r="R65" s="31"/>
+      <c r="S65" s="31"/>
+      <c r="T65" s="31"/>
+      <c r="U65" s="31"/>
+      <c r="V65" s="31"/>
+      <c r="W65" s="31"/>
+      <c r="X65" s="31"/>
+      <c r="Y65" s="31"/>
+      <c r="Z65" s="31"/>
+      <c r="AA65" s="31"/>
+      <c r="AB65" s="63"/>
+      <c r="AC65" s="63"/>
+      <c r="AD65" s="63"/>
+      <c r="AE65" s="63"/>
+      <c r="AF65" s="63"/>
+      <c r="AG65" s="63"/>
+      <c r="AH65" s="63"/>
+      <c r="AI65" s="63"/>
+      <c r="AJ65" s="63"/>
     </row>
     <row r="66" ht="16.5" spans="1:24">
       <c r="A66" s="28"/>
@@ -12130,7 +12277,7 @@
     </row>
     <row r="111" ht="16.5" spans="1:24">
       <c r="A111" s="28"/>
-      <c r="B111" s="26"/>
+      <c r="B111" s="25"/>
       <c r="C111" s="26"/>
       <c r="D111" s="26"/>
       <c r="E111" s="26"/>
@@ -12156,7 +12303,7 @@
     </row>
     <row r="112" ht="16.5" spans="1:24">
       <c r="A112" s="28"/>
-      <c r="B112" s="26"/>
+      <c r="B112" s="25"/>
       <c r="C112" s="26"/>
       <c r="D112" s="26"/>
       <c r="E112" s="26"/>
@@ -12182,7 +12329,7 @@
     </row>
     <row r="113" ht="16.5" spans="1:24">
       <c r="A113" s="28"/>
-      <c r="B113" s="26"/>
+      <c r="B113" s="25"/>
       <c r="C113" s="26"/>
       <c r="D113" s="26"/>
       <c r="E113" s="26"/>
@@ -12208,7 +12355,7 @@
     </row>
     <row r="114" ht="16.5" spans="1:24">
       <c r="A114" s="28"/>
-      <c r="B114" s="26"/>
+      <c r="B114" s="25"/>
       <c r="C114" s="26"/>
       <c r="D114" s="26"/>
       <c r="E114" s="26"/>
@@ -12234,7 +12381,7 @@
     </row>
     <row r="115" ht="16.5" spans="1:24">
       <c r="A115" s="28"/>
-      <c r="B115" s="26"/>
+      <c r="B115" s="25"/>
       <c r="C115" s="26"/>
       <c r="D115" s="26"/>
       <c r="E115" s="26"/>
@@ -12260,7 +12407,7 @@
     </row>
     <row r="116" ht="16.5" spans="1:24">
       <c r="A116" s="28"/>
-      <c r="B116" s="26"/>
+      <c r="B116" s="25"/>
       <c r="C116" s="26"/>
       <c r="D116" s="26"/>
       <c r="E116" s="26"/>
@@ -14027,7 +14174,7 @@
       <c r="X183" s="26"/>
     </row>
     <row r="184" ht="16.5" spans="1:24">
-      <c r="A184" s="26"/>
+      <c r="A184" s="28"/>
       <c r="B184" s="26"/>
       <c r="C184" s="26"/>
       <c r="D184" s="26"/>
@@ -14036,24 +14183,24 @@
       <c r="G184" s="26"/>
       <c r="H184" s="27"/>
       <c r="I184" s="45"/>
-      <c r="J184" s="64"/>
-      <c r="K184" s="64"/>
-      <c r="L184" s="64"/>
-      <c r="M184" s="64"/>
-      <c r="N184" s="64"/>
-      <c r="O184" s="64"/>
-      <c r="P184" s="64"/>
-      <c r="Q184" s="64"/>
-      <c r="R184" s="64"/>
-      <c r="S184" s="64"/>
-      <c r="T184" s="64"/>
-      <c r="U184" s="64"/>
-      <c r="V184" s="64"/>
-      <c r="W184" s="64"/>
-      <c r="X184" s="64"/>
+      <c r="J184" s="38"/>
+      <c r="K184" s="26"/>
+      <c r="L184" s="26"/>
+      <c r="M184" s="26"/>
+      <c r="N184" s="26"/>
+      <c r="O184" s="26"/>
+      <c r="P184" s="26"/>
+      <c r="Q184" s="26"/>
+      <c r="R184" s="26"/>
+      <c r="S184" s="26"/>
+      <c r="T184" s="26"/>
+      <c r="U184" s="26"/>
+      <c r="V184" s="26"/>
+      <c r="W184" s="26"/>
+      <c r="X184" s="26"/>
     </row>
     <row r="185" ht="16.5" spans="1:24">
-      <c r="A185" s="26"/>
+      <c r="A185" s="28"/>
       <c r="B185" s="26"/>
       <c r="C185" s="26"/>
       <c r="D185" s="26"/>
@@ -14062,24 +14209,24 @@
       <c r="G185" s="26"/>
       <c r="H185" s="27"/>
       <c r="I185" s="45"/>
-      <c r="J185" s="64"/>
-      <c r="K185" s="64"/>
-      <c r="L185" s="64"/>
-      <c r="M185" s="64"/>
-      <c r="N185" s="64"/>
-      <c r="O185" s="64"/>
-      <c r="P185" s="64"/>
-      <c r="Q185" s="64"/>
-      <c r="R185" s="64"/>
-      <c r="S185" s="64"/>
-      <c r="T185" s="64"/>
-      <c r="U185" s="64"/>
-      <c r="V185" s="64"/>
-      <c r="W185" s="64"/>
-      <c r="X185" s="64"/>
+      <c r="J185" s="38"/>
+      <c r="K185" s="26"/>
+      <c r="L185" s="26"/>
+      <c r="M185" s="26"/>
+      <c r="N185" s="26"/>
+      <c r="O185" s="26"/>
+      <c r="P185" s="26"/>
+      <c r="Q185" s="26"/>
+      <c r="R185" s="26"/>
+      <c r="S185" s="26"/>
+      <c r="T185" s="26"/>
+      <c r="U185" s="26"/>
+      <c r="V185" s="26"/>
+      <c r="W185" s="26"/>
+      <c r="X185" s="26"/>
     </row>
     <row r="186" ht="16.5" spans="1:24">
-      <c r="A186" s="26"/>
+      <c r="A186" s="28"/>
       <c r="B186" s="26"/>
       <c r="C186" s="26"/>
       <c r="D186" s="26"/>
@@ -14088,24 +14235,24 @@
       <c r="G186" s="26"/>
       <c r="H186" s="27"/>
       <c r="I186" s="45"/>
-      <c r="J186" s="64"/>
-      <c r="K186" s="64"/>
-      <c r="L186" s="64"/>
-      <c r="M186" s="64"/>
-      <c r="N186" s="64"/>
-      <c r="O186" s="64"/>
-      <c r="P186" s="64"/>
-      <c r="Q186" s="64"/>
-      <c r="R186" s="64"/>
-      <c r="S186" s="64"/>
-      <c r="T186" s="64"/>
-      <c r="U186" s="64"/>
-      <c r="V186" s="64"/>
-      <c r="W186" s="64"/>
-      <c r="X186" s="64"/>
+      <c r="J186" s="38"/>
+      <c r="K186" s="26"/>
+      <c r="L186" s="26"/>
+      <c r="M186" s="26"/>
+      <c r="N186" s="26"/>
+      <c r="O186" s="26"/>
+      <c r="P186" s="26"/>
+      <c r="Q186" s="26"/>
+      <c r="R186" s="26"/>
+      <c r="S186" s="26"/>
+      <c r="T186" s="26"/>
+      <c r="U186" s="26"/>
+      <c r="V186" s="26"/>
+      <c r="W186" s="26"/>
+      <c r="X186" s="26"/>
     </row>
     <row r="187" ht="16.5" spans="1:24">
-      <c r="A187" s="26"/>
+      <c r="A187" s="28"/>
       <c r="B187" s="26"/>
       <c r="C187" s="26"/>
       <c r="D187" s="26"/>
@@ -14114,24 +14261,24 @@
       <c r="G187" s="26"/>
       <c r="H187" s="27"/>
       <c r="I187" s="45"/>
-      <c r="J187" s="64"/>
-      <c r="K187" s="64"/>
-      <c r="L187" s="64"/>
-      <c r="M187" s="64"/>
-      <c r="N187" s="64"/>
-      <c r="O187" s="64"/>
-      <c r="P187" s="64"/>
-      <c r="Q187" s="64"/>
-      <c r="R187" s="64"/>
-      <c r="S187" s="64"/>
-      <c r="T187" s="64"/>
-      <c r="U187" s="64"/>
-      <c r="V187" s="64"/>
-      <c r="W187" s="64"/>
-      <c r="X187" s="64"/>
+      <c r="J187" s="38"/>
+      <c r="K187" s="26"/>
+      <c r="L187" s="26"/>
+      <c r="M187" s="26"/>
+      <c r="N187" s="26"/>
+      <c r="O187" s="26"/>
+      <c r="P187" s="26"/>
+      <c r="Q187" s="26"/>
+      <c r="R187" s="26"/>
+      <c r="S187" s="26"/>
+      <c r="T187" s="26"/>
+      <c r="U187" s="26"/>
+      <c r="V187" s="26"/>
+      <c r="W187" s="26"/>
+      <c r="X187" s="26"/>
     </row>
     <row r="188" ht="16.5" spans="1:24">
-      <c r="A188" s="26"/>
+      <c r="A188" s="28"/>
       <c r="B188" s="26"/>
       <c r="C188" s="26"/>
       <c r="D188" s="26"/>
@@ -14140,24 +14287,24 @@
       <c r="G188" s="26"/>
       <c r="H188" s="27"/>
       <c r="I188" s="45"/>
-      <c r="J188" s="64"/>
-      <c r="K188" s="64"/>
-      <c r="L188" s="64"/>
-      <c r="M188" s="64"/>
-      <c r="N188" s="64"/>
-      <c r="O188" s="64"/>
-      <c r="P188" s="64"/>
-      <c r="Q188" s="64"/>
-      <c r="R188" s="64"/>
-      <c r="S188" s="64"/>
-      <c r="T188" s="64"/>
-      <c r="U188" s="64"/>
-      <c r="V188" s="64"/>
-      <c r="W188" s="64"/>
-      <c r="X188" s="64"/>
+      <c r="J188" s="38"/>
+      <c r="K188" s="26"/>
+      <c r="L188" s="26"/>
+      <c r="M188" s="26"/>
+      <c r="N188" s="26"/>
+      <c r="O188" s="26"/>
+      <c r="P188" s="26"/>
+      <c r="Q188" s="26"/>
+      <c r="R188" s="26"/>
+      <c r="S188" s="26"/>
+      <c r="T188" s="26"/>
+      <c r="U188" s="26"/>
+      <c r="V188" s="26"/>
+      <c r="W188" s="26"/>
+      <c r="X188" s="26"/>
     </row>
     <row r="189" ht="16.5" spans="1:24">
-      <c r="A189" s="26"/>
+      <c r="A189" s="28"/>
       <c r="B189" s="26"/>
       <c r="C189" s="26"/>
       <c r="D189" s="26"/>
@@ -14166,21 +14313,21 @@
       <c r="G189" s="26"/>
       <c r="H189" s="27"/>
       <c r="I189" s="45"/>
-      <c r="J189" s="64"/>
-      <c r="K189" s="64"/>
-      <c r="L189" s="64"/>
-      <c r="M189" s="64"/>
-      <c r="N189" s="64"/>
-      <c r="O189" s="64"/>
-      <c r="P189" s="64"/>
-      <c r="Q189" s="64"/>
-      <c r="R189" s="64"/>
-      <c r="S189" s="64"/>
-      <c r="T189" s="64"/>
-      <c r="U189" s="64"/>
-      <c r="V189" s="64"/>
-      <c r="W189" s="64"/>
-      <c r="X189" s="64"/>
+      <c r="J189" s="38"/>
+      <c r="K189" s="26"/>
+      <c r="L189" s="26"/>
+      <c r="M189" s="26"/>
+      <c r="N189" s="26"/>
+      <c r="O189" s="26"/>
+      <c r="P189" s="26"/>
+      <c r="Q189" s="26"/>
+      <c r="R189" s="26"/>
+      <c r="S189" s="26"/>
+      <c r="T189" s="26"/>
+      <c r="U189" s="26"/>
+      <c r="V189" s="26"/>
+      <c r="W189" s="26"/>
+      <c r="X189" s="26"/>
     </row>
     <row r="190" ht="16.5" spans="1:24">
       <c r="A190" s="26"/>
@@ -16081,7 +16228,7 @@
       <c r="X262" s="64"/>
     </row>
     <row r="263" ht="16.5" spans="1:24">
-      <c r="A263" s="28"/>
+      <c r="A263" s="26"/>
       <c r="B263" s="26"/>
       <c r="C263" s="26"/>
       <c r="D263" s="26"/>
@@ -16090,24 +16237,24 @@
       <c r="G263" s="26"/>
       <c r="H263" s="27"/>
       <c r="I263" s="45"/>
-      <c r="J263" s="38"/>
-      <c r="K263" s="26"/>
-      <c r="L263" s="26"/>
-      <c r="M263" s="26"/>
-      <c r="N263" s="26"/>
-      <c r="O263" s="26"/>
-      <c r="P263" s="26"/>
-      <c r="Q263" s="26"/>
-      <c r="R263" s="26"/>
-      <c r="S263" s="26"/>
-      <c r="T263" s="26"/>
-      <c r="U263" s="26"/>
-      <c r="V263" s="26"/>
-      <c r="W263" s="26"/>
-      <c r="X263" s="26"/>
+      <c r="J263" s="64"/>
+      <c r="K263" s="64"/>
+      <c r="L263" s="64"/>
+      <c r="M263" s="64"/>
+      <c r="N263" s="64"/>
+      <c r="O263" s="64"/>
+      <c r="P263" s="64"/>
+      <c r="Q263" s="64"/>
+      <c r="R263" s="64"/>
+      <c r="S263" s="64"/>
+      <c r="T263" s="64"/>
+      <c r="U263" s="64"/>
+      <c r="V263" s="64"/>
+      <c r="W263" s="64"/>
+      <c r="X263" s="64"/>
     </row>
     <row r="264" ht="16.5" spans="1:24">
-      <c r="A264" s="28"/>
+      <c r="A264" s="26"/>
       <c r="B264" s="26"/>
       <c r="C264" s="26"/>
       <c r="D264" s="26"/>
@@ -16116,24 +16263,24 @@
       <c r="G264" s="26"/>
       <c r="H264" s="27"/>
       <c r="I264" s="45"/>
-      <c r="J264" s="38"/>
-      <c r="K264" s="26"/>
-      <c r="L264" s="26"/>
-      <c r="M264" s="26"/>
-      <c r="N264" s="26"/>
-      <c r="O264" s="26"/>
-      <c r="P264" s="26"/>
-      <c r="Q264" s="26"/>
-      <c r="R264" s="26"/>
-      <c r="S264" s="26"/>
-      <c r="T264" s="26"/>
-      <c r="U264" s="26"/>
-      <c r="V264" s="26"/>
-      <c r="W264" s="26"/>
-      <c r="X264" s="26"/>
+      <c r="J264" s="64"/>
+      <c r="K264" s="64"/>
+      <c r="L264" s="64"/>
+      <c r="M264" s="64"/>
+      <c r="N264" s="64"/>
+      <c r="O264" s="64"/>
+      <c r="P264" s="64"/>
+      <c r="Q264" s="64"/>
+      <c r="R264" s="64"/>
+      <c r="S264" s="64"/>
+      <c r="T264" s="64"/>
+      <c r="U264" s="64"/>
+      <c r="V264" s="64"/>
+      <c r="W264" s="64"/>
+      <c r="X264" s="64"/>
     </row>
     <row r="265" ht="16.5" spans="1:24">
-      <c r="A265" s="28"/>
+      <c r="A265" s="26"/>
       <c r="B265" s="26"/>
       <c r="C265" s="26"/>
       <c r="D265" s="26"/>
@@ -16142,24 +16289,24 @@
       <c r="G265" s="26"/>
       <c r="H265" s="27"/>
       <c r="I265" s="45"/>
-      <c r="J265" s="38"/>
-      <c r="K265" s="26"/>
-      <c r="L265" s="26"/>
-      <c r="M265" s="26"/>
-      <c r="N265" s="26"/>
-      <c r="O265" s="26"/>
-      <c r="P265" s="26"/>
-      <c r="Q265" s="26"/>
-      <c r="R265" s="26"/>
-      <c r="S265" s="26"/>
-      <c r="T265" s="26"/>
-      <c r="U265" s="26"/>
-      <c r="V265" s="26"/>
-      <c r="W265" s="26"/>
-      <c r="X265" s="26"/>
+      <c r="J265" s="64"/>
+      <c r="K265" s="64"/>
+      <c r="L265" s="64"/>
+      <c r="M265" s="64"/>
+      <c r="N265" s="64"/>
+      <c r="O265" s="64"/>
+      <c r="P265" s="64"/>
+      <c r="Q265" s="64"/>
+      <c r="R265" s="64"/>
+      <c r="S265" s="64"/>
+      <c r="T265" s="64"/>
+      <c r="U265" s="64"/>
+      <c r="V265" s="64"/>
+      <c r="W265" s="64"/>
+      <c r="X265" s="64"/>
     </row>
     <row r="266" ht="16.5" spans="1:24">
-      <c r="A266" s="28"/>
+      <c r="A266" s="26"/>
       <c r="B266" s="26"/>
       <c r="C266" s="26"/>
       <c r="D266" s="26"/>
@@ -16168,24 +16315,24 @@
       <c r="G266" s="26"/>
       <c r="H266" s="27"/>
       <c r="I266" s="45"/>
-      <c r="J266" s="38"/>
-      <c r="K266" s="26"/>
-      <c r="L266" s="26"/>
-      <c r="M266" s="26"/>
-      <c r="N266" s="26"/>
-      <c r="O266" s="26"/>
-      <c r="P266" s="26"/>
-      <c r="Q266" s="26"/>
-      <c r="R266" s="26"/>
-      <c r="S266" s="26"/>
-      <c r="T266" s="26"/>
-      <c r="U266" s="26"/>
-      <c r="V266" s="26"/>
-      <c r="W266" s="26"/>
-      <c r="X266" s="26"/>
+      <c r="J266" s="64"/>
+      <c r="K266" s="64"/>
+      <c r="L266" s="64"/>
+      <c r="M266" s="64"/>
+      <c r="N266" s="64"/>
+      <c r="O266" s="64"/>
+      <c r="P266" s="64"/>
+      <c r="Q266" s="64"/>
+      <c r="R266" s="64"/>
+      <c r="S266" s="64"/>
+      <c r="T266" s="64"/>
+      <c r="U266" s="64"/>
+      <c r="V266" s="64"/>
+      <c r="W266" s="64"/>
+      <c r="X266" s="64"/>
     </row>
     <row r="267" ht="16.5" spans="1:24">
-      <c r="A267" s="28"/>
+      <c r="A267" s="26"/>
       <c r="B267" s="26"/>
       <c r="C267" s="26"/>
       <c r="D267" s="26"/>
@@ -16194,24 +16341,24 @@
       <c r="G267" s="26"/>
       <c r="H267" s="27"/>
       <c r="I267" s="45"/>
-      <c r="J267" s="38"/>
-      <c r="K267" s="26"/>
-      <c r="L267" s="26"/>
-      <c r="M267" s="26"/>
-      <c r="N267" s="26"/>
-      <c r="O267" s="26"/>
-      <c r="P267" s="26"/>
-      <c r="Q267" s="26"/>
-      <c r="R267" s="26"/>
-      <c r="S267" s="26"/>
-      <c r="T267" s="26"/>
-      <c r="U267" s="26"/>
-      <c r="V267" s="26"/>
-      <c r="W267" s="26"/>
-      <c r="X267" s="26"/>
+      <c r="J267" s="64"/>
+      <c r="K267" s="64"/>
+      <c r="L267" s="64"/>
+      <c r="M267" s="64"/>
+      <c r="N267" s="64"/>
+      <c r="O267" s="64"/>
+      <c r="P267" s="64"/>
+      <c r="Q267" s="64"/>
+      <c r="R267" s="64"/>
+      <c r="S267" s="64"/>
+      <c r="T267" s="64"/>
+      <c r="U267" s="64"/>
+      <c r="V267" s="64"/>
+      <c r="W267" s="64"/>
+      <c r="X267" s="64"/>
     </row>
     <row r="268" ht="16.5" spans="1:24">
-      <c r="A268" s="28"/>
+      <c r="A268" s="26"/>
       <c r="B268" s="26"/>
       <c r="C268" s="26"/>
       <c r="D268" s="26"/>
@@ -16220,21 +16367,21 @@
       <c r="G268" s="26"/>
       <c r="H268" s="27"/>
       <c r="I268" s="45"/>
-      <c r="J268" s="38"/>
-      <c r="K268" s="26"/>
-      <c r="L268" s="26"/>
-      <c r="M268" s="26"/>
-      <c r="N268" s="26"/>
-      <c r="O268" s="26"/>
-      <c r="P268" s="26"/>
-      <c r="Q268" s="26"/>
-      <c r="R268" s="26"/>
-      <c r="S268" s="26"/>
-      <c r="T268" s="26"/>
-      <c r="U268" s="26"/>
-      <c r="V268" s="26"/>
-      <c r="W268" s="26"/>
-      <c r="X268" s="26"/>
+      <c r="J268" s="64"/>
+      <c r="K268" s="64"/>
+      <c r="L268" s="64"/>
+      <c r="M268" s="64"/>
+      <c r="N268" s="64"/>
+      <c r="O268" s="64"/>
+      <c r="P268" s="64"/>
+      <c r="Q268" s="64"/>
+      <c r="R268" s="64"/>
+      <c r="S268" s="64"/>
+      <c r="T268" s="64"/>
+      <c r="U268" s="64"/>
+      <c r="V268" s="64"/>
+      <c r="W268" s="64"/>
+      <c r="X268" s="64"/>
     </row>
     <row r="269" ht="16.5" spans="1:24">
       <c r="A269" s="28"/>
@@ -16783,7 +16930,7 @@
       <c r="X289" s="26"/>
     </row>
     <row r="290" ht="16.5" spans="1:24">
-      <c r="A290" s="26"/>
+      <c r="A290" s="28"/>
       <c r="B290" s="26"/>
       <c r="C290" s="26"/>
       <c r="D290" s="26"/>
@@ -16792,24 +16939,24 @@
       <c r="G290" s="26"/>
       <c r="H290" s="27"/>
       <c r="I290" s="45"/>
-      <c r="J290" s="64"/>
-      <c r="K290" s="64"/>
-      <c r="L290" s="64"/>
-      <c r="M290" s="64"/>
-      <c r="N290" s="64"/>
-      <c r="O290" s="64"/>
-      <c r="P290" s="64"/>
-      <c r="Q290" s="64"/>
-      <c r="R290" s="64"/>
-      <c r="S290" s="64"/>
-      <c r="T290" s="64"/>
-      <c r="U290" s="64"/>
-      <c r="V290" s="64"/>
-      <c r="W290" s="64"/>
-      <c r="X290" s="64"/>
+      <c r="J290" s="38"/>
+      <c r="K290" s="26"/>
+      <c r="L290" s="26"/>
+      <c r="M290" s="26"/>
+      <c r="N290" s="26"/>
+      <c r="O290" s="26"/>
+      <c r="P290" s="26"/>
+      <c r="Q290" s="26"/>
+      <c r="R290" s="26"/>
+      <c r="S290" s="26"/>
+      <c r="T290" s="26"/>
+      <c r="U290" s="26"/>
+      <c r="V290" s="26"/>
+      <c r="W290" s="26"/>
+      <c r="X290" s="26"/>
     </row>
     <row r="291" ht="16.5" spans="1:24">
-      <c r="A291" s="26"/>
+      <c r="A291" s="28"/>
       <c r="B291" s="26"/>
       <c r="C291" s="26"/>
       <c r="D291" s="26"/>
@@ -16818,24 +16965,24 @@
       <c r="G291" s="26"/>
       <c r="H291" s="27"/>
       <c r="I291" s="45"/>
-      <c r="J291" s="64"/>
-      <c r="K291" s="64"/>
-      <c r="L291" s="64"/>
-      <c r="M291" s="64"/>
-      <c r="N291" s="64"/>
-      <c r="O291" s="64"/>
-      <c r="P291" s="64"/>
-      <c r="Q291" s="64"/>
-      <c r="R291" s="64"/>
-      <c r="S291" s="64"/>
-      <c r="T291" s="64"/>
-      <c r="U291" s="64"/>
-      <c r="V291" s="64"/>
-      <c r="W291" s="64"/>
-      <c r="X291" s="64"/>
+      <c r="J291" s="38"/>
+      <c r="K291" s="26"/>
+      <c r="L291" s="26"/>
+      <c r="M291" s="26"/>
+      <c r="N291" s="26"/>
+      <c r="O291" s="26"/>
+      <c r="P291" s="26"/>
+      <c r="Q291" s="26"/>
+      <c r="R291" s="26"/>
+      <c r="S291" s="26"/>
+      <c r="T291" s="26"/>
+      <c r="U291" s="26"/>
+      <c r="V291" s="26"/>
+      <c r="W291" s="26"/>
+      <c r="X291" s="26"/>
     </row>
     <row r="292" ht="16.5" spans="1:24">
-      <c r="A292" s="26"/>
+      <c r="A292" s="28"/>
       <c r="B292" s="26"/>
       <c r="C292" s="26"/>
       <c r="D292" s="26"/>
@@ -16844,24 +16991,24 @@
       <c r="G292" s="26"/>
       <c r="H292" s="27"/>
       <c r="I292" s="45"/>
-      <c r="J292" s="64"/>
-      <c r="K292" s="64"/>
-      <c r="L292" s="64"/>
-      <c r="M292" s="64"/>
-      <c r="N292" s="64"/>
-      <c r="O292" s="64"/>
-      <c r="P292" s="64"/>
-      <c r="Q292" s="64"/>
-      <c r="R292" s="64"/>
-      <c r="S292" s="64"/>
-      <c r="T292" s="64"/>
-      <c r="U292" s="64"/>
-      <c r="V292" s="64"/>
-      <c r="W292" s="64"/>
-      <c r="X292" s="64"/>
+      <c r="J292" s="38"/>
+      <c r="K292" s="26"/>
+      <c r="L292" s="26"/>
+      <c r="M292" s="26"/>
+      <c r="N292" s="26"/>
+      <c r="O292" s="26"/>
+      <c r="P292" s="26"/>
+      <c r="Q292" s="26"/>
+      <c r="R292" s="26"/>
+      <c r="S292" s="26"/>
+      <c r="T292" s="26"/>
+      <c r="U292" s="26"/>
+      <c r="V292" s="26"/>
+      <c r="W292" s="26"/>
+      <c r="X292" s="26"/>
     </row>
     <row r="293" ht="16.5" spans="1:24">
-      <c r="A293" s="26"/>
+      <c r="A293" s="28"/>
       <c r="B293" s="26"/>
       <c r="C293" s="26"/>
       <c r="D293" s="26"/>
@@ -16870,24 +17017,24 @@
       <c r="G293" s="26"/>
       <c r="H293" s="27"/>
       <c r="I293" s="45"/>
-      <c r="J293" s="64"/>
-      <c r="K293" s="64"/>
-      <c r="L293" s="64"/>
-      <c r="M293" s="64"/>
-      <c r="N293" s="64"/>
-      <c r="O293" s="64"/>
-      <c r="P293" s="64"/>
-      <c r="Q293" s="64"/>
-      <c r="R293" s="64"/>
-      <c r="S293" s="64"/>
-      <c r="T293" s="64"/>
-      <c r="U293" s="64"/>
-      <c r="V293" s="64"/>
-      <c r="W293" s="64"/>
-      <c r="X293" s="64"/>
+      <c r="J293" s="38"/>
+      <c r="K293" s="26"/>
+      <c r="L293" s="26"/>
+      <c r="M293" s="26"/>
+      <c r="N293" s="26"/>
+      <c r="O293" s="26"/>
+      <c r="P293" s="26"/>
+      <c r="Q293" s="26"/>
+      <c r="R293" s="26"/>
+      <c r="S293" s="26"/>
+      <c r="T293" s="26"/>
+      <c r="U293" s="26"/>
+      <c r="V293" s="26"/>
+      <c r="W293" s="26"/>
+      <c r="X293" s="26"/>
     </row>
     <row r="294" ht="16.5" spans="1:24">
-      <c r="A294" s="26"/>
+      <c r="A294" s="28"/>
       <c r="B294" s="26"/>
       <c r="C294" s="26"/>
       <c r="D294" s="26"/>
@@ -16896,24 +17043,24 @@
       <c r="G294" s="26"/>
       <c r="H294" s="27"/>
       <c r="I294" s="45"/>
-      <c r="J294" s="64"/>
-      <c r="K294" s="64"/>
-      <c r="L294" s="64"/>
-      <c r="M294" s="64"/>
-      <c r="N294" s="64"/>
-      <c r="O294" s="64"/>
-      <c r="P294" s="64"/>
-      <c r="Q294" s="64"/>
-      <c r="R294" s="64"/>
-      <c r="S294" s="64"/>
-      <c r="T294" s="64"/>
-      <c r="U294" s="64"/>
-      <c r="V294" s="64"/>
-      <c r="W294" s="64"/>
-      <c r="X294" s="64"/>
+      <c r="J294" s="38"/>
+      <c r="K294" s="26"/>
+      <c r="L294" s="26"/>
+      <c r="M294" s="26"/>
+      <c r="N294" s="26"/>
+      <c r="O294" s="26"/>
+      <c r="P294" s="26"/>
+      <c r="Q294" s="26"/>
+      <c r="R294" s="26"/>
+      <c r="S294" s="26"/>
+      <c r="T294" s="26"/>
+      <c r="U294" s="26"/>
+      <c r="V294" s="26"/>
+      <c r="W294" s="26"/>
+      <c r="X294" s="26"/>
     </row>
     <row r="295" ht="16.5" spans="1:24">
-      <c r="A295" s="26"/>
+      <c r="A295" s="28"/>
       <c r="B295" s="26"/>
       <c r="C295" s="26"/>
       <c r="D295" s="26"/>
@@ -16922,21 +17069,21 @@
       <c r="G295" s="26"/>
       <c r="H295" s="27"/>
       <c r="I295" s="45"/>
-      <c r="J295" s="64"/>
-      <c r="K295" s="64"/>
-      <c r="L295" s="64"/>
-      <c r="M295" s="64"/>
-      <c r="N295" s="64"/>
-      <c r="O295" s="64"/>
-      <c r="P295" s="64"/>
-      <c r="Q295" s="64"/>
-      <c r="R295" s="64"/>
-      <c r="S295" s="64"/>
-      <c r="T295" s="64"/>
-      <c r="U295" s="64"/>
-      <c r="V295" s="64"/>
-      <c r="W295" s="64"/>
-      <c r="X295" s="64"/>
+      <c r="J295" s="38"/>
+      <c r="K295" s="26"/>
+      <c r="L295" s="26"/>
+      <c r="M295" s="26"/>
+      <c r="N295" s="26"/>
+      <c r="O295" s="26"/>
+      <c r="P295" s="26"/>
+      <c r="Q295" s="26"/>
+      <c r="R295" s="26"/>
+      <c r="S295" s="26"/>
+      <c r="T295" s="26"/>
+      <c r="U295" s="26"/>
+      <c r="V295" s="26"/>
+      <c r="W295" s="26"/>
+      <c r="X295" s="26"/>
     </row>
     <row r="296" ht="16.5" spans="1:24">
       <c r="A296" s="26"/>
@@ -18447,7 +18594,7 @@
       <c r="X353" s="64"/>
     </row>
     <row r="354" ht="16.5" spans="1:24">
-      <c r="A354" s="28"/>
+      <c r="A354" s="26"/>
       <c r="B354" s="26"/>
       <c r="C354" s="26"/>
       <c r="D354" s="26"/>
@@ -18456,24 +18603,24 @@
       <c r="G354" s="26"/>
       <c r="H354" s="27"/>
       <c r="I354" s="45"/>
-      <c r="J354" s="38"/>
-      <c r="K354" s="26"/>
-      <c r="L354" s="26"/>
-      <c r="M354" s="26"/>
-      <c r="N354" s="26"/>
-      <c r="O354" s="26"/>
-      <c r="P354" s="26"/>
-      <c r="Q354" s="26"/>
-      <c r="R354" s="26"/>
-      <c r="S354" s="26"/>
-      <c r="T354" s="26"/>
-      <c r="U354" s="26"/>
-      <c r="V354" s="26"/>
-      <c r="W354" s="26"/>
-      <c r="X354" s="26"/>
+      <c r="J354" s="64"/>
+      <c r="K354" s="64"/>
+      <c r="L354" s="64"/>
+      <c r="M354" s="64"/>
+      <c r="N354" s="64"/>
+      <c r="O354" s="64"/>
+      <c r="P354" s="64"/>
+      <c r="Q354" s="64"/>
+      <c r="R354" s="64"/>
+      <c r="S354" s="64"/>
+      <c r="T354" s="64"/>
+      <c r="U354" s="64"/>
+      <c r="V354" s="64"/>
+      <c r="W354" s="64"/>
+      <c r="X354" s="64"/>
     </row>
     <row r="355" ht="16.5" spans="1:24">
-      <c r="A355" s="28"/>
+      <c r="A355" s="26"/>
       <c r="B355" s="26"/>
       <c r="C355" s="26"/>
       <c r="D355" s="26"/>
@@ -18482,24 +18629,24 @@
       <c r="G355" s="26"/>
       <c r="H355" s="27"/>
       <c r="I355" s="45"/>
-      <c r="J355" s="38"/>
-      <c r="K355" s="26"/>
-      <c r="L355" s="26"/>
-      <c r="M355" s="26"/>
-      <c r="N355" s="26"/>
-      <c r="O355" s="26"/>
-      <c r="P355" s="26"/>
-      <c r="Q355" s="26"/>
-      <c r="R355" s="26"/>
-      <c r="S355" s="26"/>
-      <c r="T355" s="26"/>
-      <c r="U355" s="26"/>
-      <c r="V355" s="26"/>
-      <c r="W355" s="26"/>
-      <c r="X355" s="26"/>
+      <c r="J355" s="64"/>
+      <c r="K355" s="64"/>
+      <c r="L355" s="64"/>
+      <c r="M355" s="64"/>
+      <c r="N355" s="64"/>
+      <c r="O355" s="64"/>
+      <c r="P355" s="64"/>
+      <c r="Q355" s="64"/>
+      <c r="R355" s="64"/>
+      <c r="S355" s="64"/>
+      <c r="T355" s="64"/>
+      <c r="U355" s="64"/>
+      <c r="V355" s="64"/>
+      <c r="W355" s="64"/>
+      <c r="X355" s="64"/>
     </row>
     <row r="356" ht="16.5" spans="1:24">
-      <c r="A356" s="28"/>
+      <c r="A356" s="26"/>
       <c r="B356" s="26"/>
       <c r="C356" s="26"/>
       <c r="D356" s="26"/>
@@ -18508,24 +18655,24 @@
       <c r="G356" s="26"/>
       <c r="H356" s="27"/>
       <c r="I356" s="45"/>
-      <c r="J356" s="38"/>
-      <c r="K356" s="26"/>
-      <c r="L356" s="26"/>
-      <c r="M356" s="26"/>
-      <c r="N356" s="26"/>
-      <c r="O356" s="26"/>
-      <c r="P356" s="26"/>
-      <c r="Q356" s="26"/>
-      <c r="R356" s="26"/>
-      <c r="S356" s="26"/>
-      <c r="T356" s="26"/>
-      <c r="U356" s="26"/>
-      <c r="V356" s="26"/>
-      <c r="W356" s="26"/>
-      <c r="X356" s="26"/>
+      <c r="J356" s="64"/>
+      <c r="K356" s="64"/>
+      <c r="L356" s="64"/>
+      <c r="M356" s="64"/>
+      <c r="N356" s="64"/>
+      <c r="O356" s="64"/>
+      <c r="P356" s="64"/>
+      <c r="Q356" s="64"/>
+      <c r="R356" s="64"/>
+      <c r="S356" s="64"/>
+      <c r="T356" s="64"/>
+      <c r="U356" s="64"/>
+      <c r="V356" s="64"/>
+      <c r="W356" s="64"/>
+      <c r="X356" s="64"/>
     </row>
     <row r="357" ht="16.5" spans="1:24">
-      <c r="A357" s="28"/>
+      <c r="A357" s="26"/>
       <c r="B357" s="26"/>
       <c r="C357" s="26"/>
       <c r="D357" s="26"/>
@@ -18534,24 +18681,24 @@
       <c r="G357" s="26"/>
       <c r="H357" s="27"/>
       <c r="I357" s="45"/>
-      <c r="J357" s="38"/>
-      <c r="K357" s="26"/>
-      <c r="L357" s="26"/>
-      <c r="M357" s="26"/>
-      <c r="N357" s="26"/>
-      <c r="O357" s="26"/>
-      <c r="P357" s="26"/>
-      <c r="Q357" s="26"/>
-      <c r="R357" s="26"/>
-      <c r="S357" s="26"/>
-      <c r="T357" s="26"/>
-      <c r="U357" s="26"/>
-      <c r="V357" s="26"/>
-      <c r="W357" s="26"/>
-      <c r="X357" s="26"/>
+      <c r="J357" s="64"/>
+      <c r="K357" s="64"/>
+      <c r="L357" s="64"/>
+      <c r="M357" s="64"/>
+      <c r="N357" s="64"/>
+      <c r="O357" s="64"/>
+      <c r="P357" s="64"/>
+      <c r="Q357" s="64"/>
+      <c r="R357" s="64"/>
+      <c r="S357" s="64"/>
+      <c r="T357" s="64"/>
+      <c r="U357" s="64"/>
+      <c r="V357" s="64"/>
+      <c r="W357" s="64"/>
+      <c r="X357" s="64"/>
     </row>
     <row r="358" ht="16.5" spans="1:24">
-      <c r="A358" s="28"/>
+      <c r="A358" s="26"/>
       <c r="B358" s="26"/>
       <c r="C358" s="26"/>
       <c r="D358" s="26"/>
@@ -18560,24 +18707,24 @@
       <c r="G358" s="26"/>
       <c r="H358" s="27"/>
       <c r="I358" s="45"/>
-      <c r="J358" s="38"/>
-      <c r="K358" s="26"/>
-      <c r="L358" s="26"/>
-      <c r="M358" s="26"/>
-      <c r="N358" s="26"/>
-      <c r="O358" s="26"/>
-      <c r="P358" s="26"/>
-      <c r="Q358" s="26"/>
-      <c r="R358" s="26"/>
-      <c r="S358" s="26"/>
-      <c r="T358" s="26"/>
-      <c r="U358" s="26"/>
-      <c r="V358" s="26"/>
-      <c r="W358" s="26"/>
-      <c r="X358" s="26"/>
+      <c r="J358" s="64"/>
+      <c r="K358" s="64"/>
+      <c r="L358" s="64"/>
+      <c r="M358" s="64"/>
+      <c r="N358" s="64"/>
+      <c r="O358" s="64"/>
+      <c r="P358" s="64"/>
+      <c r="Q358" s="64"/>
+      <c r="R358" s="64"/>
+      <c r="S358" s="64"/>
+      <c r="T358" s="64"/>
+      <c r="U358" s="64"/>
+      <c r="V358" s="64"/>
+      <c r="W358" s="64"/>
+      <c r="X358" s="64"/>
     </row>
     <row r="359" ht="16.5" spans="1:24">
-      <c r="A359" s="28"/>
+      <c r="A359" s="26"/>
       <c r="B359" s="26"/>
       <c r="C359" s="26"/>
       <c r="D359" s="26"/>
@@ -18586,21 +18733,21 @@
       <c r="G359" s="26"/>
       <c r="H359" s="27"/>
       <c r="I359" s="45"/>
-      <c r="J359" s="38"/>
-      <c r="K359" s="26"/>
-      <c r="L359" s="26"/>
-      <c r="M359" s="26"/>
-      <c r="N359" s="26"/>
-      <c r="O359" s="26"/>
-      <c r="P359" s="26"/>
-      <c r="Q359" s="26"/>
-      <c r="R359" s="26"/>
-      <c r="S359" s="26"/>
-      <c r="T359" s="26"/>
-      <c r="U359" s="26"/>
-      <c r="V359" s="26"/>
-      <c r="W359" s="26"/>
-      <c r="X359" s="26"/>
+      <c r="J359" s="64"/>
+      <c r="K359" s="64"/>
+      <c r="L359" s="64"/>
+      <c r="M359" s="64"/>
+      <c r="N359" s="64"/>
+      <c r="O359" s="64"/>
+      <c r="P359" s="64"/>
+      <c r="Q359" s="64"/>
+      <c r="R359" s="64"/>
+      <c r="S359" s="64"/>
+      <c r="T359" s="64"/>
+      <c r="U359" s="64"/>
+      <c r="V359" s="64"/>
+      <c r="W359" s="64"/>
+      <c r="X359" s="64"/>
     </row>
     <row r="360" ht="16.5" spans="1:24">
       <c r="A360" s="28"/>
@@ -19019,7 +19166,7 @@
       <c r="X375" s="26"/>
     </row>
     <row r="376" ht="16.5" spans="1:24">
-      <c r="A376" s="26"/>
+      <c r="A376" s="28"/>
       <c r="B376" s="26"/>
       <c r="C376" s="26"/>
       <c r="D376" s="26"/>
@@ -19028,24 +19175,24 @@
       <c r="G376" s="26"/>
       <c r="H376" s="27"/>
       <c r="I376" s="45"/>
-      <c r="J376" s="64"/>
-      <c r="K376" s="64"/>
-      <c r="L376" s="64"/>
-      <c r="M376" s="64"/>
-      <c r="N376" s="64"/>
-      <c r="O376" s="64"/>
-      <c r="P376" s="64"/>
-      <c r="Q376" s="64"/>
-      <c r="R376" s="64"/>
-      <c r="S376" s="64"/>
-      <c r="T376" s="64"/>
-      <c r="U376" s="64"/>
-      <c r="V376" s="64"/>
-      <c r="W376" s="64"/>
-      <c r="X376" s="64"/>
+      <c r="J376" s="38"/>
+      <c r="K376" s="26"/>
+      <c r="L376" s="26"/>
+      <c r="M376" s="26"/>
+      <c r="N376" s="26"/>
+      <c r="O376" s="26"/>
+      <c r="P376" s="26"/>
+      <c r="Q376" s="26"/>
+      <c r="R376" s="26"/>
+      <c r="S376" s="26"/>
+      <c r="T376" s="26"/>
+      <c r="U376" s="26"/>
+      <c r="V376" s="26"/>
+      <c r="W376" s="26"/>
+      <c r="X376" s="26"/>
     </row>
     <row r="377" ht="16.5" spans="1:24">
-      <c r="A377" s="26"/>
+      <c r="A377" s="28"/>
       <c r="B377" s="26"/>
       <c r="C377" s="26"/>
       <c r="D377" s="26"/>
@@ -19054,24 +19201,24 @@
       <c r="G377" s="26"/>
       <c r="H377" s="27"/>
       <c r="I377" s="45"/>
-      <c r="J377" s="64"/>
-      <c r="K377" s="64"/>
-      <c r="L377" s="64"/>
-      <c r="M377" s="64"/>
-      <c r="N377" s="64"/>
-      <c r="O377" s="64"/>
-      <c r="P377" s="64"/>
-      <c r="Q377" s="64"/>
-      <c r="R377" s="64"/>
-      <c r="S377" s="64"/>
-      <c r="T377" s="64"/>
-      <c r="U377" s="64"/>
-      <c r="V377" s="64"/>
-      <c r="W377" s="64"/>
-      <c r="X377" s="64"/>
+      <c r="J377" s="38"/>
+      <c r="K377" s="26"/>
+      <c r="L377" s="26"/>
+      <c r="M377" s="26"/>
+      <c r="N377" s="26"/>
+      <c r="O377" s="26"/>
+      <c r="P377" s="26"/>
+      <c r="Q377" s="26"/>
+      <c r="R377" s="26"/>
+      <c r="S377" s="26"/>
+      <c r="T377" s="26"/>
+      <c r="U377" s="26"/>
+      <c r="V377" s="26"/>
+      <c r="W377" s="26"/>
+      <c r="X377" s="26"/>
     </row>
     <row r="378" ht="16.5" spans="1:24">
-      <c r="A378" s="26"/>
+      <c r="A378" s="28"/>
       <c r="B378" s="26"/>
       <c r="C378" s="26"/>
       <c r="D378" s="26"/>
@@ -19080,24 +19227,24 @@
       <c r="G378" s="26"/>
       <c r="H378" s="27"/>
       <c r="I378" s="45"/>
-      <c r="J378" s="64"/>
-      <c r="K378" s="64"/>
-      <c r="L378" s="64"/>
-      <c r="M378" s="64"/>
-      <c r="N378" s="64"/>
-      <c r="O378" s="64"/>
-      <c r="P378" s="64"/>
-      <c r="Q378" s="64"/>
-      <c r="R378" s="64"/>
-      <c r="S378" s="64"/>
-      <c r="T378" s="64"/>
-      <c r="U378" s="64"/>
-      <c r="V378" s="64"/>
-      <c r="W378" s="64"/>
-      <c r="X378" s="64"/>
+      <c r="J378" s="38"/>
+      <c r="K378" s="26"/>
+      <c r="L378" s="26"/>
+      <c r="M378" s="26"/>
+      <c r="N378" s="26"/>
+      <c r="O378" s="26"/>
+      <c r="P378" s="26"/>
+      <c r="Q378" s="26"/>
+      <c r="R378" s="26"/>
+      <c r="S378" s="26"/>
+      <c r="T378" s="26"/>
+      <c r="U378" s="26"/>
+      <c r="V378" s="26"/>
+      <c r="W378" s="26"/>
+      <c r="X378" s="26"/>
     </row>
     <row r="379" ht="16.5" spans="1:24">
-      <c r="A379" s="26"/>
+      <c r="A379" s="28"/>
       <c r="B379" s="26"/>
       <c r="C379" s="26"/>
       <c r="D379" s="26"/>
@@ -19106,24 +19253,24 @@
       <c r="G379" s="26"/>
       <c r="H379" s="27"/>
       <c r="I379" s="45"/>
-      <c r="J379" s="64"/>
-      <c r="K379" s="64"/>
-      <c r="L379" s="64"/>
-      <c r="M379" s="64"/>
-      <c r="N379" s="64"/>
-      <c r="O379" s="64"/>
-      <c r="P379" s="64"/>
-      <c r="Q379" s="64"/>
-      <c r="R379" s="64"/>
-      <c r="S379" s="64"/>
-      <c r="T379" s="64"/>
-      <c r="U379" s="64"/>
-      <c r="V379" s="64"/>
-      <c r="W379" s="64"/>
-      <c r="X379" s="64"/>
+      <c r="J379" s="38"/>
+      <c r="K379" s="26"/>
+      <c r="L379" s="26"/>
+      <c r="M379" s="26"/>
+      <c r="N379" s="26"/>
+      <c r="O379" s="26"/>
+      <c r="P379" s="26"/>
+      <c r="Q379" s="26"/>
+      <c r="R379" s="26"/>
+      <c r="S379" s="26"/>
+      <c r="T379" s="26"/>
+      <c r="U379" s="26"/>
+      <c r="V379" s="26"/>
+      <c r="W379" s="26"/>
+      <c r="X379" s="26"/>
     </row>
     <row r="380" ht="16.5" spans="1:24">
-      <c r="A380" s="26"/>
+      <c r="A380" s="28"/>
       <c r="B380" s="26"/>
       <c r="C380" s="26"/>
       <c r="D380" s="26"/>
@@ -19132,24 +19279,24 @@
       <c r="G380" s="26"/>
       <c r="H380" s="27"/>
       <c r="I380" s="45"/>
-      <c r="J380" s="64"/>
-      <c r="K380" s="64"/>
-      <c r="L380" s="64"/>
-      <c r="M380" s="64"/>
-      <c r="N380" s="64"/>
-      <c r="O380" s="64"/>
-      <c r="P380" s="64"/>
-      <c r="Q380" s="64"/>
-      <c r="R380" s="64"/>
-      <c r="S380" s="64"/>
-      <c r="T380" s="64"/>
-      <c r="U380" s="64"/>
-      <c r="V380" s="64"/>
-      <c r="W380" s="64"/>
-      <c r="X380" s="64"/>
+      <c r="J380" s="38"/>
+      <c r="K380" s="26"/>
+      <c r="L380" s="26"/>
+      <c r="M380" s="26"/>
+      <c r="N380" s="26"/>
+      <c r="O380" s="26"/>
+      <c r="P380" s="26"/>
+      <c r="Q380" s="26"/>
+      <c r="R380" s="26"/>
+      <c r="S380" s="26"/>
+      <c r="T380" s="26"/>
+      <c r="U380" s="26"/>
+      <c r="V380" s="26"/>
+      <c r="W380" s="26"/>
+      <c r="X380" s="26"/>
     </row>
     <row r="381" ht="16.5" spans="1:24">
-      <c r="A381" s="26"/>
+      <c r="A381" s="28"/>
       <c r="B381" s="26"/>
       <c r="C381" s="26"/>
       <c r="D381" s="26"/>
@@ -19158,21 +19305,21 @@
       <c r="G381" s="26"/>
       <c r="H381" s="27"/>
       <c r="I381" s="45"/>
-      <c r="J381" s="64"/>
-      <c r="K381" s="64"/>
-      <c r="L381" s="64"/>
-      <c r="M381" s="64"/>
-      <c r="N381" s="64"/>
-      <c r="O381" s="64"/>
-      <c r="P381" s="64"/>
-      <c r="Q381" s="64"/>
-      <c r="R381" s="64"/>
-      <c r="S381" s="64"/>
-      <c r="T381" s="64"/>
-      <c r="U381" s="64"/>
-      <c r="V381" s="64"/>
-      <c r="W381" s="64"/>
-      <c r="X381" s="64"/>
+      <c r="J381" s="38"/>
+      <c r="K381" s="26"/>
+      <c r="L381" s="26"/>
+      <c r="M381" s="26"/>
+      <c r="N381" s="26"/>
+      <c r="O381" s="26"/>
+      <c r="P381" s="26"/>
+      <c r="Q381" s="26"/>
+      <c r="R381" s="26"/>
+      <c r="S381" s="26"/>
+      <c r="T381" s="26"/>
+      <c r="U381" s="26"/>
+      <c r="V381" s="26"/>
+      <c r="W381" s="26"/>
+      <c r="X381" s="26"/>
     </row>
     <row r="382" ht="16.5" spans="1:24">
       <c r="A382" s="26"/>
@@ -20579,7 +20726,7 @@
       <c r="X435" s="64"/>
     </row>
     <row r="436" ht="16.5" spans="1:24">
-      <c r="A436" s="28"/>
+      <c r="A436" s="26"/>
       <c r="B436" s="26"/>
       <c r="C436" s="26"/>
       <c r="D436" s="26"/>
@@ -20588,24 +20735,24 @@
       <c r="G436" s="26"/>
       <c r="H436" s="27"/>
       <c r="I436" s="45"/>
-      <c r="J436" s="38"/>
-      <c r="K436" s="26"/>
-      <c r="L436" s="26"/>
-      <c r="M436" s="26"/>
-      <c r="N436" s="26"/>
-      <c r="O436" s="26"/>
-      <c r="P436" s="26"/>
-      <c r="Q436" s="26"/>
-      <c r="R436" s="26"/>
-      <c r="S436" s="26"/>
-      <c r="T436" s="26"/>
-      <c r="U436" s="26"/>
-      <c r="V436" s="26"/>
-      <c r="W436" s="26"/>
-      <c r="X436" s="26"/>
+      <c r="J436" s="64"/>
+      <c r="K436" s="64"/>
+      <c r="L436" s="64"/>
+      <c r="M436" s="64"/>
+      <c r="N436" s="64"/>
+      <c r="O436" s="64"/>
+      <c r="P436" s="64"/>
+      <c r="Q436" s="64"/>
+      <c r="R436" s="64"/>
+      <c r="S436" s="64"/>
+      <c r="T436" s="64"/>
+      <c r="U436" s="64"/>
+      <c r="V436" s="64"/>
+      <c r="W436" s="64"/>
+      <c r="X436" s="64"/>
     </row>
     <row r="437" ht="16.5" spans="1:24">
-      <c r="A437" s="28"/>
+      <c r="A437" s="26"/>
       <c r="B437" s="26"/>
       <c r="C437" s="26"/>
       <c r="D437" s="26"/>
@@ -20614,24 +20761,24 @@
       <c r="G437" s="26"/>
       <c r="H437" s="27"/>
       <c r="I437" s="45"/>
-      <c r="J437" s="38"/>
-      <c r="K437" s="26"/>
-      <c r="L437" s="26"/>
-      <c r="M437" s="26"/>
-      <c r="N437" s="26"/>
-      <c r="O437" s="26"/>
-      <c r="P437" s="26"/>
-      <c r="Q437" s="26"/>
-      <c r="R437" s="26"/>
-      <c r="S437" s="26"/>
-      <c r="T437" s="26"/>
-      <c r="U437" s="26"/>
-      <c r="V437" s="26"/>
-      <c r="W437" s="26"/>
-      <c r="X437" s="26"/>
+      <c r="J437" s="64"/>
+      <c r="K437" s="64"/>
+      <c r="L437" s="64"/>
+      <c r="M437" s="64"/>
+      <c r="N437" s="64"/>
+      <c r="O437" s="64"/>
+      <c r="P437" s="64"/>
+      <c r="Q437" s="64"/>
+      <c r="R437" s="64"/>
+      <c r="S437" s="64"/>
+      <c r="T437" s="64"/>
+      <c r="U437" s="64"/>
+      <c r="V437" s="64"/>
+      <c r="W437" s="64"/>
+      <c r="X437" s="64"/>
     </row>
     <row r="438" ht="16.5" spans="1:24">
-      <c r="A438" s="28"/>
+      <c r="A438" s="26"/>
       <c r="B438" s="26"/>
       <c r="C438" s="26"/>
       <c r="D438" s="26"/>
@@ -20640,24 +20787,24 @@
       <c r="G438" s="26"/>
       <c r="H438" s="27"/>
       <c r="I438" s="45"/>
-      <c r="J438" s="38"/>
-      <c r="K438" s="26"/>
-      <c r="L438" s="26"/>
-      <c r="M438" s="26"/>
-      <c r="N438" s="26"/>
-      <c r="O438" s="26"/>
-      <c r="P438" s="26"/>
-      <c r="Q438" s="26"/>
-      <c r="R438" s="26"/>
-      <c r="S438" s="26"/>
-      <c r="T438" s="26"/>
-      <c r="U438" s="26"/>
-      <c r="V438" s="26"/>
-      <c r="W438" s="26"/>
-      <c r="X438" s="26"/>
+      <c r="J438" s="64"/>
+      <c r="K438" s="64"/>
+      <c r="L438" s="64"/>
+      <c r="M438" s="64"/>
+      <c r="N438" s="64"/>
+      <c r="O438" s="64"/>
+      <c r="P438" s="64"/>
+      <c r="Q438" s="64"/>
+      <c r="R438" s="64"/>
+      <c r="S438" s="64"/>
+      <c r="T438" s="64"/>
+      <c r="U438" s="64"/>
+      <c r="V438" s="64"/>
+      <c r="W438" s="64"/>
+      <c r="X438" s="64"/>
     </row>
     <row r="439" ht="16.5" spans="1:24">
-      <c r="A439" s="28"/>
+      <c r="A439" s="26"/>
       <c r="B439" s="26"/>
       <c r="C439" s="26"/>
       <c r="D439" s="26"/>
@@ -20666,24 +20813,24 @@
       <c r="G439" s="26"/>
       <c r="H439" s="27"/>
       <c r="I439" s="45"/>
-      <c r="J439" s="38"/>
-      <c r="K439" s="26"/>
-      <c r="L439" s="26"/>
-      <c r="M439" s="26"/>
-      <c r="N439" s="26"/>
-      <c r="O439" s="26"/>
-      <c r="P439" s="26"/>
-      <c r="Q439" s="26"/>
-      <c r="R439" s="26"/>
-      <c r="S439" s="26"/>
-      <c r="T439" s="26"/>
-      <c r="U439" s="26"/>
-      <c r="V439" s="26"/>
-      <c r="W439" s="26"/>
-      <c r="X439" s="26"/>
+      <c r="J439" s="64"/>
+      <c r="K439" s="64"/>
+      <c r="L439" s="64"/>
+      <c r="M439" s="64"/>
+      <c r="N439" s="64"/>
+      <c r="O439" s="64"/>
+      <c r="P439" s="64"/>
+      <c r="Q439" s="64"/>
+      <c r="R439" s="64"/>
+      <c r="S439" s="64"/>
+      <c r="T439" s="64"/>
+      <c r="U439" s="64"/>
+      <c r="V439" s="64"/>
+      <c r="W439" s="64"/>
+      <c r="X439" s="64"/>
     </row>
     <row r="440" ht="16.5" spans="1:24">
-      <c r="A440" s="28"/>
+      <c r="A440" s="26"/>
       <c r="B440" s="26"/>
       <c r="C440" s="26"/>
       <c r="D440" s="26"/>
@@ -20692,24 +20839,24 @@
       <c r="G440" s="26"/>
       <c r="H440" s="27"/>
       <c r="I440" s="45"/>
-      <c r="J440" s="38"/>
-      <c r="K440" s="26"/>
-      <c r="L440" s="26"/>
-      <c r="M440" s="26"/>
-      <c r="N440" s="26"/>
-      <c r="O440" s="26"/>
-      <c r="P440" s="26"/>
-      <c r="Q440" s="26"/>
-      <c r="R440" s="26"/>
-      <c r="S440" s="26"/>
-      <c r="T440" s="26"/>
-      <c r="U440" s="26"/>
-      <c r="V440" s="26"/>
-      <c r="W440" s="26"/>
-      <c r="X440" s="26"/>
+      <c r="J440" s="64"/>
+      <c r="K440" s="64"/>
+      <c r="L440" s="64"/>
+      <c r="M440" s="64"/>
+      <c r="N440" s="64"/>
+      <c r="O440" s="64"/>
+      <c r="P440" s="64"/>
+      <c r="Q440" s="64"/>
+      <c r="R440" s="64"/>
+      <c r="S440" s="64"/>
+      <c r="T440" s="64"/>
+      <c r="U440" s="64"/>
+      <c r="V440" s="64"/>
+      <c r="W440" s="64"/>
+      <c r="X440" s="64"/>
     </row>
     <row r="441" ht="16.5" spans="1:24">
-      <c r="A441" s="28"/>
+      <c r="A441" s="26"/>
       <c r="B441" s="26"/>
       <c r="C441" s="26"/>
       <c r="D441" s="26"/>
@@ -20718,21 +20865,21 @@
       <c r="G441" s="26"/>
       <c r="H441" s="27"/>
       <c r="I441" s="45"/>
-      <c r="J441" s="38"/>
-      <c r="K441" s="26"/>
-      <c r="L441" s="26"/>
-      <c r="M441" s="26"/>
-      <c r="N441" s="26"/>
-      <c r="O441" s="26"/>
-      <c r="P441" s="26"/>
-      <c r="Q441" s="26"/>
-      <c r="R441" s="26"/>
-      <c r="S441" s="26"/>
-      <c r="T441" s="26"/>
-      <c r="U441" s="26"/>
-      <c r="V441" s="26"/>
-      <c r="W441" s="26"/>
-      <c r="X441" s="26"/>
+      <c r="J441" s="64"/>
+      <c r="K441" s="64"/>
+      <c r="L441" s="64"/>
+      <c r="M441" s="64"/>
+      <c r="N441" s="64"/>
+      <c r="O441" s="64"/>
+      <c r="P441" s="64"/>
+      <c r="Q441" s="64"/>
+      <c r="R441" s="64"/>
+      <c r="S441" s="64"/>
+      <c r="T441" s="64"/>
+      <c r="U441" s="64"/>
+      <c r="V441" s="64"/>
+      <c r="W441" s="64"/>
+      <c r="X441" s="64"/>
     </row>
     <row r="442" ht="16.5" spans="1:24">
       <c r="A442" s="28"/>
@@ -21047,160 +21194,160 @@
       <c r="X453" s="26"/>
     </row>
     <row r="454" ht="16.5" spans="1:24">
-      <c r="A454" s="64"/>
-      <c r="B454" s="64"/>
-      <c r="C454" s="64"/>
-      <c r="D454" s="64"/>
-      <c r="E454" s="64"/>
-      <c r="F454" s="64"/>
-      <c r="G454" s="64"/>
-      <c r="H454" s="64"/>
+      <c r="A454" s="28"/>
+      <c r="B454" s="26"/>
+      <c r="C454" s="26"/>
+      <c r="D454" s="26"/>
+      <c r="E454" s="26"/>
+      <c r="F454" s="26"/>
+      <c r="G454" s="26"/>
+      <c r="H454" s="27"/>
       <c r="I454" s="45"/>
-      <c r="J454" s="64"/>
-      <c r="K454" s="64"/>
-      <c r="L454" s="64"/>
-      <c r="M454" s="64"/>
-      <c r="N454" s="64"/>
-      <c r="O454" s="64"/>
-      <c r="P454" s="64"/>
-      <c r="Q454" s="64"/>
-      <c r="R454" s="64"/>
-      <c r="S454" s="64"/>
-      <c r="T454" s="64"/>
-      <c r="U454" s="64"/>
-      <c r="V454" s="64"/>
-      <c r="W454" s="64"/>
-      <c r="X454" s="64"/>
+      <c r="J454" s="38"/>
+      <c r="K454" s="26"/>
+      <c r="L454" s="26"/>
+      <c r="M454" s="26"/>
+      <c r="N454" s="26"/>
+      <c r="O454" s="26"/>
+      <c r="P454" s="26"/>
+      <c r="Q454" s="26"/>
+      <c r="R454" s="26"/>
+      <c r="S454" s="26"/>
+      <c r="T454" s="26"/>
+      <c r="U454" s="26"/>
+      <c r="V454" s="26"/>
+      <c r="W454" s="26"/>
+      <c r="X454" s="26"/>
     </row>
     <row r="455" ht="16.5" spans="1:24">
-      <c r="A455" s="64"/>
-      <c r="B455" s="64"/>
-      <c r="C455" s="64"/>
-      <c r="D455" s="64"/>
-      <c r="E455" s="64"/>
-      <c r="F455" s="64"/>
-      <c r="G455" s="64"/>
-      <c r="H455" s="64"/>
+      <c r="A455" s="28"/>
+      <c r="B455" s="26"/>
+      <c r="C455" s="26"/>
+      <c r="D455" s="26"/>
+      <c r="E455" s="26"/>
+      <c r="F455" s="26"/>
+      <c r="G455" s="26"/>
+      <c r="H455" s="27"/>
       <c r="I455" s="45"/>
-      <c r="J455" s="64"/>
-      <c r="K455" s="64"/>
-      <c r="L455" s="64"/>
-      <c r="M455" s="64"/>
-      <c r="N455" s="64"/>
-      <c r="O455" s="64"/>
-      <c r="P455" s="64"/>
-      <c r="Q455" s="64"/>
-      <c r="R455" s="64"/>
-      <c r="S455" s="64"/>
-      <c r="T455" s="64"/>
-      <c r="U455" s="64"/>
-      <c r="V455" s="64"/>
-      <c r="W455" s="64"/>
-      <c r="X455" s="64"/>
+      <c r="J455" s="38"/>
+      <c r="K455" s="26"/>
+      <c r="L455" s="26"/>
+      <c r="M455" s="26"/>
+      <c r="N455" s="26"/>
+      <c r="O455" s="26"/>
+      <c r="P455" s="26"/>
+      <c r="Q455" s="26"/>
+      <c r="R455" s="26"/>
+      <c r="S455" s="26"/>
+      <c r="T455" s="26"/>
+      <c r="U455" s="26"/>
+      <c r="V455" s="26"/>
+      <c r="W455" s="26"/>
+      <c r="X455" s="26"/>
     </row>
     <row r="456" ht="16.5" spans="1:24">
-      <c r="A456" s="64"/>
-      <c r="B456" s="64"/>
-      <c r="C456" s="64"/>
-      <c r="D456" s="64"/>
-      <c r="E456" s="64"/>
-      <c r="F456" s="64"/>
-      <c r="G456" s="64"/>
-      <c r="H456" s="64"/>
+      <c r="A456" s="28"/>
+      <c r="B456" s="26"/>
+      <c r="C456" s="26"/>
+      <c r="D456" s="26"/>
+      <c r="E456" s="26"/>
+      <c r="F456" s="26"/>
+      <c r="G456" s="26"/>
+      <c r="H456" s="27"/>
       <c r="I456" s="45"/>
-      <c r="J456" s="64"/>
-      <c r="K456" s="64"/>
-      <c r="L456" s="64"/>
-      <c r="M456" s="64"/>
-      <c r="N456" s="64"/>
-      <c r="O456" s="64"/>
-      <c r="P456" s="64"/>
-      <c r="Q456" s="64"/>
-      <c r="R456" s="64"/>
-      <c r="S456" s="64"/>
-      <c r="T456" s="64"/>
-      <c r="U456" s="64"/>
-      <c r="V456" s="64"/>
-      <c r="W456" s="64"/>
-      <c r="X456" s="64"/>
+      <c r="J456" s="38"/>
+      <c r="K456" s="26"/>
+      <c r="L456" s="26"/>
+      <c r="M456" s="26"/>
+      <c r="N456" s="26"/>
+      <c r="O456" s="26"/>
+      <c r="P456" s="26"/>
+      <c r="Q456" s="26"/>
+      <c r="R456" s="26"/>
+      <c r="S456" s="26"/>
+      <c r="T456" s="26"/>
+      <c r="U456" s="26"/>
+      <c r="V456" s="26"/>
+      <c r="W456" s="26"/>
+      <c r="X456" s="26"/>
     </row>
     <row r="457" ht="16.5" spans="1:24">
-      <c r="A457" s="64"/>
-      <c r="B457" s="64"/>
-      <c r="C457" s="64"/>
-      <c r="D457" s="64"/>
-      <c r="E457" s="64"/>
-      <c r="F457" s="64"/>
-      <c r="G457" s="64"/>
-      <c r="H457" s="64"/>
+      <c r="A457" s="28"/>
+      <c r="B457" s="26"/>
+      <c r="C457" s="26"/>
+      <c r="D457" s="26"/>
+      <c r="E457" s="26"/>
+      <c r="F457" s="26"/>
+      <c r="G457" s="26"/>
+      <c r="H457" s="27"/>
       <c r="I457" s="45"/>
-      <c r="J457" s="64"/>
-      <c r="K457" s="64"/>
-      <c r="L457" s="64"/>
-      <c r="M457" s="64"/>
-      <c r="N457" s="64"/>
-      <c r="O457" s="64"/>
-      <c r="P457" s="64"/>
-      <c r="Q457" s="64"/>
-      <c r="R457" s="64"/>
-      <c r="S457" s="64"/>
-      <c r="T457" s="64"/>
-      <c r="U457" s="64"/>
-      <c r="V457" s="64"/>
-      <c r="W457" s="64"/>
-      <c r="X457" s="64"/>
+      <c r="J457" s="38"/>
+      <c r="K457" s="26"/>
+      <c r="L457" s="26"/>
+      <c r="M457" s="26"/>
+      <c r="N457" s="26"/>
+      <c r="O457" s="26"/>
+      <c r="P457" s="26"/>
+      <c r="Q457" s="26"/>
+      <c r="R457" s="26"/>
+      <c r="S457" s="26"/>
+      <c r="T457" s="26"/>
+      <c r="U457" s="26"/>
+      <c r="V457" s="26"/>
+      <c r="W457" s="26"/>
+      <c r="X457" s="26"/>
     </row>
     <row r="458" ht="16.5" spans="1:24">
-      <c r="A458" s="64"/>
-      <c r="B458" s="64"/>
-      <c r="C458" s="64"/>
-      <c r="D458" s="64"/>
-      <c r="E458" s="64"/>
-      <c r="F458" s="64"/>
-      <c r="G458" s="64"/>
-      <c r="H458" s="64"/>
+      <c r="A458" s="28"/>
+      <c r="B458" s="26"/>
+      <c r="C458" s="26"/>
+      <c r="D458" s="26"/>
+      <c r="E458" s="26"/>
+      <c r="F458" s="26"/>
+      <c r="G458" s="26"/>
+      <c r="H458" s="27"/>
       <c r="I458" s="45"/>
-      <c r="J458" s="64"/>
-      <c r="K458" s="64"/>
-      <c r="L458" s="64"/>
-      <c r="M458" s="64"/>
-      <c r="N458" s="64"/>
-      <c r="O458" s="64"/>
-      <c r="P458" s="64"/>
-      <c r="Q458" s="64"/>
-      <c r="R458" s="64"/>
-      <c r="S458" s="64"/>
-      <c r="T458" s="64"/>
-      <c r="U458" s="64"/>
-      <c r="V458" s="64"/>
-      <c r="W458" s="64"/>
-      <c r="X458" s="64"/>
+      <c r="J458" s="38"/>
+      <c r="K458" s="26"/>
+      <c r="L458" s="26"/>
+      <c r="M458" s="26"/>
+      <c r="N458" s="26"/>
+      <c r="O458" s="26"/>
+      <c r="P458" s="26"/>
+      <c r="Q458" s="26"/>
+      <c r="R458" s="26"/>
+      <c r="S458" s="26"/>
+      <c r="T458" s="26"/>
+      <c r="U458" s="26"/>
+      <c r="V458" s="26"/>
+      <c r="W458" s="26"/>
+      <c r="X458" s="26"/>
     </row>
     <row r="459" ht="16.5" spans="1:24">
-      <c r="A459" s="64"/>
-      <c r="B459" s="64"/>
-      <c r="C459" s="64"/>
-      <c r="D459" s="64"/>
-      <c r="E459" s="64"/>
-      <c r="F459" s="64"/>
-      <c r="G459" s="64"/>
-      <c r="H459" s="64"/>
+      <c r="A459" s="28"/>
+      <c r="B459" s="26"/>
+      <c r="C459" s="26"/>
+      <c r="D459" s="26"/>
+      <c r="E459" s="26"/>
+      <c r="F459" s="26"/>
+      <c r="G459" s="26"/>
+      <c r="H459" s="27"/>
       <c r="I459" s="45"/>
-      <c r="J459" s="64"/>
-      <c r="K459" s="64"/>
-      <c r="L459" s="64"/>
-      <c r="M459" s="64"/>
-      <c r="N459" s="64"/>
-      <c r="O459" s="64"/>
-      <c r="P459" s="64"/>
-      <c r="Q459" s="64"/>
-      <c r="R459" s="64"/>
-      <c r="S459" s="64"/>
-      <c r="T459" s="64"/>
-      <c r="U459" s="64"/>
-      <c r="V459" s="64"/>
-      <c r="W459" s="64"/>
-      <c r="X459" s="64"/>
+      <c r="J459" s="38"/>
+      <c r="K459" s="26"/>
+      <c r="L459" s="26"/>
+      <c r="M459" s="26"/>
+      <c r="N459" s="26"/>
+      <c r="O459" s="26"/>
+      <c r="P459" s="26"/>
+      <c r="Q459" s="26"/>
+      <c r="R459" s="26"/>
+      <c r="S459" s="26"/>
+      <c r="T459" s="26"/>
+      <c r="U459" s="26"/>
+      <c r="V459" s="26"/>
+      <c r="W459" s="26"/>
+      <c r="X459" s="26"/>
     </row>
     <row r="460" ht="16.5" spans="1:24">
       <c r="A460" s="64"/>
@@ -24947,160 +25094,160 @@
       <c r="X603" s="64"/>
     </row>
     <row r="604" ht="16.5" spans="1:24">
-      <c r="A604" s="28"/>
-      <c r="B604" s="26"/>
-      <c r="C604" s="26"/>
-      <c r="D604" s="26"/>
-      <c r="E604" s="26"/>
-      <c r="F604" s="26"/>
-      <c r="G604" s="26"/>
-      <c r="H604" s="27"/>
+      <c r="A604" s="64"/>
+      <c r="B604" s="64"/>
+      <c r="C604" s="64"/>
+      <c r="D604" s="64"/>
+      <c r="E604" s="64"/>
+      <c r="F604" s="64"/>
+      <c r="G604" s="64"/>
+      <c r="H604" s="64"/>
       <c r="I604" s="45"/>
-      <c r="J604" s="38"/>
-      <c r="K604" s="26"/>
-      <c r="L604" s="26"/>
-      <c r="M604" s="26"/>
-      <c r="N604" s="26"/>
-      <c r="O604" s="26"/>
-      <c r="P604" s="26"/>
-      <c r="Q604" s="26"/>
-      <c r="R604" s="26"/>
-      <c r="S604" s="26"/>
-      <c r="T604" s="26"/>
-      <c r="U604" s="26"/>
-      <c r="V604" s="26"/>
-      <c r="W604" s="26"/>
-      <c r="X604" s="26"/>
+      <c r="J604" s="64"/>
+      <c r="K604" s="64"/>
+      <c r="L604" s="64"/>
+      <c r="M604" s="64"/>
+      <c r="N604" s="64"/>
+      <c r="O604" s="64"/>
+      <c r="P604" s="64"/>
+      <c r="Q604" s="64"/>
+      <c r="R604" s="64"/>
+      <c r="S604" s="64"/>
+      <c r="T604" s="64"/>
+      <c r="U604" s="64"/>
+      <c r="V604" s="64"/>
+      <c r="W604" s="64"/>
+      <c r="X604" s="64"/>
     </row>
     <row r="605" ht="16.5" spans="1:24">
-      <c r="A605" s="28"/>
-      <c r="B605" s="26"/>
-      <c r="C605" s="26"/>
-      <c r="D605" s="26"/>
-      <c r="E605" s="26"/>
-      <c r="F605" s="26"/>
-      <c r="G605" s="26"/>
-      <c r="H605" s="27"/>
+      <c r="A605" s="64"/>
+      <c r="B605" s="64"/>
+      <c r="C605" s="64"/>
+      <c r="D605" s="64"/>
+      <c r="E605" s="64"/>
+      <c r="F605" s="64"/>
+      <c r="G605" s="64"/>
+      <c r="H605" s="64"/>
       <c r="I605" s="45"/>
-      <c r="J605" s="38"/>
-      <c r="K605" s="26"/>
-      <c r="L605" s="26"/>
-      <c r="M605" s="26"/>
-      <c r="N605" s="26"/>
-      <c r="O605" s="26"/>
-      <c r="P605" s="26"/>
-      <c r="Q605" s="26"/>
-      <c r="R605" s="26"/>
-      <c r="S605" s="26"/>
-      <c r="T605" s="26"/>
-      <c r="U605" s="26"/>
-      <c r="V605" s="26"/>
-      <c r="W605" s="26"/>
-      <c r="X605" s="26"/>
+      <c r="J605" s="64"/>
+      <c r="K605" s="64"/>
+      <c r="L605" s="64"/>
+      <c r="M605" s="64"/>
+      <c r="N605" s="64"/>
+      <c r="O605" s="64"/>
+      <c r="P605" s="64"/>
+      <c r="Q605" s="64"/>
+      <c r="R605" s="64"/>
+      <c r="S605" s="64"/>
+      <c r="T605" s="64"/>
+      <c r="U605" s="64"/>
+      <c r="V605" s="64"/>
+      <c r="W605" s="64"/>
+      <c r="X605" s="64"/>
     </row>
     <row r="606" ht="16.5" spans="1:24">
-      <c r="A606" s="28"/>
-      <c r="B606" s="26"/>
-      <c r="C606" s="26"/>
-      <c r="D606" s="26"/>
-      <c r="E606" s="26"/>
-      <c r="F606" s="26"/>
-      <c r="G606" s="26"/>
-      <c r="H606" s="27"/>
+      <c r="A606" s="64"/>
+      <c r="B606" s="64"/>
+      <c r="C606" s="64"/>
+      <c r="D606" s="64"/>
+      <c r="E606" s="64"/>
+      <c r="F606" s="64"/>
+      <c r="G606" s="64"/>
+      <c r="H606" s="64"/>
       <c r="I606" s="45"/>
-      <c r="J606" s="38"/>
-      <c r="K606" s="26"/>
-      <c r="L606" s="26"/>
-      <c r="M606" s="26"/>
-      <c r="N606" s="26"/>
-      <c r="O606" s="26"/>
-      <c r="P606" s="26"/>
-      <c r="Q606" s="26"/>
-      <c r="R606" s="26"/>
-      <c r="S606" s="26"/>
-      <c r="T606" s="26"/>
-      <c r="U606" s="26"/>
-      <c r="V606" s="26"/>
-      <c r="W606" s="26"/>
-      <c r="X606" s="26"/>
+      <c r="J606" s="64"/>
+      <c r="K606" s="64"/>
+      <c r="L606" s="64"/>
+      <c r="M606" s="64"/>
+      <c r="N606" s="64"/>
+      <c r="O606" s="64"/>
+      <c r="P606" s="64"/>
+      <c r="Q606" s="64"/>
+      <c r="R606" s="64"/>
+      <c r="S606" s="64"/>
+      <c r="T606" s="64"/>
+      <c r="U606" s="64"/>
+      <c r="V606" s="64"/>
+      <c r="W606" s="64"/>
+      <c r="X606" s="64"/>
     </row>
     <row r="607" ht="16.5" spans="1:24">
-      <c r="A607" s="28"/>
-      <c r="B607" s="26"/>
-      <c r="C607" s="26"/>
-      <c r="D607" s="26"/>
-      <c r="E607" s="26"/>
-      <c r="F607" s="26"/>
-      <c r="G607" s="26"/>
-      <c r="H607" s="27"/>
+      <c r="A607" s="64"/>
+      <c r="B607" s="64"/>
+      <c r="C607" s="64"/>
+      <c r="D607" s="64"/>
+      <c r="E607" s="64"/>
+      <c r="F607" s="64"/>
+      <c r="G607" s="64"/>
+      <c r="H607" s="64"/>
       <c r="I607" s="45"/>
-      <c r="J607" s="38"/>
-      <c r="K607" s="26"/>
-      <c r="L607" s="26"/>
-      <c r="M607" s="26"/>
-      <c r="N607" s="26"/>
-      <c r="O607" s="26"/>
-      <c r="P607" s="26"/>
-      <c r="Q607" s="26"/>
-      <c r="R607" s="26"/>
-      <c r="S607" s="26"/>
-      <c r="T607" s="26"/>
-      <c r="U607" s="26"/>
-      <c r="V607" s="26"/>
-      <c r="W607" s="26"/>
-      <c r="X607" s="26"/>
+      <c r="J607" s="64"/>
+      <c r="K607" s="64"/>
+      <c r="L607" s="64"/>
+      <c r="M607" s="64"/>
+      <c r="N607" s="64"/>
+      <c r="O607" s="64"/>
+      <c r="P607" s="64"/>
+      <c r="Q607" s="64"/>
+      <c r="R607" s="64"/>
+      <c r="S607" s="64"/>
+      <c r="T607" s="64"/>
+      <c r="U607" s="64"/>
+      <c r="V607" s="64"/>
+      <c r="W607" s="64"/>
+      <c r="X607" s="64"/>
     </row>
     <row r="608" ht="16.5" spans="1:24">
-      <c r="A608" s="28"/>
-      <c r="B608" s="26"/>
-      <c r="C608" s="26"/>
-      <c r="D608" s="26"/>
-      <c r="E608" s="26"/>
-      <c r="F608" s="26"/>
-      <c r="G608" s="26"/>
-      <c r="H608" s="27"/>
+      <c r="A608" s="64"/>
+      <c r="B608" s="64"/>
+      <c r="C608" s="64"/>
+      <c r="D608" s="64"/>
+      <c r="E608" s="64"/>
+      <c r="F608" s="64"/>
+      <c r="G608" s="64"/>
+      <c r="H608" s="64"/>
       <c r="I608" s="45"/>
-      <c r="J608" s="38"/>
-      <c r="K608" s="26"/>
-      <c r="L608" s="26"/>
-      <c r="M608" s="26"/>
-      <c r="N608" s="26"/>
-      <c r="O608" s="26"/>
-      <c r="P608" s="26"/>
-      <c r="Q608" s="26"/>
-      <c r="R608" s="26"/>
-      <c r="S608" s="26"/>
-      <c r="T608" s="26"/>
-      <c r="U608" s="26"/>
-      <c r="V608" s="26"/>
-      <c r="W608" s="26"/>
-      <c r="X608" s="26"/>
+      <c r="J608" s="64"/>
+      <c r="K608" s="64"/>
+      <c r="L608" s="64"/>
+      <c r="M608" s="64"/>
+      <c r="N608" s="64"/>
+      <c r="O608" s="64"/>
+      <c r="P608" s="64"/>
+      <c r="Q608" s="64"/>
+      <c r="R608" s="64"/>
+      <c r="S608" s="64"/>
+      <c r="T608" s="64"/>
+      <c r="U608" s="64"/>
+      <c r="V608" s="64"/>
+      <c r="W608" s="64"/>
+      <c r="X608" s="64"/>
     </row>
     <row r="609" ht="16.5" spans="1:24">
-      <c r="A609" s="28"/>
-      <c r="B609" s="26"/>
-      <c r="C609" s="26"/>
-      <c r="D609" s="26"/>
-      <c r="E609" s="26"/>
-      <c r="F609" s="26"/>
-      <c r="G609" s="26"/>
-      <c r="H609" s="27"/>
+      <c r="A609" s="64"/>
+      <c r="B609" s="64"/>
+      <c r="C609" s="64"/>
+      <c r="D609" s="64"/>
+      <c r="E609" s="64"/>
+      <c r="F609" s="64"/>
+      <c r="G609" s="64"/>
+      <c r="H609" s="64"/>
       <c r="I609" s="45"/>
-      <c r="J609" s="38"/>
-      <c r="K609" s="26"/>
-      <c r="L609" s="26"/>
-      <c r="M609" s="26"/>
-      <c r="N609" s="26"/>
-      <c r="O609" s="26"/>
-      <c r="P609" s="26"/>
-      <c r="Q609" s="26"/>
-      <c r="R609" s="26"/>
-      <c r="S609" s="26"/>
-      <c r="T609" s="26"/>
-      <c r="U609" s="26"/>
-      <c r="V609" s="26"/>
-      <c r="W609" s="26"/>
-      <c r="X609" s="26"/>
+      <c r="J609" s="64"/>
+      <c r="K609" s="64"/>
+      <c r="L609" s="64"/>
+      <c r="M609" s="64"/>
+      <c r="N609" s="64"/>
+      <c r="O609" s="64"/>
+      <c r="P609" s="64"/>
+      <c r="Q609" s="64"/>
+      <c r="R609" s="64"/>
+      <c r="S609" s="64"/>
+      <c r="T609" s="64"/>
+      <c r="U609" s="64"/>
+      <c r="V609" s="64"/>
+      <c r="W609" s="64"/>
+      <c r="X609" s="64"/>
     </row>
     <row r="610" ht="16.5" spans="1:24">
       <c r="A610" s="28"/>
@@ -25155,160 +25302,160 @@
       <c r="X611" s="26"/>
     </row>
     <row r="612" ht="16.5" spans="1:24">
-      <c r="A612" s="64"/>
-      <c r="B612" s="64"/>
-      <c r="C612" s="64"/>
-      <c r="D612" s="64"/>
-      <c r="E612" s="64"/>
-      <c r="F612" s="64"/>
-      <c r="G612" s="64"/>
-      <c r="H612" s="64"/>
+      <c r="A612" s="28"/>
+      <c r="B612" s="26"/>
+      <c r="C612" s="26"/>
+      <c r="D612" s="26"/>
+      <c r="E612" s="26"/>
+      <c r="F612" s="26"/>
+      <c r="G612" s="26"/>
+      <c r="H612" s="27"/>
       <c r="I612" s="45"/>
-      <c r="J612" s="64"/>
-      <c r="K612" s="64"/>
-      <c r="L612" s="64"/>
-      <c r="M612" s="64"/>
-      <c r="N612" s="64"/>
-      <c r="O612" s="64"/>
-      <c r="P612" s="64"/>
-      <c r="Q612" s="64"/>
-      <c r="R612" s="64"/>
-      <c r="S612" s="64"/>
-      <c r="T612" s="64"/>
-      <c r="U612" s="64"/>
-      <c r="V612" s="64"/>
-      <c r="W612" s="64"/>
-      <c r="X612" s="64"/>
+      <c r="J612" s="38"/>
+      <c r="K612" s="26"/>
+      <c r="L612" s="26"/>
+      <c r="M612" s="26"/>
+      <c r="N612" s="26"/>
+      <c r="O612" s="26"/>
+      <c r="P612" s="26"/>
+      <c r="Q612" s="26"/>
+      <c r="R612" s="26"/>
+      <c r="S612" s="26"/>
+      <c r="T612" s="26"/>
+      <c r="U612" s="26"/>
+      <c r="V612" s="26"/>
+      <c r="W612" s="26"/>
+      <c r="X612" s="26"/>
     </row>
     <row r="613" ht="16.5" spans="1:24">
-      <c r="A613" s="64"/>
-      <c r="B613" s="64"/>
-      <c r="C613" s="64"/>
-      <c r="D613" s="64"/>
-      <c r="E613" s="64"/>
-      <c r="F613" s="64"/>
-      <c r="G613" s="64"/>
-      <c r="H613" s="64"/>
+      <c r="A613" s="28"/>
+      <c r="B613" s="26"/>
+      <c r="C613" s="26"/>
+      <c r="D613" s="26"/>
+      <c r="E613" s="26"/>
+      <c r="F613" s="26"/>
+      <c r="G613" s="26"/>
+      <c r="H613" s="27"/>
       <c r="I613" s="45"/>
-      <c r="J613" s="64"/>
-      <c r="K613" s="64"/>
-      <c r="L613" s="64"/>
-      <c r="M613" s="64"/>
-      <c r="N613" s="64"/>
-      <c r="O613" s="64"/>
-      <c r="P613" s="64"/>
-      <c r="Q613" s="64"/>
-      <c r="R613" s="64"/>
-      <c r="S613" s="64"/>
-      <c r="T613" s="64"/>
-      <c r="U613" s="64"/>
-      <c r="V613" s="64"/>
-      <c r="W613" s="64"/>
-      <c r="X613" s="64"/>
+      <c r="J613" s="38"/>
+      <c r="K613" s="26"/>
+      <c r="L613" s="26"/>
+      <c r="M613" s="26"/>
+      <c r="N613" s="26"/>
+      <c r="O613" s="26"/>
+      <c r="P613" s="26"/>
+      <c r="Q613" s="26"/>
+      <c r="R613" s="26"/>
+      <c r="S613" s="26"/>
+      <c r="T613" s="26"/>
+      <c r="U613" s="26"/>
+      <c r="V613" s="26"/>
+      <c r="W613" s="26"/>
+      <c r="X613" s="26"/>
     </row>
     <row r="614" ht="16.5" spans="1:24">
-      <c r="A614" s="64"/>
-      <c r="B614" s="64"/>
-      <c r="C614" s="64"/>
-      <c r="D614" s="64"/>
-      <c r="E614" s="64"/>
-      <c r="F614" s="64"/>
-      <c r="G614" s="64"/>
-      <c r="H614" s="64"/>
+      <c r="A614" s="28"/>
+      <c r="B614" s="26"/>
+      <c r="C614" s="26"/>
+      <c r="D614" s="26"/>
+      <c r="E614" s="26"/>
+      <c r="F614" s="26"/>
+      <c r="G614" s="26"/>
+      <c r="H614" s="27"/>
       <c r="I614" s="45"/>
-      <c r="J614" s="64"/>
-      <c r="K614" s="64"/>
-      <c r="L614" s="64"/>
-      <c r="M614" s="64"/>
-      <c r="N614" s="64"/>
-      <c r="O614" s="64"/>
-      <c r="P614" s="64"/>
-      <c r="Q614" s="64"/>
-      <c r="R614" s="64"/>
-      <c r="S614" s="64"/>
-      <c r="T614" s="64"/>
-      <c r="U614" s="64"/>
-      <c r="V614" s="64"/>
-      <c r="W614" s="64"/>
-      <c r="X614" s="64"/>
+      <c r="J614" s="38"/>
+      <c r="K614" s="26"/>
+      <c r="L614" s="26"/>
+      <c r="M614" s="26"/>
+      <c r="N614" s="26"/>
+      <c r="O614" s="26"/>
+      <c r="P614" s="26"/>
+      <c r="Q614" s="26"/>
+      <c r="R614" s="26"/>
+      <c r="S614" s="26"/>
+      <c r="T614" s="26"/>
+      <c r="U614" s="26"/>
+      <c r="V614" s="26"/>
+      <c r="W614" s="26"/>
+      <c r="X614" s="26"/>
     </row>
     <row r="615" ht="16.5" spans="1:24">
-      <c r="A615" s="64"/>
-      <c r="B615" s="64"/>
-      <c r="C615" s="64"/>
-      <c r="D615" s="64"/>
-      <c r="E615" s="64"/>
-      <c r="F615" s="64"/>
-      <c r="G615" s="64"/>
-      <c r="H615" s="64"/>
+      <c r="A615" s="28"/>
+      <c r="B615" s="26"/>
+      <c r="C615" s="26"/>
+      <c r="D615" s="26"/>
+      <c r="E615" s="26"/>
+      <c r="F615" s="26"/>
+      <c r="G615" s="26"/>
+      <c r="H615" s="27"/>
       <c r="I615" s="45"/>
-      <c r="J615" s="64"/>
-      <c r="K615" s="64"/>
-      <c r="L615" s="64"/>
-      <c r="M615" s="64"/>
-      <c r="N615" s="64"/>
-      <c r="O615" s="64"/>
-      <c r="P615" s="64"/>
-      <c r="Q615" s="64"/>
-      <c r="R615" s="64"/>
-      <c r="S615" s="64"/>
-      <c r="T615" s="64"/>
-      <c r="U615" s="64"/>
-      <c r="V615" s="64"/>
-      <c r="W615" s="64"/>
-      <c r="X615" s="64"/>
+      <c r="J615" s="38"/>
+      <c r="K615" s="26"/>
+      <c r="L615" s="26"/>
+      <c r="M615" s="26"/>
+      <c r="N615" s="26"/>
+      <c r="O615" s="26"/>
+      <c r="P615" s="26"/>
+      <c r="Q615" s="26"/>
+      <c r="R615" s="26"/>
+      <c r="S615" s="26"/>
+      <c r="T615" s="26"/>
+      <c r="U615" s="26"/>
+      <c r="V615" s="26"/>
+      <c r="W615" s="26"/>
+      <c r="X615" s="26"/>
     </row>
     <row r="616" ht="16.5" spans="1:24">
-      <c r="A616" s="64"/>
-      <c r="B616" s="64"/>
-      <c r="C616" s="64"/>
-      <c r="D616" s="64"/>
-      <c r="E616" s="64"/>
-      <c r="F616" s="64"/>
-      <c r="G616" s="64"/>
-      <c r="H616" s="64"/>
+      <c r="A616" s="28"/>
+      <c r="B616" s="26"/>
+      <c r="C616" s="26"/>
+      <c r="D616" s="26"/>
+      <c r="E616" s="26"/>
+      <c r="F616" s="26"/>
+      <c r="G616" s="26"/>
+      <c r="H616" s="27"/>
       <c r="I616" s="45"/>
-      <c r="J616" s="64"/>
-      <c r="K616" s="64"/>
-      <c r="L616" s="64"/>
-      <c r="M616" s="64"/>
-      <c r="N616" s="64"/>
-      <c r="O616" s="64"/>
-      <c r="P616" s="64"/>
-      <c r="Q616" s="64"/>
-      <c r="R616" s="64"/>
-      <c r="S616" s="64"/>
-      <c r="T616" s="64"/>
-      <c r="U616" s="64"/>
-      <c r="V616" s="64"/>
-      <c r="W616" s="64"/>
-      <c r="X616" s="64"/>
+      <c r="J616" s="38"/>
+      <c r="K616" s="26"/>
+      <c r="L616" s="26"/>
+      <c r="M616" s="26"/>
+      <c r="N616" s="26"/>
+      <c r="O616" s="26"/>
+      <c r="P616" s="26"/>
+      <c r="Q616" s="26"/>
+      <c r="R616" s="26"/>
+      <c r="S616" s="26"/>
+      <c r="T616" s="26"/>
+      <c r="U616" s="26"/>
+      <c r="V616" s="26"/>
+      <c r="W616" s="26"/>
+      <c r="X616" s="26"/>
     </row>
     <row r="617" ht="16.5" spans="1:24">
-      <c r="A617" s="64"/>
-      <c r="B617" s="64"/>
-      <c r="C617" s="64"/>
-      <c r="D617" s="64"/>
-      <c r="E617" s="64"/>
-      <c r="F617" s="64"/>
-      <c r="G617" s="64"/>
-      <c r="H617" s="64"/>
+      <c r="A617" s="28"/>
+      <c r="B617" s="26"/>
+      <c r="C617" s="26"/>
+      <c r="D617" s="26"/>
+      <c r="E617" s="26"/>
+      <c r="F617" s="26"/>
+      <c r="G617" s="26"/>
+      <c r="H617" s="27"/>
       <c r="I617" s="45"/>
-      <c r="J617" s="64"/>
-      <c r="K617" s="64"/>
-      <c r="L617" s="64"/>
-      <c r="M617" s="64"/>
-      <c r="N617" s="64"/>
-      <c r="O617" s="64"/>
-      <c r="P617" s="64"/>
-      <c r="Q617" s="64"/>
-      <c r="R617" s="64"/>
-      <c r="S617" s="64"/>
-      <c r="T617" s="64"/>
-      <c r="U617" s="64"/>
-      <c r="V617" s="64"/>
-      <c r="W617" s="64"/>
-      <c r="X617" s="64"/>
+      <c r="J617" s="38"/>
+      <c r="K617" s="26"/>
+      <c r="L617" s="26"/>
+      <c r="M617" s="26"/>
+      <c r="N617" s="26"/>
+      <c r="O617" s="26"/>
+      <c r="P617" s="26"/>
+      <c r="Q617" s="26"/>
+      <c r="R617" s="26"/>
+      <c r="S617" s="26"/>
+      <c r="T617" s="26"/>
+      <c r="U617" s="26"/>
+      <c r="V617" s="26"/>
+      <c r="W617" s="26"/>
+      <c r="X617" s="26"/>
     </row>
     <row r="618" ht="16.5" spans="1:24">
       <c r="A618" s="64"/>
@@ -25415,82 +25562,82 @@
       <c r="X621" s="64"/>
     </row>
     <row r="622" ht="16.5" spans="1:24">
-      <c r="A622" s="28"/>
-      <c r="B622" s="26"/>
-      <c r="C622" s="26"/>
-      <c r="D622" s="26"/>
-      <c r="E622" s="26"/>
-      <c r="F622" s="26"/>
-      <c r="G622" s="26"/>
-      <c r="H622" s="27"/>
+      <c r="A622" s="64"/>
+      <c r="B622" s="64"/>
+      <c r="C622" s="64"/>
+      <c r="D622" s="64"/>
+      <c r="E622" s="64"/>
+      <c r="F622" s="64"/>
+      <c r="G622" s="64"/>
+      <c r="H622" s="64"/>
       <c r="I622" s="45"/>
-      <c r="J622" s="38"/>
-      <c r="K622" s="26"/>
-      <c r="L622" s="26"/>
-      <c r="M622" s="26"/>
-      <c r="N622" s="26"/>
-      <c r="O622" s="26"/>
-      <c r="P622" s="26"/>
-      <c r="Q622" s="26"/>
-      <c r="R622" s="26"/>
-      <c r="S622" s="26"/>
-      <c r="T622" s="26"/>
-      <c r="U622" s="26"/>
-      <c r="V622" s="26"/>
-      <c r="W622" s="26"/>
-      <c r="X622" s="26"/>
+      <c r="J622" s="64"/>
+      <c r="K622" s="64"/>
+      <c r="L622" s="64"/>
+      <c r="M622" s="64"/>
+      <c r="N622" s="64"/>
+      <c r="O622" s="64"/>
+      <c r="P622" s="64"/>
+      <c r="Q622" s="64"/>
+      <c r="R622" s="64"/>
+      <c r="S622" s="64"/>
+      <c r="T622" s="64"/>
+      <c r="U622" s="64"/>
+      <c r="V622" s="64"/>
+      <c r="W622" s="64"/>
+      <c r="X622" s="64"/>
     </row>
     <row r="623" ht="16.5" spans="1:24">
-      <c r="A623" s="28"/>
-      <c r="B623" s="26"/>
-      <c r="C623" s="26"/>
-      <c r="D623" s="26"/>
-      <c r="E623" s="26"/>
-      <c r="F623" s="26"/>
-      <c r="G623" s="26"/>
-      <c r="H623" s="27"/>
+      <c r="A623" s="64"/>
+      <c r="B623" s="64"/>
+      <c r="C623" s="64"/>
+      <c r="D623" s="64"/>
+      <c r="E623" s="64"/>
+      <c r="F623" s="64"/>
+      <c r="G623" s="64"/>
+      <c r="H623" s="64"/>
       <c r="I623" s="45"/>
-      <c r="J623" s="38"/>
-      <c r="K623" s="26"/>
-      <c r="L623" s="26"/>
-      <c r="M623" s="26"/>
-      <c r="N623" s="26"/>
-      <c r="O623" s="26"/>
-      <c r="P623" s="26"/>
-      <c r="Q623" s="26"/>
-      <c r="R623" s="26"/>
-      <c r="S623" s="26"/>
-      <c r="T623" s="26"/>
-      <c r="U623" s="26"/>
-      <c r="V623" s="26"/>
-      <c r="W623" s="26"/>
-      <c r="X623" s="26"/>
+      <c r="J623" s="64"/>
+      <c r="K623" s="64"/>
+      <c r="L623" s="64"/>
+      <c r="M623" s="64"/>
+      <c r="N623" s="64"/>
+      <c r="O623" s="64"/>
+      <c r="P623" s="64"/>
+      <c r="Q623" s="64"/>
+      <c r="R623" s="64"/>
+      <c r="S623" s="64"/>
+      <c r="T623" s="64"/>
+      <c r="U623" s="64"/>
+      <c r="V623" s="64"/>
+      <c r="W623" s="64"/>
+      <c r="X623" s="64"/>
     </row>
     <row r="624" ht="16.5" spans="1:24">
-      <c r="A624" s="28"/>
-      <c r="B624" s="26"/>
-      <c r="C624" s="26"/>
-      <c r="D624" s="26"/>
-      <c r="E624" s="26"/>
-      <c r="F624" s="26"/>
-      <c r="G624" s="26"/>
-      <c r="H624" s="27"/>
+      <c r="A624" s="64"/>
+      <c r="B624" s="64"/>
+      <c r="C624" s="64"/>
+      <c r="D624" s="64"/>
+      <c r="E624" s="64"/>
+      <c r="F624" s="64"/>
+      <c r="G624" s="64"/>
+      <c r="H624" s="64"/>
       <c r="I624" s="45"/>
-      <c r="J624" s="38"/>
-      <c r="K624" s="26"/>
-      <c r="L624" s="26"/>
-      <c r="M624" s="26"/>
-      <c r="N624" s="26"/>
-      <c r="O624" s="26"/>
-      <c r="P624" s="26"/>
-      <c r="Q624" s="26"/>
-      <c r="R624" s="26"/>
-      <c r="S624" s="26"/>
-      <c r="T624" s="26"/>
-      <c r="U624" s="26"/>
-      <c r="V624" s="26"/>
-      <c r="W624" s="26"/>
-      <c r="X624" s="26"/>
+      <c r="J624" s="64"/>
+      <c r="K624" s="64"/>
+      <c r="L624" s="64"/>
+      <c r="M624" s="64"/>
+      <c r="N624" s="64"/>
+      <c r="O624" s="64"/>
+      <c r="P624" s="64"/>
+      <c r="Q624" s="64"/>
+      <c r="R624" s="64"/>
+      <c r="S624" s="64"/>
+      <c r="T624" s="64"/>
+      <c r="U624" s="64"/>
+      <c r="V624" s="64"/>
+      <c r="W624" s="64"/>
+      <c r="X624" s="64"/>
     </row>
     <row r="625" ht="16.5" spans="1:24">
       <c r="A625" s="64"/>
@@ -25519,37 +25666,193 @@
       <c r="X625" s="64"/>
     </row>
     <row r="626" ht="16.5" spans="1:24">
-      <c r="A626" s="28"/>
-      <c r="B626" s="26"/>
-      <c r="C626" s="26"/>
-      <c r="D626" s="26"/>
-      <c r="E626" s="26"/>
-      <c r="F626" s="26"/>
-      <c r="G626" s="26"/>
-      <c r="H626" s="27"/>
+      <c r="A626" s="64"/>
+      <c r="B626" s="64"/>
+      <c r="C626" s="64"/>
+      <c r="D626" s="64"/>
+      <c r="E626" s="64"/>
+      <c r="F626" s="64"/>
+      <c r="G626" s="64"/>
+      <c r="H626" s="64"/>
       <c r="I626" s="45"/>
-      <c r="J626" s="38"/>
-      <c r="K626" s="26"/>
-      <c r="L626" s="26"/>
-      <c r="M626" s="26"/>
-      <c r="N626" s="26"/>
-      <c r="O626" s="26"/>
-      <c r="P626" s="26"/>
-      <c r="Q626" s="26"/>
-      <c r="R626" s="26"/>
-      <c r="S626" s="26"/>
-      <c r="T626" s="26"/>
-      <c r="U626" s="26"/>
-      <c r="V626" s="26"/>
-      <c r="W626" s="26"/>
-      <c r="X626" s="26"/>
+      <c r="J626" s="64"/>
+      <c r="K626" s="64"/>
+      <c r="L626" s="64"/>
+      <c r="M626" s="64"/>
+      <c r="N626" s="64"/>
+      <c r="O626" s="64"/>
+      <c r="P626" s="64"/>
+      <c r="Q626" s="64"/>
+      <c r="R626" s="64"/>
+      <c r="S626" s="64"/>
+      <c r="T626" s="64"/>
+      <c r="U626" s="64"/>
+      <c r="V626" s="64"/>
+      <c r="W626" s="64"/>
+      <c r="X626" s="64"/>
+    </row>
+    <row r="627" ht="16.5" spans="1:24">
+      <c r="A627" s="64"/>
+      <c r="B627" s="64"/>
+      <c r="C627" s="64"/>
+      <c r="D627" s="64"/>
+      <c r="E627" s="64"/>
+      <c r="F627" s="64"/>
+      <c r="G627" s="64"/>
+      <c r="H627" s="64"/>
+      <c r="I627" s="45"/>
+      <c r="J627" s="64"/>
+      <c r="K627" s="64"/>
+      <c r="L627" s="64"/>
+      <c r="M627" s="64"/>
+      <c r="N627" s="64"/>
+      <c r="O627" s="64"/>
+      <c r="P627" s="64"/>
+      <c r="Q627" s="64"/>
+      <c r="R627" s="64"/>
+      <c r="S627" s="64"/>
+      <c r="T627" s="64"/>
+      <c r="U627" s="64"/>
+      <c r="V627" s="64"/>
+      <c r="W627" s="64"/>
+      <c r="X627" s="64"/>
+    </row>
+    <row r="628" ht="16.5" spans="1:24">
+      <c r="A628" s="28"/>
+      <c r="B628" s="26"/>
+      <c r="C628" s="26"/>
+      <c r="D628" s="26"/>
+      <c r="E628" s="26"/>
+      <c r="F628" s="26"/>
+      <c r="G628" s="26"/>
+      <c r="H628" s="27"/>
+      <c r="I628" s="45"/>
+      <c r="J628" s="38"/>
+      <c r="K628" s="26"/>
+      <c r="L628" s="26"/>
+      <c r="M628" s="26"/>
+      <c r="N628" s="26"/>
+      <c r="O628" s="26"/>
+      <c r="P628" s="26"/>
+      <c r="Q628" s="26"/>
+      <c r="R628" s="26"/>
+      <c r="S628" s="26"/>
+      <c r="T628" s="26"/>
+      <c r="U628" s="26"/>
+      <c r="V628" s="26"/>
+      <c r="W628" s="26"/>
+      <c r="X628" s="26"/>
+    </row>
+    <row r="629" ht="16.5" spans="1:24">
+      <c r="A629" s="28"/>
+      <c r="B629" s="26"/>
+      <c r="C629" s="26"/>
+      <c r="D629" s="26"/>
+      <c r="E629" s="26"/>
+      <c r="F629" s="26"/>
+      <c r="G629" s="26"/>
+      <c r="H629" s="27"/>
+      <c r="I629" s="45"/>
+      <c r="J629" s="38"/>
+      <c r="K629" s="26"/>
+      <c r="L629" s="26"/>
+      <c r="M629" s="26"/>
+      <c r="N629" s="26"/>
+      <c r="O629" s="26"/>
+      <c r="P629" s="26"/>
+      <c r="Q629" s="26"/>
+      <c r="R629" s="26"/>
+      <c r="S629" s="26"/>
+      <c r="T629" s="26"/>
+      <c r="U629" s="26"/>
+      <c r="V629" s="26"/>
+      <c r="W629" s="26"/>
+      <c r="X629" s="26"/>
+    </row>
+    <row r="630" ht="16.5" spans="1:24">
+      <c r="A630" s="28"/>
+      <c r="B630" s="26"/>
+      <c r="C630" s="26"/>
+      <c r="D630" s="26"/>
+      <c r="E630" s="26"/>
+      <c r="F630" s="26"/>
+      <c r="G630" s="26"/>
+      <c r="H630" s="27"/>
+      <c r="I630" s="45"/>
+      <c r="J630" s="38"/>
+      <c r="K630" s="26"/>
+      <c r="L630" s="26"/>
+      <c r="M630" s="26"/>
+      <c r="N630" s="26"/>
+      <c r="O630" s="26"/>
+      <c r="P630" s="26"/>
+      <c r="Q630" s="26"/>
+      <c r="R630" s="26"/>
+      <c r="S630" s="26"/>
+      <c r="T630" s="26"/>
+      <c r="U630" s="26"/>
+      <c r="V630" s="26"/>
+      <c r="W630" s="26"/>
+      <c r="X630" s="26"/>
+    </row>
+    <row r="631" ht="16.5" spans="1:24">
+      <c r="A631" s="64"/>
+      <c r="B631" s="64"/>
+      <c r="C631" s="64"/>
+      <c r="D631" s="64"/>
+      <c r="E631" s="64"/>
+      <c r="F631" s="64"/>
+      <c r="G631" s="64"/>
+      <c r="H631" s="64"/>
+      <c r="I631" s="45"/>
+      <c r="J631" s="64"/>
+      <c r="K631" s="64"/>
+      <c r="L631" s="64"/>
+      <c r="M631" s="64"/>
+      <c r="N631" s="64"/>
+      <c r="O631" s="64"/>
+      <c r="P631" s="64"/>
+      <c r="Q631" s="64"/>
+      <c r="R631" s="64"/>
+      <c r="S631" s="64"/>
+      <c r="T631" s="64"/>
+      <c r="U631" s="64"/>
+      <c r="V631" s="64"/>
+      <c r="W631" s="64"/>
+      <c r="X631" s="64"/>
+    </row>
+    <row r="632" ht="16.5" spans="1:24">
+      <c r="A632" s="28"/>
+      <c r="B632" s="26"/>
+      <c r="C632" s="26"/>
+      <c r="D632" s="26"/>
+      <c r="E632" s="26"/>
+      <c r="F632" s="26"/>
+      <c r="G632" s="26"/>
+      <c r="H632" s="27"/>
+      <c r="I632" s="45"/>
+      <c r="J632" s="38"/>
+      <c r="K632" s="26"/>
+      <c r="L632" s="26"/>
+      <c r="M632" s="26"/>
+      <c r="N632" s="26"/>
+      <c r="O632" s="26"/>
+      <c r="P632" s="26"/>
+      <c r="Q632" s="26"/>
+      <c r="R632" s="26"/>
+      <c r="S632" s="26"/>
+      <c r="T632" s="26"/>
+      <c r="U632" s="26"/>
+      <c r="V632" s="26"/>
+      <c r="W632" s="26"/>
+      <c r="X632" s="26"/>
     </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H29 H30 H31 H32 H33 H34 H37 H38 H39 H40 H43 H44 H47 H35:H36 H41:H42 H45:H46" errorStyle="warning">
       <formula1>"Level 0,Level 1,Level 2,Level 3,Level 4"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H60:H626" errorStyle="warning">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H66:H632" errorStyle="warning">
       <formula1>"Level 1,Level 2,Level 3,Level 4"</formula1>
     </dataValidation>
   </dataValidations>

--- a/app_auto_case.xlsx
+++ b/app_auto_case.xlsx
@@ -1074,10 +1074,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
     <font>
@@ -1204,9 +1204,63 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1227,43 +1281,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1278,23 +1296,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1308,19 +1325,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1331,17 +1340,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1368,7 +1368,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1380,13 +1398,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1398,19 +1416,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1422,103 +1446,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1536,7 +1464,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1548,7 +1506,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1686,6 +1686,80 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1709,80 +1783,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1791,10 +1791,10 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1803,133 +1803,133 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -8521,8 +8521,8 @@
   <sheetPr/>
   <dimension ref="A1:AJ632"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/app_auto_case.xlsx
+++ b/app_auto_case.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305">
   <si>
     <t>APP用例更新记录</t>
   </si>
@@ -1147,6 +1147,104 @@
     <t>1、录像图标显示成正在录像红色标识（参考UI图）屏幕有图标显示正在录像状态：REC</t>
   </si>
   <si>
+    <t>jwt_60</t>
+  </si>
+  <si>
+    <t>2、提示录像时间太短，请重新录制，UI恢复原状（提示手动操作也难出现，自动化只验证UI恢复）</t>
+  </si>
+  <si>
+    <t>jwt_61</t>
+  </si>
+  <si>
+    <t>3、提示录像片段成功，UI恢复原状</t>
+  </si>
+  <si>
+    <t>jwt_62</t>
+  </si>
+  <si>
+    <t>截图</t>
+  </si>
+  <si>
+    <t>由设备列表进入设备监控页面，点击截图</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、可以正常截图，并有提示截图成功和保存成功
+</t>
+  </si>
+  <si>
+    <t>jwt_63</t>
+  </si>
+  <si>
+    <t>2、截图成功后再监控画面左下角有截图缩略图</t>
+  </si>
+  <si>
+    <t>jwt_64</t>
+  </si>
+  <si>
+    <t>点击可以查看截图大图。</t>
+  </si>
+  <si>
+    <t>jwt_65</t>
+  </si>
+  <si>
+    <t>无点击操作3秒后隐藏</t>
+  </si>
+  <si>
+    <t>jwt_66</t>
+  </si>
+  <si>
+    <t>快捷入口</t>
+  </si>
+  <si>
+    <t>时间轴日期</t>
+  </si>
+  <si>
+    <t>设备存储卡中有大于2天的录像记录（当天日期有录像及上一天有录像）</t>
+  </si>
+  <si>
+    <t>1、点击当前日期另一天的录像
+2、观察当前日期往后的日期是否显示</t>
+  </si>
+  <si>
+    <t>1、从当前播放的录像切换到另一天的录像</t>
+  </si>
+  <si>
+    <t>横屏 - 播放/暂停</t>
+  </si>
+  <si>
+    <t>1、进入卡回放，点击全屏
+2、点击画面中的暂停
+3、点击画面中的播放</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、暂停键变成播放键
+</t>
+  </si>
+  <si>
+    <t>2、录像暂停，时间轴不动</t>
+  </si>
+  <si>
+    <t>3、播放键变成暂停键</t>
+  </si>
+  <si>
+    <t>3、录像播放，时间轴滚动</t>
+  </si>
+  <si>
+    <t>设置-网络</t>
+  </si>
+  <si>
+    <t>WiFi切换WiFi</t>
+  </si>
+  <si>
+    <t>进入到设备网络设置页面，切换到别的WiFi，输入正确的密码后点击确定</t>
+  </si>
+  <si>
+    <t>可以正常切换设备WiFi并有切换成功提示</t>
+  </si>
+  <si>
+    <t>切换成功后当前正在连接的WiFi有打√标识</t>
+  </si>
+  <si>
     <t>2，广告自己会滚动刷新</t>
   </si>
   <si>
@@ -1158,8 +1256,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -1301,8 +1399,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1310,7 +1423,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1323,9 +1436,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1355,50 +1498,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1417,15 +1516,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1452,31 +1550,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1494,7 +1634,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1506,73 +1688,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1590,37 +1718,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1632,7 +1730,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1770,6 +1868,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1794,30 +1907,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1825,15 +1914,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1853,6 +1933,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1867,6 +1956,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1875,10 +1973,10 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1887,19 +1985,19 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1908,112 +2006,112 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="34" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -8603,10 +8701,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AJ640"/>
+  <dimension ref="A1:AJ651"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -11073,13 +11171,25 @@
       <c r="AI60" s="49"/>
       <c r="AJ60" s="49"/>
     </row>
-    <row r="61" s="6" customFormat="1" ht="16.5" spans="1:36">
-      <c r="A61" s="19"/>
-      <c r="B61" s="23"/>
-      <c r="C61" s="30"/>
-      <c r="D61" s="30"/>
-      <c r="E61" s="30"/>
-      <c r="F61" s="30"/>
+    <row r="61" s="6" customFormat="1" ht="148.5" spans="1:36">
+      <c r="A61" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="B61" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="C61" s="30" t="s">
+        <v>269</v>
+      </c>
+      <c r="D61" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="E61" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="F61" s="30" t="s">
+        <v>273</v>
+      </c>
       <c r="G61" s="23"/>
       <c r="H61" s="29"/>
       <c r="I61" s="23"/>
@@ -11112,12 +11222,24 @@
       <c r="AJ61" s="49"/>
     </row>
     <row r="62" s="6" customFormat="1" ht="80" customHeight="1" spans="1:36">
-      <c r="A62" s="19"/>
-      <c r="B62" s="23"/>
-      <c r="C62" s="30"/>
-      <c r="D62" s="30"/>
-      <c r="E62" s="30"/>
-      <c r="F62" s="30"/>
+      <c r="A62" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="B62" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="C62" s="30" t="s">
+        <v>269</v>
+      </c>
+      <c r="D62" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="E62" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="F62" s="30" t="s">
+        <v>275</v>
+      </c>
       <c r="G62" s="23"/>
       <c r="H62" s="29"/>
       <c r="I62" s="23"/>
@@ -11150,12 +11272,24 @@
       <c r="AJ62" s="49"/>
     </row>
     <row r="63" s="6" customFormat="1" ht="80" customHeight="1" spans="1:36">
-      <c r="A63" s="19"/>
-      <c r="B63" s="23"/>
-      <c r="C63" s="30"/>
-      <c r="D63" s="30"/>
-      <c r="E63" s="30"/>
-      <c r="F63" s="30"/>
+      <c r="A63" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="B63" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="C63" s="30" t="s">
+        <v>277</v>
+      </c>
+      <c r="D63" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="E63" s="30" t="s">
+        <v>278</v>
+      </c>
+      <c r="F63" s="30" t="s">
+        <v>279</v>
+      </c>
       <c r="G63" s="23"/>
       <c r="H63" s="29"/>
       <c r="I63" s="23"/>
@@ -11188,12 +11322,24 @@
       <c r="AJ63" s="49"/>
     </row>
     <row r="64" s="6" customFormat="1" ht="80" customHeight="1" spans="1:36">
-      <c r="A64" s="19"/>
-      <c r="B64" s="23"/>
-      <c r="C64" s="30"/>
-      <c r="D64" s="30"/>
-      <c r="E64" s="30"/>
-      <c r="F64" s="30"/>
+      <c r="A64" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="B64" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="C64" s="30" t="s">
+        <v>277</v>
+      </c>
+      <c r="D64" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="E64" s="30" t="s">
+        <v>278</v>
+      </c>
+      <c r="F64" s="30" t="s">
+        <v>281</v>
+      </c>
       <c r="G64" s="23"/>
       <c r="H64" s="29"/>
       <c r="I64" s="23"/>
@@ -11225,645 +11371,869 @@
       <c r="AI64" s="49"/>
       <c r="AJ64" s="49"/>
     </row>
-    <row r="65" s="7" customFormat="1" ht="115.5" spans="1:36">
-      <c r="A65" s="19"/>
-      <c r="B65" s="50" t="s">
+    <row r="65" s="6" customFormat="1" ht="80" customHeight="1" spans="1:36">
+      <c r="A65" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="B65" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="C65" s="30" t="s">
+        <v>277</v>
+      </c>
+      <c r="D65" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="E65" s="30" t="s">
+        <v>278</v>
+      </c>
+      <c r="F65" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="G65" s="23"/>
+      <c r="H65" s="29"/>
+      <c r="I65" s="23"/>
+      <c r="J65" s="44"/>
+      <c r="K65" s="44"/>
+      <c r="L65" s="45"/>
+      <c r="M65" s="46"/>
+      <c r="N65" s="45"/>
+      <c r="O65" s="45"/>
+      <c r="P65" s="45"/>
+      <c r="Q65" s="45"/>
+      <c r="R65" s="45"/>
+      <c r="S65" s="45"/>
+      <c r="T65" s="45"/>
+      <c r="U65" s="45"/>
+      <c r="V65" s="45"/>
+      <c r="W65" s="45"/>
+      <c r="X65" s="45"/>
+      <c r="Y65" s="45"/>
+      <c r="Z65" s="45"/>
+      <c r="AA65" s="45"/>
+      <c r="AB65" s="49"/>
+      <c r="AC65" s="49"/>
+      <c r="AD65" s="49"/>
+      <c r="AE65" s="49"/>
+      <c r="AF65" s="49"/>
+      <c r="AG65" s="49"/>
+      <c r="AH65" s="49"/>
+      <c r="AI65" s="49"/>
+      <c r="AJ65" s="49"/>
+    </row>
+    <row r="66" s="6" customFormat="1" ht="80" customHeight="1" spans="1:36">
+      <c r="A66" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="B66" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="C66" s="30" t="s">
+        <v>277</v>
+      </c>
+      <c r="D66" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="E66" s="30" t="s">
+        <v>278</v>
+      </c>
+      <c r="F66" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="G66" s="23"/>
+      <c r="H66" s="29"/>
+      <c r="I66" s="23"/>
+      <c r="J66" s="44"/>
+      <c r="K66" s="44"/>
+      <c r="L66" s="45"/>
+      <c r="M66" s="46"/>
+      <c r="N66" s="45"/>
+      <c r="O66" s="45"/>
+      <c r="P66" s="45"/>
+      <c r="Q66" s="45"/>
+      <c r="R66" s="45"/>
+      <c r="S66" s="45"/>
+      <c r="T66" s="45"/>
+      <c r="U66" s="45"/>
+      <c r="V66" s="45"/>
+      <c r="W66" s="45"/>
+      <c r="X66" s="45"/>
+      <c r="Y66" s="45"/>
+      <c r="Z66" s="45"/>
+      <c r="AA66" s="45"/>
+      <c r="AB66" s="49"/>
+      <c r="AC66" s="49"/>
+      <c r="AD66" s="49"/>
+      <c r="AE66" s="49"/>
+      <c r="AF66" s="49"/>
+      <c r="AG66" s="49"/>
+      <c r="AH66" s="49"/>
+      <c r="AI66" s="49"/>
+      <c r="AJ66" s="49"/>
+    </row>
+    <row r="67" s="6" customFormat="1" ht="80" customHeight="1" spans="1:36">
+      <c r="A67" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="B67" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="C67" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="D67" s="30" t="s">
+        <v>289</v>
+      </c>
+      <c r="E67" s="30" t="s">
+        <v>290</v>
+      </c>
+      <c r="F67" s="30" t="s">
+        <v>291</v>
+      </c>
+      <c r="G67" s="23"/>
+      <c r="H67" s="29"/>
+      <c r="I67" s="23"/>
+      <c r="J67" s="44"/>
+      <c r="K67" s="44"/>
+      <c r="L67" s="45"/>
+      <c r="M67" s="46"/>
+      <c r="N67" s="45"/>
+      <c r="O67" s="45"/>
+      <c r="P67" s="45"/>
+      <c r="Q67" s="45"/>
+      <c r="R67" s="45"/>
+      <c r="S67" s="45"/>
+      <c r="T67" s="45"/>
+      <c r="U67" s="45"/>
+      <c r="V67" s="45"/>
+      <c r="W67" s="45"/>
+      <c r="X67" s="45"/>
+      <c r="Y67" s="45"/>
+      <c r="Z67" s="45"/>
+      <c r="AA67" s="45"/>
+      <c r="AB67" s="49"/>
+      <c r="AC67" s="49"/>
+      <c r="AD67" s="49"/>
+      <c r="AE67" s="49"/>
+      <c r="AF67" s="49"/>
+      <c r="AG67" s="49"/>
+      <c r="AH67" s="49"/>
+      <c r="AI67" s="49"/>
+      <c r="AJ67" s="49"/>
+    </row>
+    <row r="68" s="6" customFormat="1" ht="80" customHeight="1" spans="1:36">
+      <c r="A68" s="19"/>
+      <c r="B68" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="C68" s="30" t="s">
+        <v>292</v>
+      </c>
+      <c r="D68" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="E68" s="30" t="s">
+        <v>293</v>
+      </c>
+      <c r="F68" s="30" t="s">
+        <v>294</v>
+      </c>
+      <c r="G68" s="23"/>
+      <c r="H68" s="29"/>
+      <c r="I68" s="23"/>
+      <c r="J68" s="44"/>
+      <c r="K68" s="44"/>
+      <c r="L68" s="45"/>
+      <c r="M68" s="46"/>
+      <c r="N68" s="45"/>
+      <c r="O68" s="45"/>
+      <c r="P68" s="45"/>
+      <c r="Q68" s="45"/>
+      <c r="R68" s="45"/>
+      <c r="S68" s="45"/>
+      <c r="T68" s="45"/>
+      <c r="U68" s="45"/>
+      <c r="V68" s="45"/>
+      <c r="W68" s="45"/>
+      <c r="X68" s="45"/>
+      <c r="Y68" s="45"/>
+      <c r="Z68" s="45"/>
+      <c r="AA68" s="45"/>
+      <c r="AB68" s="49"/>
+      <c r="AC68" s="49"/>
+      <c r="AD68" s="49"/>
+      <c r="AE68" s="49"/>
+      <c r="AF68" s="49"/>
+      <c r="AG68" s="49"/>
+      <c r="AH68" s="49"/>
+      <c r="AI68" s="49"/>
+      <c r="AJ68" s="49"/>
+    </row>
+    <row r="69" s="6" customFormat="1" ht="80" customHeight="1" spans="1:36">
+      <c r="A69" s="19"/>
+      <c r="B69" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="C69" s="30" t="s">
+        <v>292</v>
+      </c>
+      <c r="D69" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="E69" s="30" t="s">
+        <v>293</v>
+      </c>
+      <c r="F69" s="30" t="s">
+        <v>295</v>
+      </c>
+      <c r="G69" s="23"/>
+      <c r="H69" s="29"/>
+      <c r="I69" s="23"/>
+      <c r="J69" s="44"/>
+      <c r="K69" s="44"/>
+      <c r="L69" s="45"/>
+      <c r="M69" s="46"/>
+      <c r="N69" s="45"/>
+      <c r="O69" s="45"/>
+      <c r="P69" s="45"/>
+      <c r="Q69" s="45"/>
+      <c r="R69" s="45"/>
+      <c r="S69" s="45"/>
+      <c r="T69" s="45"/>
+      <c r="U69" s="45"/>
+      <c r="V69" s="45"/>
+      <c r="W69" s="45"/>
+      <c r="X69" s="45"/>
+      <c r="Y69" s="45"/>
+      <c r="Z69" s="45"/>
+      <c r="AA69" s="45"/>
+      <c r="AB69" s="49"/>
+      <c r="AC69" s="49"/>
+      <c r="AD69" s="49"/>
+      <c r="AE69" s="49"/>
+      <c r="AF69" s="49"/>
+      <c r="AG69" s="49"/>
+      <c r="AH69" s="49"/>
+      <c r="AI69" s="49"/>
+      <c r="AJ69" s="49"/>
+    </row>
+    <row r="70" s="6" customFormat="1" ht="80" customHeight="1" spans="1:36">
+      <c r="A70" s="19"/>
+      <c r="B70" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="C70" s="30" t="s">
+        <v>292</v>
+      </c>
+      <c r="D70" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="E70" s="30" t="s">
+        <v>293</v>
+      </c>
+      <c r="F70" s="30" t="s">
+        <v>296</v>
+      </c>
+      <c r="G70" s="23"/>
+      <c r="H70" s="29"/>
+      <c r="I70" s="23"/>
+      <c r="J70" s="44"/>
+      <c r="K70" s="44"/>
+      <c r="L70" s="45"/>
+      <c r="M70" s="46"/>
+      <c r="N70" s="45"/>
+      <c r="O70" s="45"/>
+      <c r="P70" s="45"/>
+      <c r="Q70" s="45"/>
+      <c r="R70" s="45"/>
+      <c r="S70" s="45"/>
+      <c r="T70" s="45"/>
+      <c r="U70" s="45"/>
+      <c r="V70" s="45"/>
+      <c r="W70" s="45"/>
+      <c r="X70" s="45"/>
+      <c r="Y70" s="45"/>
+      <c r="Z70" s="45"/>
+      <c r="AA70" s="45"/>
+      <c r="AB70" s="49"/>
+      <c r="AC70" s="49"/>
+      <c r="AD70" s="49"/>
+      <c r="AE70" s="49"/>
+      <c r="AF70" s="49"/>
+      <c r="AG70" s="49"/>
+      <c r="AH70" s="49"/>
+      <c r="AI70" s="49"/>
+      <c r="AJ70" s="49"/>
+    </row>
+    <row r="71" s="6" customFormat="1" ht="80" customHeight="1" spans="1:36">
+      <c r="A71" s="19"/>
+      <c r="B71" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="C71" s="30" t="s">
+        <v>292</v>
+      </c>
+      <c r="D71" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="E71" s="30" t="s">
+        <v>293</v>
+      </c>
+      <c r="F71" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="G71" s="23"/>
+      <c r="H71" s="29"/>
+      <c r="I71" s="23"/>
+      <c r="J71" s="44"/>
+      <c r="K71" s="44"/>
+      <c r="L71" s="45"/>
+      <c r="M71" s="46"/>
+      <c r="N71" s="45"/>
+      <c r="O71" s="45"/>
+      <c r="P71" s="45"/>
+      <c r="Q71" s="45"/>
+      <c r="R71" s="45"/>
+      <c r="S71" s="45"/>
+      <c r="T71" s="45"/>
+      <c r="U71" s="45"/>
+      <c r="V71" s="45"/>
+      <c r="W71" s="45"/>
+      <c r="X71" s="45"/>
+      <c r="Y71" s="45"/>
+      <c r="Z71" s="45"/>
+      <c r="AA71" s="45"/>
+      <c r="AB71" s="49"/>
+      <c r="AC71" s="49"/>
+      <c r="AD71" s="49"/>
+      <c r="AE71" s="49"/>
+      <c r="AF71" s="49"/>
+      <c r="AG71" s="49"/>
+      <c r="AH71" s="49"/>
+      <c r="AI71" s="49"/>
+      <c r="AJ71" s="49"/>
+    </row>
+    <row r="72" s="6" customFormat="1" ht="80" customHeight="1" spans="1:36">
+      <c r="A72" s="19"/>
+      <c r="B72" s="23" t="s">
+        <v>298</v>
+      </c>
+      <c r="C72" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="D72" s="26"/>
+      <c r="E72" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="F72" s="30" t="s">
+        <v>301</v>
+      </c>
+      <c r="G72" s="23"/>
+      <c r="H72" s="29"/>
+      <c r="I72" s="23"/>
+      <c r="J72" s="44"/>
+      <c r="K72" s="44"/>
+      <c r="L72" s="45"/>
+      <c r="M72" s="46"/>
+      <c r="N72" s="45"/>
+      <c r="O72" s="45"/>
+      <c r="P72" s="45"/>
+      <c r="Q72" s="45"/>
+      <c r="R72" s="45"/>
+      <c r="S72" s="45"/>
+      <c r="T72" s="45"/>
+      <c r="U72" s="45"/>
+      <c r="V72" s="45"/>
+      <c r="W72" s="45"/>
+      <c r="X72" s="45"/>
+      <c r="Y72" s="45"/>
+      <c r="Z72" s="45"/>
+      <c r="AA72" s="45"/>
+      <c r="AB72" s="49"/>
+      <c r="AC72" s="49"/>
+      <c r="AD72" s="49"/>
+      <c r="AE72" s="49"/>
+      <c r="AF72" s="49"/>
+      <c r="AG72" s="49"/>
+      <c r="AH72" s="49"/>
+      <c r="AI72" s="49"/>
+      <c r="AJ72" s="49"/>
+    </row>
+    <row r="73" s="6" customFormat="1" ht="80" customHeight="1" spans="1:36">
+      <c r="A73" s="19"/>
+      <c r="B73" s="23" t="s">
+        <v>298</v>
+      </c>
+      <c r="C73" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="D73" s="26"/>
+      <c r="E73" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="F73" s="30" t="s">
+        <v>302</v>
+      </c>
+      <c r="G73" s="23"/>
+      <c r="H73" s="29"/>
+      <c r="I73" s="23"/>
+      <c r="J73" s="44"/>
+      <c r="K73" s="44"/>
+      <c r="L73" s="45"/>
+      <c r="M73" s="46"/>
+      <c r="N73" s="45"/>
+      <c r="O73" s="45"/>
+      <c r="P73" s="45"/>
+      <c r="Q73" s="45"/>
+      <c r="R73" s="45"/>
+      <c r="S73" s="45"/>
+      <c r="T73" s="45"/>
+      <c r="U73" s="45"/>
+      <c r="V73" s="45"/>
+      <c r="W73" s="45"/>
+      <c r="X73" s="45"/>
+      <c r="Y73" s="45"/>
+      <c r="Z73" s="45"/>
+      <c r="AA73" s="45"/>
+      <c r="AB73" s="49"/>
+      <c r="AC73" s="49"/>
+      <c r="AD73" s="49"/>
+      <c r="AE73" s="49"/>
+      <c r="AF73" s="49"/>
+      <c r="AG73" s="49"/>
+      <c r="AH73" s="49"/>
+      <c r="AI73" s="49"/>
+      <c r="AJ73" s="49"/>
+    </row>
+    <row r="74" s="6" customFormat="1" ht="80" customHeight="1" spans="1:36">
+      <c r="A74" s="19"/>
+      <c r="B74" s="23"/>
+      <c r="C74" s="30"/>
+      <c r="D74" s="26"/>
+      <c r="E74" s="30"/>
+      <c r="F74" s="30"/>
+      <c r="G74" s="23"/>
+      <c r="H74" s="29"/>
+      <c r="I74" s="23"/>
+      <c r="J74" s="44"/>
+      <c r="K74" s="44"/>
+      <c r="L74" s="45"/>
+      <c r="M74" s="46"/>
+      <c r="N74" s="45"/>
+      <c r="O74" s="45"/>
+      <c r="P74" s="45"/>
+      <c r="Q74" s="45"/>
+      <c r="R74" s="45"/>
+      <c r="S74" s="45"/>
+      <c r="T74" s="45"/>
+      <c r="U74" s="45"/>
+      <c r="V74" s="45"/>
+      <c r="W74" s="45"/>
+      <c r="X74" s="45"/>
+      <c r="Y74" s="45"/>
+      <c r="Z74" s="45"/>
+      <c r="AA74" s="45"/>
+      <c r="AB74" s="49"/>
+      <c r="AC74" s="49"/>
+      <c r="AD74" s="49"/>
+      <c r="AE74" s="49"/>
+      <c r="AF74" s="49"/>
+      <c r="AG74" s="49"/>
+      <c r="AH74" s="49"/>
+      <c r="AI74" s="49"/>
+      <c r="AJ74" s="49"/>
+    </row>
+    <row r="75" s="6" customFormat="1" ht="80" customHeight="1" spans="1:36">
+      <c r="A75" s="19"/>
+      <c r="B75" s="23"/>
+      <c r="C75" s="30"/>
+      <c r="D75" s="30"/>
+      <c r="E75" s="30"/>
+      <c r="F75" s="30"/>
+      <c r="G75" s="23"/>
+      <c r="H75" s="29"/>
+      <c r="I75" s="23"/>
+      <c r="J75" s="44"/>
+      <c r="K75" s="44"/>
+      <c r="L75" s="45"/>
+      <c r="M75" s="46"/>
+      <c r="N75" s="45"/>
+      <c r="O75" s="45"/>
+      <c r="P75" s="45"/>
+      <c r="Q75" s="45"/>
+      <c r="R75" s="45"/>
+      <c r="S75" s="45"/>
+      <c r="T75" s="45"/>
+      <c r="U75" s="45"/>
+      <c r="V75" s="45"/>
+      <c r="W75" s="45"/>
+      <c r="X75" s="45"/>
+      <c r="Y75" s="45"/>
+      <c r="Z75" s="45"/>
+      <c r="AA75" s="45"/>
+      <c r="AB75" s="49"/>
+      <c r="AC75" s="49"/>
+      <c r="AD75" s="49"/>
+      <c r="AE75" s="49"/>
+      <c r="AF75" s="49"/>
+      <c r="AG75" s="49"/>
+      <c r="AH75" s="49"/>
+      <c r="AI75" s="49"/>
+      <c r="AJ75" s="49"/>
+    </row>
+    <row r="76" s="7" customFormat="1" ht="115.5" spans="1:36">
+      <c r="A76" s="19"/>
+      <c r="B76" s="50" t="s">
         <v>224</v>
       </c>
-      <c r="C65" s="50" t="s">
+      <c r="C76" s="50" t="s">
         <v>225</v>
       </c>
-      <c r="D65" s="50" t="s">
+      <c r="D76" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="E65" s="50" t="s">
+      <c r="E76" s="50" t="s">
         <v>226</v>
       </c>
-      <c r="F65" s="50" t="s">
-        <v>272</v>
-      </c>
-      <c r="G65" s="50" t="s">
-        <v>273</v>
-      </c>
-      <c r="H65" s="51"/>
-      <c r="I65" s="53"/>
-      <c r="J65" s="56"/>
-      <c r="K65" s="56"/>
-      <c r="L65" s="57"/>
-      <c r="M65" s="58"/>
-      <c r="N65" s="57"/>
-      <c r="O65" s="57"/>
-      <c r="P65" s="57"/>
-      <c r="Q65" s="57"/>
-      <c r="R65" s="57"/>
-      <c r="S65" s="57"/>
-      <c r="T65" s="57"/>
-      <c r="U65" s="57"/>
-      <c r="V65" s="57"/>
-      <c r="W65" s="57"/>
-      <c r="X65" s="57"/>
-      <c r="Y65" s="57"/>
-      <c r="Z65" s="57"/>
-      <c r="AA65" s="57"/>
-      <c r="AB65" s="62"/>
-      <c r="AC65" s="62"/>
-      <c r="AD65" s="62"/>
-      <c r="AE65" s="62"/>
-      <c r="AF65" s="62"/>
-      <c r="AG65" s="62"/>
-      <c r="AH65" s="62"/>
-      <c r="AI65" s="62"/>
-      <c r="AJ65" s="62"/>
-    </row>
-    <row r="66" s="7" customFormat="1" ht="16.5" spans="1:36">
-      <c r="A66" s="52"/>
-      <c r="B66" s="23"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="18"/>
-      <c r="G66" s="53"/>
-      <c r="H66" s="54"/>
-      <c r="I66" s="53"/>
-      <c r="J66" s="56"/>
-      <c r="K66" s="56"/>
-      <c r="L66" s="57"/>
-      <c r="M66" s="58"/>
-      <c r="N66" s="57"/>
-      <c r="O66" s="57"/>
-      <c r="P66" s="57"/>
-      <c r="Q66" s="57"/>
-      <c r="R66" s="57"/>
-      <c r="S66" s="57"/>
-      <c r="T66" s="57"/>
-      <c r="U66" s="57"/>
-      <c r="V66" s="57"/>
-      <c r="W66" s="57"/>
-      <c r="X66" s="57"/>
-      <c r="Y66" s="57"/>
-      <c r="Z66" s="57"/>
-      <c r="AA66" s="57"/>
-      <c r="AB66" s="62"/>
-      <c r="AC66" s="62"/>
-      <c r="AD66" s="62"/>
-      <c r="AE66" s="62"/>
-      <c r="AF66" s="62"/>
-      <c r="AG66" s="62"/>
-      <c r="AH66" s="62"/>
-      <c r="AI66" s="62"/>
-      <c r="AJ66" s="62"/>
-    </row>
-    <row r="67" s="7" customFormat="1" ht="16.5" spans="1:36">
-      <c r="A67" s="52"/>
-      <c r="B67" s="23"/>
-      <c r="C67" s="53"/>
-      <c r="D67" s="53"/>
-      <c r="E67" s="53"/>
-      <c r="F67" s="53"/>
-      <c r="G67" s="53"/>
-      <c r="H67" s="54"/>
-      <c r="I67" s="53"/>
-      <c r="J67" s="56"/>
-      <c r="K67" s="56"/>
-      <c r="L67" s="57"/>
-      <c r="M67" s="59"/>
-      <c r="N67" s="53"/>
-      <c r="O67" s="53"/>
-      <c r="P67" s="53"/>
-      <c r="Q67" s="53"/>
-      <c r="R67" s="53"/>
-      <c r="S67" s="53"/>
-      <c r="T67" s="53"/>
-      <c r="U67" s="53"/>
-      <c r="V67" s="53"/>
-      <c r="W67" s="53"/>
-      <c r="X67" s="53"/>
-      <c r="Y67" s="53"/>
-      <c r="Z67" s="53"/>
-      <c r="AA67" s="53"/>
-      <c r="AB67" s="62"/>
-      <c r="AC67" s="62"/>
-      <c r="AD67" s="62"/>
-      <c r="AE67" s="62"/>
-      <c r="AF67" s="62"/>
-      <c r="AG67" s="62"/>
-      <c r="AH67" s="62"/>
-      <c r="AI67" s="62"/>
-      <c r="AJ67" s="62"/>
-    </row>
-    <row r="68" s="8" customFormat="1" ht="16.5" spans="1:36">
-      <c r="A68" s="55"/>
-      <c r="B68" s="23"/>
-      <c r="C68" s="50"/>
-      <c r="D68" s="50"/>
-      <c r="E68" s="50"/>
-      <c r="F68" s="50"/>
-      <c r="G68" s="50"/>
-      <c r="H68" s="51"/>
-      <c r="I68" s="50"/>
-      <c r="J68" s="60"/>
-      <c r="K68" s="60"/>
-      <c r="L68" s="50"/>
-      <c r="M68" s="61"/>
-      <c r="N68" s="50"/>
-      <c r="O68" s="50"/>
-      <c r="P68" s="50"/>
-      <c r="Q68" s="50"/>
-      <c r="R68" s="50"/>
-      <c r="S68" s="50"/>
-      <c r="T68" s="50"/>
-      <c r="U68" s="50"/>
-      <c r="V68" s="50"/>
-      <c r="W68" s="50"/>
-      <c r="X68" s="50"/>
-      <c r="Y68" s="50"/>
-      <c r="Z68" s="50"/>
-      <c r="AA68" s="50"/>
-      <c r="AB68" s="63"/>
-      <c r="AC68" s="63"/>
-      <c r="AD68" s="63"/>
-      <c r="AE68" s="63"/>
-      <c r="AF68" s="63"/>
-      <c r="AG68" s="63"/>
-      <c r="AH68" s="63"/>
-      <c r="AI68" s="63"/>
-      <c r="AJ68" s="63"/>
-    </row>
-    <row r="69" s="8" customFormat="1" ht="16.5" spans="1:36">
-      <c r="A69" s="55"/>
-      <c r="B69" s="23"/>
-      <c r="C69" s="50"/>
-      <c r="D69" s="50"/>
-      <c r="E69" s="50"/>
-      <c r="F69" s="50"/>
-      <c r="G69" s="50"/>
-      <c r="H69" s="51"/>
-      <c r="I69" s="50"/>
-      <c r="J69" s="60"/>
-      <c r="K69" s="60"/>
-      <c r="L69" s="50"/>
-      <c r="M69" s="61"/>
-      <c r="N69" s="50"/>
-      <c r="O69" s="50"/>
-      <c r="P69" s="50"/>
-      <c r="Q69" s="50"/>
-      <c r="R69" s="50"/>
-      <c r="S69" s="50"/>
-      <c r="T69" s="50"/>
-      <c r="U69" s="50"/>
-      <c r="V69" s="50"/>
-      <c r="W69" s="50"/>
-      <c r="X69" s="50"/>
-      <c r="Y69" s="50"/>
-      <c r="Z69" s="50"/>
-      <c r="AA69" s="50"/>
-      <c r="AB69" s="63"/>
-      <c r="AC69" s="63"/>
-      <c r="AD69" s="63"/>
-      <c r="AE69" s="63"/>
-      <c r="AF69" s="63"/>
-      <c r="AG69" s="63"/>
-      <c r="AH69" s="63"/>
-      <c r="AI69" s="63"/>
-      <c r="AJ69" s="63"/>
-    </row>
-    <row r="70" s="8" customFormat="1" ht="16.5" spans="1:36">
-      <c r="A70" s="55"/>
-      <c r="B70" s="23"/>
-      <c r="C70" s="50"/>
-      <c r="D70" s="50"/>
-      <c r="E70" s="50"/>
-      <c r="F70" s="50"/>
-      <c r="G70" s="50"/>
-      <c r="H70" s="51"/>
-      <c r="I70" s="50"/>
-      <c r="J70" s="60"/>
-      <c r="K70" s="60"/>
-      <c r="L70" s="50"/>
-      <c r="M70" s="61"/>
-      <c r="N70" s="50"/>
-      <c r="O70" s="50"/>
-      <c r="P70" s="50"/>
-      <c r="Q70" s="50"/>
-      <c r="R70" s="50"/>
-      <c r="S70" s="50"/>
-      <c r="T70" s="50"/>
-      <c r="U70" s="50"/>
-      <c r="V70" s="50"/>
-      <c r="W70" s="50"/>
-      <c r="X70" s="50"/>
-      <c r="Y70" s="50"/>
-      <c r="Z70" s="50"/>
-      <c r="AA70" s="50"/>
-      <c r="AB70" s="63"/>
-      <c r="AC70" s="63"/>
-      <c r="AD70" s="63"/>
-      <c r="AE70" s="63"/>
-      <c r="AF70" s="63"/>
-      <c r="AG70" s="63"/>
-      <c r="AH70" s="63"/>
-      <c r="AI70" s="63"/>
-      <c r="AJ70" s="63"/>
-    </row>
-    <row r="71" s="8" customFormat="1" ht="16.5" spans="1:36">
-      <c r="A71" s="55"/>
-      <c r="B71" s="23"/>
-      <c r="C71" s="50"/>
-      <c r="D71" s="50"/>
-      <c r="E71" s="50"/>
-      <c r="F71" s="50"/>
-      <c r="G71" s="50"/>
-      <c r="H71" s="51"/>
-      <c r="I71" s="50"/>
-      <c r="J71" s="60"/>
-      <c r="K71" s="60"/>
-      <c r="L71" s="50"/>
-      <c r="M71" s="61"/>
-      <c r="N71" s="50"/>
-      <c r="O71" s="50"/>
-      <c r="P71" s="50"/>
-      <c r="Q71" s="50"/>
-      <c r="R71" s="50"/>
-      <c r="S71" s="50"/>
-      <c r="T71" s="50"/>
-      <c r="U71" s="50"/>
-      <c r="V71" s="50"/>
-      <c r="W71" s="50"/>
-      <c r="X71" s="50"/>
-      <c r="Y71" s="50"/>
-      <c r="Z71" s="50"/>
-      <c r="AA71" s="50"/>
-      <c r="AB71" s="63"/>
-      <c r="AC71" s="63"/>
-      <c r="AD71" s="63"/>
-      <c r="AE71" s="63"/>
-      <c r="AF71" s="63"/>
-      <c r="AG71" s="63"/>
-      <c r="AH71" s="63"/>
-      <c r="AI71" s="63"/>
-      <c r="AJ71" s="63"/>
-    </row>
-    <row r="72" s="8" customFormat="1" ht="16.5" spans="1:36">
-      <c r="A72" s="55"/>
-      <c r="B72" s="23"/>
-      <c r="C72" s="50"/>
-      <c r="D72" s="50"/>
-      <c r="E72" s="50"/>
-      <c r="F72" s="50"/>
-      <c r="G72" s="50"/>
-      <c r="H72" s="51"/>
-      <c r="I72" s="50"/>
-      <c r="J72" s="60"/>
-      <c r="K72" s="60"/>
-      <c r="L72" s="50"/>
-      <c r="M72" s="61"/>
-      <c r="N72" s="50"/>
-      <c r="O72" s="50"/>
-      <c r="P72" s="50"/>
-      <c r="Q72" s="50"/>
-      <c r="R72" s="50"/>
-      <c r="S72" s="50"/>
-      <c r="T72" s="50"/>
-      <c r="U72" s="50"/>
-      <c r="V72" s="50"/>
-      <c r="W72" s="50"/>
-      <c r="X72" s="50"/>
-      <c r="Y72" s="50"/>
-      <c r="Z72" s="50"/>
-      <c r="AA72" s="50"/>
-      <c r="AB72" s="63"/>
-      <c r="AC72" s="63"/>
-      <c r="AD72" s="63"/>
-      <c r="AE72" s="63"/>
-      <c r="AF72" s="63"/>
-      <c r="AG72" s="63"/>
-      <c r="AH72" s="63"/>
-      <c r="AI72" s="63"/>
-      <c r="AJ72" s="63"/>
-    </row>
-    <row r="73" s="8" customFormat="1" ht="16.5" spans="1:36">
-      <c r="A73" s="55"/>
-      <c r="B73" s="23"/>
-      <c r="C73" s="50"/>
-      <c r="D73" s="50"/>
-      <c r="E73" s="50"/>
-      <c r="F73" s="50"/>
-      <c r="G73" s="50"/>
-      <c r="H73" s="51"/>
-      <c r="I73" s="50"/>
-      <c r="J73" s="60"/>
-      <c r="K73" s="60"/>
-      <c r="L73" s="50"/>
-      <c r="M73" s="61"/>
-      <c r="N73" s="50"/>
-      <c r="O73" s="50"/>
-      <c r="P73" s="50"/>
-      <c r="Q73" s="50"/>
-      <c r="R73" s="50"/>
-      <c r="S73" s="50"/>
-      <c r="T73" s="50"/>
-      <c r="U73" s="50"/>
-      <c r="V73" s="50"/>
-      <c r="W73" s="50"/>
-      <c r="X73" s="50"/>
-      <c r="Y73" s="50"/>
-      <c r="Z73" s="50"/>
-      <c r="AA73" s="50"/>
-      <c r="AB73" s="63"/>
-      <c r="AC73" s="63"/>
-      <c r="AD73" s="63"/>
-      <c r="AE73" s="63"/>
-      <c r="AF73" s="63"/>
-      <c r="AG73" s="63"/>
-      <c r="AH73" s="63"/>
-      <c r="AI73" s="63"/>
-      <c r="AJ73" s="63"/>
-    </row>
-    <row r="74" ht="16.5" spans="1:24">
-      <c r="A74" s="28"/>
-      <c r="B74" s="25"/>
-      <c r="C74" s="26"/>
-      <c r="D74" s="26"/>
-      <c r="E74" s="26"/>
-      <c r="F74" s="26"/>
-      <c r="G74" s="26"/>
-      <c r="H74" s="27"/>
-      <c r="I74" s="39"/>
-      <c r="J74" s="32"/>
-      <c r="K74" s="26"/>
-      <c r="L74" s="26"/>
-      <c r="M74" s="26"/>
-      <c r="N74" s="26"/>
-      <c r="O74" s="26"/>
-      <c r="P74" s="26"/>
-      <c r="Q74" s="26"/>
-      <c r="R74" s="26"/>
-      <c r="S74" s="26"/>
-      <c r="T74" s="26"/>
-      <c r="U74" s="26"/>
-      <c r="V74" s="26"/>
-      <c r="W74" s="26"/>
-      <c r="X74" s="26"/>
-    </row>
-    <row r="75" ht="16.5" spans="1:24">
-      <c r="A75" s="28"/>
-      <c r="B75" s="25"/>
-      <c r="C75" s="26"/>
-      <c r="D75" s="26"/>
-      <c r="E75" s="26"/>
-      <c r="F75" s="26"/>
-      <c r="G75" s="26"/>
-      <c r="H75" s="27"/>
-      <c r="I75" s="39"/>
-      <c r="J75" s="32"/>
-      <c r="K75" s="26"/>
-      <c r="L75" s="26"/>
-      <c r="M75" s="26"/>
-      <c r="N75" s="26"/>
-      <c r="O75" s="26"/>
-      <c r="P75" s="26"/>
-      <c r="Q75" s="26"/>
-      <c r="R75" s="26"/>
-      <c r="S75" s="26"/>
-      <c r="T75" s="26"/>
-      <c r="U75" s="26"/>
-      <c r="V75" s="26"/>
-      <c r="W75" s="26"/>
-      <c r="X75" s="26"/>
-    </row>
-    <row r="76" ht="16.5" spans="1:24">
-      <c r="A76" s="28"/>
-      <c r="B76" s="25"/>
-      <c r="C76" s="26"/>
-      <c r="D76" s="26"/>
-      <c r="E76" s="26"/>
-      <c r="F76" s="26"/>
-      <c r="G76" s="26"/>
-      <c r="H76" s="27"/>
-      <c r="I76" s="39"/>
-      <c r="J76" s="32"/>
-      <c r="K76" s="26"/>
-      <c r="L76" s="26"/>
-      <c r="M76" s="26"/>
-      <c r="N76" s="26"/>
-      <c r="O76" s="26"/>
-      <c r="P76" s="26"/>
-      <c r="Q76" s="26"/>
-      <c r="R76" s="26"/>
-      <c r="S76" s="26"/>
-      <c r="T76" s="26"/>
-      <c r="U76" s="26"/>
-      <c r="V76" s="26"/>
-      <c r="W76" s="26"/>
-      <c r="X76" s="26"/>
-    </row>
-    <row r="77" ht="16.5" spans="1:24">
-      <c r="A77" s="28"/>
-      <c r="B77" s="25"/>
-      <c r="C77" s="26"/>
-      <c r="D77" s="26"/>
-      <c r="E77" s="26"/>
-      <c r="F77" s="26"/>
-      <c r="G77" s="26"/>
-      <c r="H77" s="27"/>
-      <c r="I77" s="39"/>
-      <c r="J77" s="32"/>
-      <c r="K77" s="26"/>
-      <c r="L77" s="26"/>
-      <c r="M77" s="26"/>
-      <c r="N77" s="26"/>
-      <c r="O77" s="26"/>
-      <c r="P77" s="26"/>
-      <c r="Q77" s="26"/>
-      <c r="R77" s="26"/>
-      <c r="S77" s="26"/>
-      <c r="T77" s="26"/>
-      <c r="U77" s="26"/>
-      <c r="V77" s="26"/>
-      <c r="W77" s="26"/>
-      <c r="X77" s="26"/>
-    </row>
-    <row r="78" ht="16.5" spans="1:24">
-      <c r="A78" s="28"/>
-      <c r="B78" s="25"/>
-      <c r="C78" s="26"/>
-      <c r="D78" s="26"/>
-      <c r="E78" s="26"/>
-      <c r="F78" s="26"/>
-      <c r="G78" s="26"/>
-      <c r="H78" s="27"/>
-      <c r="I78" s="39"/>
-      <c r="J78" s="32"/>
-      <c r="K78" s="26"/>
-      <c r="L78" s="26"/>
-      <c r="M78" s="26"/>
-      <c r="N78" s="26"/>
-      <c r="O78" s="26"/>
-      <c r="P78" s="26"/>
-      <c r="Q78" s="26"/>
-      <c r="R78" s="26"/>
-      <c r="S78" s="26"/>
-      <c r="T78" s="26"/>
-      <c r="U78" s="26"/>
-      <c r="V78" s="26"/>
-      <c r="W78" s="26"/>
-      <c r="X78" s="26"/>
-    </row>
-    <row r="79" ht="16.5" spans="1:24">
-      <c r="A79" s="28"/>
-      <c r="B79" s="25"/>
-      <c r="C79" s="26"/>
-      <c r="D79" s="26"/>
-      <c r="E79" s="26"/>
-      <c r="F79" s="26"/>
-      <c r="G79" s="26"/>
-      <c r="H79" s="27"/>
-      <c r="I79" s="39"/>
-      <c r="J79" s="32"/>
-      <c r="K79" s="26"/>
-      <c r="L79" s="26"/>
-      <c r="M79" s="26"/>
-      <c r="N79" s="26"/>
-      <c r="O79" s="26"/>
-      <c r="P79" s="26"/>
-      <c r="Q79" s="26"/>
-      <c r="R79" s="26"/>
-      <c r="S79" s="26"/>
-      <c r="T79" s="26"/>
-      <c r="U79" s="26"/>
-      <c r="V79" s="26"/>
-      <c r="W79" s="26"/>
-      <c r="X79" s="26"/>
-    </row>
-    <row r="80" ht="16.5" spans="1:24">
-      <c r="A80" s="28"/>
-      <c r="B80" s="25"/>
-      <c r="C80" s="26"/>
-      <c r="D80" s="26"/>
-      <c r="E80" s="26"/>
-      <c r="F80" s="26"/>
-      <c r="G80" s="26"/>
-      <c r="H80" s="27"/>
-      <c r="I80" s="39"/>
-      <c r="J80" s="32"/>
-      <c r="K80" s="26"/>
-      <c r="L80" s="26"/>
-      <c r="M80" s="26"/>
-      <c r="N80" s="26"/>
-      <c r="O80" s="26"/>
-      <c r="P80" s="26"/>
-      <c r="Q80" s="26"/>
-      <c r="R80" s="26"/>
-      <c r="S80" s="26"/>
-      <c r="T80" s="26"/>
-      <c r="U80" s="26"/>
-      <c r="V80" s="26"/>
-      <c r="W80" s="26"/>
-      <c r="X80" s="26"/>
-    </row>
-    <row r="81" ht="16.5" spans="1:24">
-      <c r="A81" s="28"/>
-      <c r="B81" s="25"/>
-      <c r="C81" s="26"/>
-      <c r="D81" s="26"/>
-      <c r="E81" s="26"/>
-      <c r="F81" s="26"/>
-      <c r="G81" s="26"/>
-      <c r="H81" s="27"/>
-      <c r="I81" s="39"/>
-      <c r="J81" s="32"/>
-      <c r="K81" s="26"/>
-      <c r="L81" s="26"/>
-      <c r="M81" s="26"/>
-      <c r="N81" s="26"/>
-      <c r="O81" s="26"/>
-      <c r="P81" s="26"/>
-      <c r="Q81" s="26"/>
-      <c r="R81" s="26"/>
-      <c r="S81" s="26"/>
-      <c r="T81" s="26"/>
-      <c r="U81" s="26"/>
-      <c r="V81" s="26"/>
-      <c r="W81" s="26"/>
-      <c r="X81" s="26"/>
-    </row>
-    <row r="82" ht="16.5" spans="1:24">
-      <c r="A82" s="28"/>
-      <c r="B82" s="25"/>
-      <c r="C82" s="26"/>
-      <c r="D82" s="26"/>
-      <c r="E82" s="26"/>
-      <c r="F82" s="26"/>
-      <c r="G82" s="26"/>
-      <c r="H82" s="27"/>
-      <c r="I82" s="39"/>
-      <c r="J82" s="32"/>
-      <c r="K82" s="26"/>
-      <c r="L82" s="26"/>
-      <c r="M82" s="26"/>
-      <c r="N82" s="26"/>
-      <c r="O82" s="26"/>
-      <c r="P82" s="26"/>
-      <c r="Q82" s="26"/>
-      <c r="R82" s="26"/>
-      <c r="S82" s="26"/>
-      <c r="T82" s="26"/>
-      <c r="U82" s="26"/>
-      <c r="V82" s="26"/>
-      <c r="W82" s="26"/>
-      <c r="X82" s="26"/>
-    </row>
-    <row r="83" ht="16.5" spans="1:24">
-      <c r="A83" s="28"/>
-      <c r="B83" s="25"/>
-      <c r="C83" s="26"/>
-      <c r="D83" s="26"/>
-      <c r="E83" s="26"/>
-      <c r="F83" s="26"/>
-      <c r="G83" s="26"/>
-      <c r="H83" s="27"/>
-      <c r="I83" s="39"/>
-      <c r="J83" s="32"/>
-      <c r="K83" s="26"/>
-      <c r="L83" s="26"/>
-      <c r="M83" s="26"/>
-      <c r="N83" s="26"/>
-      <c r="O83" s="26"/>
-      <c r="P83" s="26"/>
-      <c r="Q83" s="26"/>
-      <c r="R83" s="26"/>
-      <c r="S83" s="26"/>
-      <c r="T83" s="26"/>
-      <c r="U83" s="26"/>
-      <c r="V83" s="26"/>
-      <c r="W83" s="26"/>
-      <c r="X83" s="26"/>
-    </row>
-    <row r="84" ht="16.5" spans="1:24">
-      <c r="A84" s="28"/>
-      <c r="B84" s="25"/>
-      <c r="C84" s="26"/>
-      <c r="D84" s="26"/>
-      <c r="E84" s="26"/>
-      <c r="F84" s="26"/>
-      <c r="G84" s="26"/>
-      <c r="H84" s="27"/>
-      <c r="I84" s="39"/>
-      <c r="J84" s="32"/>
-      <c r="K84" s="26"/>
-      <c r="L84" s="26"/>
-      <c r="M84" s="26"/>
-      <c r="N84" s="26"/>
-      <c r="O84" s="26"/>
-      <c r="P84" s="26"/>
-      <c r="Q84" s="26"/>
-      <c r="R84" s="26"/>
-      <c r="S84" s="26"/>
-      <c r="T84" s="26"/>
-      <c r="U84" s="26"/>
-      <c r="V84" s="26"/>
-      <c r="W84" s="26"/>
-      <c r="X84" s="26"/>
+      <c r="F76" s="50" t="s">
+        <v>303</v>
+      </c>
+      <c r="G76" s="50" t="s">
+        <v>304</v>
+      </c>
+      <c r="H76" s="51"/>
+      <c r="I76" s="53"/>
+      <c r="J76" s="56"/>
+      <c r="K76" s="56"/>
+      <c r="L76" s="57"/>
+      <c r="M76" s="58"/>
+      <c r="N76" s="57"/>
+      <c r="O76" s="57"/>
+      <c r="P76" s="57"/>
+      <c r="Q76" s="57"/>
+      <c r="R76" s="57"/>
+      <c r="S76" s="57"/>
+      <c r="T76" s="57"/>
+      <c r="U76" s="57"/>
+      <c r="V76" s="57"/>
+      <c r="W76" s="57"/>
+      <c r="X76" s="57"/>
+      <c r="Y76" s="57"/>
+      <c r="Z76" s="57"/>
+      <c r="AA76" s="57"/>
+      <c r="AB76" s="62"/>
+      <c r="AC76" s="62"/>
+      <c r="AD76" s="62"/>
+      <c r="AE76" s="62"/>
+      <c r="AF76" s="62"/>
+      <c r="AG76" s="62"/>
+      <c r="AH76" s="62"/>
+      <c r="AI76" s="62"/>
+      <c r="AJ76" s="62"/>
+    </row>
+    <row r="77" s="7" customFormat="1" ht="16.5" spans="1:36">
+      <c r="A77" s="52"/>
+      <c r="B77" s="23"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="18"/>
+      <c r="G77" s="53"/>
+      <c r="H77" s="54"/>
+      <c r="I77" s="53"/>
+      <c r="J77" s="56"/>
+      <c r="K77" s="56"/>
+      <c r="L77" s="57"/>
+      <c r="M77" s="58"/>
+      <c r="N77" s="57"/>
+      <c r="O77" s="57"/>
+      <c r="P77" s="57"/>
+      <c r="Q77" s="57"/>
+      <c r="R77" s="57"/>
+      <c r="S77" s="57"/>
+      <c r="T77" s="57"/>
+      <c r="U77" s="57"/>
+      <c r="V77" s="57"/>
+      <c r="W77" s="57"/>
+      <c r="X77" s="57"/>
+      <c r="Y77" s="57"/>
+      <c r="Z77" s="57"/>
+      <c r="AA77" s="57"/>
+      <c r="AB77" s="62"/>
+      <c r="AC77" s="62"/>
+      <c r="AD77" s="62"/>
+      <c r="AE77" s="62"/>
+      <c r="AF77" s="62"/>
+      <c r="AG77" s="62"/>
+      <c r="AH77" s="62"/>
+      <c r="AI77" s="62"/>
+      <c r="AJ77" s="62"/>
+    </row>
+    <row r="78" s="7" customFormat="1" ht="16.5" spans="1:36">
+      <c r="A78" s="52"/>
+      <c r="B78" s="23"/>
+      <c r="C78" s="53"/>
+      <c r="D78" s="53"/>
+      <c r="E78" s="53"/>
+      <c r="F78" s="53"/>
+      <c r="G78" s="53"/>
+      <c r="H78" s="54"/>
+      <c r="I78" s="53"/>
+      <c r="J78" s="56"/>
+      <c r="K78" s="56"/>
+      <c r="L78" s="57"/>
+      <c r="M78" s="59"/>
+      <c r="N78" s="53"/>
+      <c r="O78" s="53"/>
+      <c r="P78" s="53"/>
+      <c r="Q78" s="53"/>
+      <c r="R78" s="53"/>
+      <c r="S78" s="53"/>
+      <c r="T78" s="53"/>
+      <c r="U78" s="53"/>
+      <c r="V78" s="53"/>
+      <c r="W78" s="53"/>
+      <c r="X78" s="53"/>
+      <c r="Y78" s="53"/>
+      <c r="Z78" s="53"/>
+      <c r="AA78" s="53"/>
+      <c r="AB78" s="62"/>
+      <c r="AC78" s="62"/>
+      <c r="AD78" s="62"/>
+      <c r="AE78" s="62"/>
+      <c r="AF78" s="62"/>
+      <c r="AG78" s="62"/>
+      <c r="AH78" s="62"/>
+      <c r="AI78" s="62"/>
+      <c r="AJ78" s="62"/>
+    </row>
+    <row r="79" s="8" customFormat="1" ht="16.5" spans="1:36">
+      <c r="A79" s="55"/>
+      <c r="B79" s="23"/>
+      <c r="C79" s="50"/>
+      <c r="D79" s="50"/>
+      <c r="E79" s="50"/>
+      <c r="F79" s="50"/>
+      <c r="G79" s="50"/>
+      <c r="H79" s="51"/>
+      <c r="I79" s="50"/>
+      <c r="J79" s="60"/>
+      <c r="K79" s="60"/>
+      <c r="L79" s="50"/>
+      <c r="M79" s="61"/>
+      <c r="N79" s="50"/>
+      <c r="O79" s="50"/>
+      <c r="P79" s="50"/>
+      <c r="Q79" s="50"/>
+      <c r="R79" s="50"/>
+      <c r="S79" s="50"/>
+      <c r="T79" s="50"/>
+      <c r="U79" s="50"/>
+      <c r="V79" s="50"/>
+      <c r="W79" s="50"/>
+      <c r="X79" s="50"/>
+      <c r="Y79" s="50"/>
+      <c r="Z79" s="50"/>
+      <c r="AA79" s="50"/>
+      <c r="AB79" s="63"/>
+      <c r="AC79" s="63"/>
+      <c r="AD79" s="63"/>
+      <c r="AE79" s="63"/>
+      <c r="AF79" s="63"/>
+      <c r="AG79" s="63"/>
+      <c r="AH79" s="63"/>
+      <c r="AI79" s="63"/>
+      <c r="AJ79" s="63"/>
+    </row>
+    <row r="80" s="8" customFormat="1" ht="16.5" spans="1:36">
+      <c r="A80" s="55"/>
+      <c r="B80" s="23"/>
+      <c r="C80" s="50"/>
+      <c r="D80" s="50"/>
+      <c r="E80" s="50"/>
+      <c r="F80" s="50"/>
+      <c r="G80" s="50"/>
+      <c r="H80" s="51"/>
+      <c r="I80" s="50"/>
+      <c r="J80" s="60"/>
+      <c r="K80" s="60"/>
+      <c r="L80" s="50"/>
+      <c r="M80" s="61"/>
+      <c r="N80" s="50"/>
+      <c r="O80" s="50"/>
+      <c r="P80" s="50"/>
+      <c r="Q80" s="50"/>
+      <c r="R80" s="50"/>
+      <c r="S80" s="50"/>
+      <c r="T80" s="50"/>
+      <c r="U80" s="50"/>
+      <c r="V80" s="50"/>
+      <c r="W80" s="50"/>
+      <c r="X80" s="50"/>
+      <c r="Y80" s="50"/>
+      <c r="Z80" s="50"/>
+      <c r="AA80" s="50"/>
+      <c r="AB80" s="63"/>
+      <c r="AC80" s="63"/>
+      <c r="AD80" s="63"/>
+      <c r="AE80" s="63"/>
+      <c r="AF80" s="63"/>
+      <c r="AG80" s="63"/>
+      <c r="AH80" s="63"/>
+      <c r="AI80" s="63"/>
+      <c r="AJ80" s="63"/>
+    </row>
+    <row r="81" s="8" customFormat="1" ht="16.5" spans="1:36">
+      <c r="A81" s="55"/>
+      <c r="B81" s="23"/>
+      <c r="C81" s="50"/>
+      <c r="D81" s="50"/>
+      <c r="E81" s="50"/>
+      <c r="F81" s="50"/>
+      <c r="G81" s="50"/>
+      <c r="H81" s="51"/>
+      <c r="I81" s="50"/>
+      <c r="J81" s="60"/>
+      <c r="K81" s="60"/>
+      <c r="L81" s="50"/>
+      <c r="M81" s="61"/>
+      <c r="N81" s="50"/>
+      <c r="O81" s="50"/>
+      <c r="P81" s="50"/>
+      <c r="Q81" s="50"/>
+      <c r="R81" s="50"/>
+      <c r="S81" s="50"/>
+      <c r="T81" s="50"/>
+      <c r="U81" s="50"/>
+      <c r="V81" s="50"/>
+      <c r="W81" s="50"/>
+      <c r="X81" s="50"/>
+      <c r="Y81" s="50"/>
+      <c r="Z81" s="50"/>
+      <c r="AA81" s="50"/>
+      <c r="AB81" s="63"/>
+      <c r="AC81" s="63"/>
+      <c r="AD81" s="63"/>
+      <c r="AE81" s="63"/>
+      <c r="AF81" s="63"/>
+      <c r="AG81" s="63"/>
+      <c r="AH81" s="63"/>
+      <c r="AI81" s="63"/>
+      <c r="AJ81" s="63"/>
+    </row>
+    <row r="82" s="8" customFormat="1" ht="16.5" spans="1:36">
+      <c r="A82" s="55"/>
+      <c r="B82" s="23"/>
+      <c r="C82" s="50"/>
+      <c r="D82" s="50"/>
+      <c r="E82" s="50"/>
+      <c r="F82" s="50"/>
+      <c r="G82" s="50"/>
+      <c r="H82" s="51"/>
+      <c r="I82" s="50"/>
+      <c r="J82" s="60"/>
+      <c r="K82" s="60"/>
+      <c r="L82" s="50"/>
+      <c r="M82" s="61"/>
+      <c r="N82" s="50"/>
+      <c r="O82" s="50"/>
+      <c r="P82" s="50"/>
+      <c r="Q82" s="50"/>
+      <c r="R82" s="50"/>
+      <c r="S82" s="50"/>
+      <c r="T82" s="50"/>
+      <c r="U82" s="50"/>
+      <c r="V82" s="50"/>
+      <c r="W82" s="50"/>
+      <c r="X82" s="50"/>
+      <c r="Y82" s="50"/>
+      <c r="Z82" s="50"/>
+      <c r="AA82" s="50"/>
+      <c r="AB82" s="63"/>
+      <c r="AC82" s="63"/>
+      <c r="AD82" s="63"/>
+      <c r="AE82" s="63"/>
+      <c r="AF82" s="63"/>
+      <c r="AG82" s="63"/>
+      <c r="AH82" s="63"/>
+      <c r="AI82" s="63"/>
+      <c r="AJ82" s="63"/>
+    </row>
+    <row r="83" s="8" customFormat="1" ht="16.5" spans="1:36">
+      <c r="A83" s="55"/>
+      <c r="B83" s="23"/>
+      <c r="C83" s="50"/>
+      <c r="D83" s="50"/>
+      <c r="E83" s="50"/>
+      <c r="F83" s="50"/>
+      <c r="G83" s="50"/>
+      <c r="H83" s="51"/>
+      <c r="I83" s="50"/>
+      <c r="J83" s="60"/>
+      <c r="K83" s="60"/>
+      <c r="L83" s="50"/>
+      <c r="M83" s="61"/>
+      <c r="N83" s="50"/>
+      <c r="O83" s="50"/>
+      <c r="P83" s="50"/>
+      <c r="Q83" s="50"/>
+      <c r="R83" s="50"/>
+      <c r="S83" s="50"/>
+      <c r="T83" s="50"/>
+      <c r="U83" s="50"/>
+      <c r="V83" s="50"/>
+      <c r="W83" s="50"/>
+      <c r="X83" s="50"/>
+      <c r="Y83" s="50"/>
+      <c r="Z83" s="50"/>
+      <c r="AA83" s="50"/>
+      <c r="AB83" s="63"/>
+      <c r="AC83" s="63"/>
+      <c r="AD83" s="63"/>
+      <c r="AE83" s="63"/>
+      <c r="AF83" s="63"/>
+      <c r="AG83" s="63"/>
+      <c r="AH83" s="63"/>
+      <c r="AI83" s="63"/>
+      <c r="AJ83" s="63"/>
+    </row>
+    <row r="84" s="8" customFormat="1" ht="16.5" spans="1:36">
+      <c r="A84" s="55"/>
+      <c r="B84" s="23"/>
+      <c r="C84" s="50"/>
+      <c r="D84" s="50"/>
+      <c r="E84" s="50"/>
+      <c r="F84" s="50"/>
+      <c r="G84" s="50"/>
+      <c r="H84" s="51"/>
+      <c r="I84" s="50"/>
+      <c r="J84" s="60"/>
+      <c r="K84" s="60"/>
+      <c r="L84" s="50"/>
+      <c r="M84" s="61"/>
+      <c r="N84" s="50"/>
+      <c r="O84" s="50"/>
+      <c r="P84" s="50"/>
+      <c r="Q84" s="50"/>
+      <c r="R84" s="50"/>
+      <c r="S84" s="50"/>
+      <c r="T84" s="50"/>
+      <c r="U84" s="50"/>
+      <c r="V84" s="50"/>
+      <c r="W84" s="50"/>
+      <c r="X84" s="50"/>
+      <c r="Y84" s="50"/>
+      <c r="Z84" s="50"/>
+      <c r="AA84" s="50"/>
+      <c r="AB84" s="63"/>
+      <c r="AC84" s="63"/>
+      <c r="AD84" s="63"/>
+      <c r="AE84" s="63"/>
+      <c r="AF84" s="63"/>
+      <c r="AG84" s="63"/>
+      <c r="AH84" s="63"/>
+      <c r="AI84" s="63"/>
+      <c r="AJ84" s="63"/>
     </row>
     <row r="85" ht="16.5" spans="1:24">
       <c r="A85" s="28"/>
@@ -12907,7 +13277,7 @@
     </row>
     <row r="125" ht="16.5" spans="1:24">
       <c r="A125" s="28"/>
-      <c r="B125" s="26"/>
+      <c r="B125" s="25"/>
       <c r="C125" s="26"/>
       <c r="D125" s="26"/>
       <c r="E125" s="26"/>
@@ -12933,7 +13303,7 @@
     </row>
     <row r="126" ht="16.5" spans="1:24">
       <c r="A126" s="28"/>
-      <c r="B126" s="26"/>
+      <c r="B126" s="25"/>
       <c r="C126" s="26"/>
       <c r="D126" s="26"/>
       <c r="E126" s="26"/>
@@ -12959,7 +13329,7 @@
     </row>
     <row r="127" ht="16.5" spans="1:24">
       <c r="A127" s="28"/>
-      <c r="B127" s="26"/>
+      <c r="B127" s="25"/>
       <c r="C127" s="26"/>
       <c r="D127" s="26"/>
       <c r="E127" s="26"/>
@@ -12985,7 +13355,7 @@
     </row>
     <row r="128" ht="16.5" spans="1:24">
       <c r="A128" s="28"/>
-      <c r="B128" s="26"/>
+      <c r="B128" s="25"/>
       <c r="C128" s="26"/>
       <c r="D128" s="26"/>
       <c r="E128" s="26"/>
@@ -13011,7 +13381,7 @@
     </row>
     <row r="129" ht="16.5" spans="1:24">
       <c r="A129" s="28"/>
-      <c r="B129" s="26"/>
+      <c r="B129" s="25"/>
       <c r="C129" s="26"/>
       <c r="D129" s="26"/>
       <c r="E129" s="26"/>
@@ -13037,7 +13407,7 @@
     </row>
     <row r="130" ht="16.5" spans="1:24">
       <c r="A130" s="28"/>
-      <c r="B130" s="26"/>
+      <c r="B130" s="25"/>
       <c r="C130" s="26"/>
       <c r="D130" s="26"/>
       <c r="E130" s="26"/>
@@ -13063,7 +13433,7 @@
     </row>
     <row r="131" ht="16.5" spans="1:24">
       <c r="A131" s="28"/>
-      <c r="B131" s="26"/>
+      <c r="B131" s="25"/>
       <c r="C131" s="26"/>
       <c r="D131" s="26"/>
       <c r="E131" s="26"/>
@@ -13089,7 +13459,7 @@
     </row>
     <row r="132" ht="16.5" spans="1:24">
       <c r="A132" s="28"/>
-      <c r="B132" s="26"/>
+      <c r="B132" s="25"/>
       <c r="C132" s="26"/>
       <c r="D132" s="26"/>
       <c r="E132" s="26"/>
@@ -13115,7 +13485,7 @@
     </row>
     <row r="133" ht="16.5" spans="1:24">
       <c r="A133" s="28"/>
-      <c r="B133" s="26"/>
+      <c r="B133" s="25"/>
       <c r="C133" s="26"/>
       <c r="D133" s="26"/>
       <c r="E133" s="26"/>
@@ -13141,7 +13511,7 @@
     </row>
     <row r="134" ht="16.5" spans="1:24">
       <c r="A134" s="28"/>
-      <c r="B134" s="26"/>
+      <c r="B134" s="25"/>
       <c r="C134" s="26"/>
       <c r="D134" s="26"/>
       <c r="E134" s="26"/>
@@ -13167,7 +13537,7 @@
     </row>
     <row r="135" ht="16.5" spans="1:24">
       <c r="A135" s="28"/>
-      <c r="B135" s="26"/>
+      <c r="B135" s="25"/>
       <c r="C135" s="26"/>
       <c r="D135" s="26"/>
       <c r="E135" s="26"/>
@@ -14804,7 +15174,7 @@
       <c r="X197" s="26"/>
     </row>
     <row r="198" ht="16.5" spans="1:24">
-      <c r="A198" s="26"/>
+      <c r="A198" s="28"/>
       <c r="B198" s="26"/>
       <c r="C198" s="26"/>
       <c r="D198" s="26"/>
@@ -14813,24 +15183,24 @@
       <c r="G198" s="26"/>
       <c r="H198" s="27"/>
       <c r="I198" s="39"/>
-      <c r="J198" s="64"/>
-      <c r="K198" s="64"/>
-      <c r="L198" s="64"/>
-      <c r="M198" s="64"/>
-      <c r="N198" s="64"/>
-      <c r="O198" s="64"/>
-      <c r="P198" s="64"/>
-      <c r="Q198" s="64"/>
-      <c r="R198" s="64"/>
-      <c r="S198" s="64"/>
-      <c r="T198" s="64"/>
-      <c r="U198" s="64"/>
-      <c r="V198" s="64"/>
-      <c r="W198" s="64"/>
-      <c r="X198" s="64"/>
+      <c r="J198" s="32"/>
+      <c r="K198" s="26"/>
+      <c r="L198" s="26"/>
+      <c r="M198" s="26"/>
+      <c r="N198" s="26"/>
+      <c r="O198" s="26"/>
+      <c r="P198" s="26"/>
+      <c r="Q198" s="26"/>
+      <c r="R198" s="26"/>
+      <c r="S198" s="26"/>
+      <c r="T198" s="26"/>
+      <c r="U198" s="26"/>
+      <c r="V198" s="26"/>
+      <c r="W198" s="26"/>
+      <c r="X198" s="26"/>
     </row>
     <row r="199" ht="16.5" spans="1:24">
-      <c r="A199" s="26"/>
+      <c r="A199" s="28"/>
       <c r="B199" s="26"/>
       <c r="C199" s="26"/>
       <c r="D199" s="26"/>
@@ -14839,24 +15209,24 @@
       <c r="G199" s="26"/>
       <c r="H199" s="27"/>
       <c r="I199" s="39"/>
-      <c r="J199" s="64"/>
-      <c r="K199" s="64"/>
-      <c r="L199" s="64"/>
-      <c r="M199" s="64"/>
-      <c r="N199" s="64"/>
-      <c r="O199" s="64"/>
-      <c r="P199" s="64"/>
-      <c r="Q199" s="64"/>
-      <c r="R199" s="64"/>
-      <c r="S199" s="64"/>
-      <c r="T199" s="64"/>
-      <c r="U199" s="64"/>
-      <c r="V199" s="64"/>
-      <c r="W199" s="64"/>
-      <c r="X199" s="64"/>
+      <c r="J199" s="32"/>
+      <c r="K199" s="26"/>
+      <c r="L199" s="26"/>
+      <c r="M199" s="26"/>
+      <c r="N199" s="26"/>
+      <c r="O199" s="26"/>
+      <c r="P199" s="26"/>
+      <c r="Q199" s="26"/>
+      <c r="R199" s="26"/>
+      <c r="S199" s="26"/>
+      <c r="T199" s="26"/>
+      <c r="U199" s="26"/>
+      <c r="V199" s="26"/>
+      <c r="W199" s="26"/>
+      <c r="X199" s="26"/>
     </row>
     <row r="200" ht="16.5" spans="1:24">
-      <c r="A200" s="26"/>
+      <c r="A200" s="28"/>
       <c r="B200" s="26"/>
       <c r="C200" s="26"/>
       <c r="D200" s="26"/>
@@ -14865,24 +15235,24 @@
       <c r="G200" s="26"/>
       <c r="H200" s="27"/>
       <c r="I200" s="39"/>
-      <c r="J200" s="64"/>
-      <c r="K200" s="64"/>
-      <c r="L200" s="64"/>
-      <c r="M200" s="64"/>
-      <c r="N200" s="64"/>
-      <c r="O200" s="64"/>
-      <c r="P200" s="64"/>
-      <c r="Q200" s="64"/>
-      <c r="R200" s="64"/>
-      <c r="S200" s="64"/>
-      <c r="T200" s="64"/>
-      <c r="U200" s="64"/>
-      <c r="V200" s="64"/>
-      <c r="W200" s="64"/>
-      <c r="X200" s="64"/>
+      <c r="J200" s="32"/>
+      <c r="K200" s="26"/>
+      <c r="L200" s="26"/>
+      <c r="M200" s="26"/>
+      <c r="N200" s="26"/>
+      <c r="O200" s="26"/>
+      <c r="P200" s="26"/>
+      <c r="Q200" s="26"/>
+      <c r="R200" s="26"/>
+      <c r="S200" s="26"/>
+      <c r="T200" s="26"/>
+      <c r="U200" s="26"/>
+      <c r="V200" s="26"/>
+      <c r="W200" s="26"/>
+      <c r="X200" s="26"/>
     </row>
     <row r="201" ht="16.5" spans="1:24">
-      <c r="A201" s="26"/>
+      <c r="A201" s="28"/>
       <c r="B201" s="26"/>
       <c r="C201" s="26"/>
       <c r="D201" s="26"/>
@@ -14891,24 +15261,24 @@
       <c r="G201" s="26"/>
       <c r="H201" s="27"/>
       <c r="I201" s="39"/>
-      <c r="J201" s="64"/>
-      <c r="K201" s="64"/>
-      <c r="L201" s="64"/>
-      <c r="M201" s="64"/>
-      <c r="N201" s="64"/>
-      <c r="O201" s="64"/>
-      <c r="P201" s="64"/>
-      <c r="Q201" s="64"/>
-      <c r="R201" s="64"/>
-      <c r="S201" s="64"/>
-      <c r="T201" s="64"/>
-      <c r="U201" s="64"/>
-      <c r="V201" s="64"/>
-      <c r="W201" s="64"/>
-      <c r="X201" s="64"/>
+      <c r="J201" s="32"/>
+      <c r="K201" s="26"/>
+      <c r="L201" s="26"/>
+      <c r="M201" s="26"/>
+      <c r="N201" s="26"/>
+      <c r="O201" s="26"/>
+      <c r="P201" s="26"/>
+      <c r="Q201" s="26"/>
+      <c r="R201" s="26"/>
+      <c r="S201" s="26"/>
+      <c r="T201" s="26"/>
+      <c r="U201" s="26"/>
+      <c r="V201" s="26"/>
+      <c r="W201" s="26"/>
+      <c r="X201" s="26"/>
     </row>
     <row r="202" ht="16.5" spans="1:24">
-      <c r="A202" s="26"/>
+      <c r="A202" s="28"/>
       <c r="B202" s="26"/>
       <c r="C202" s="26"/>
       <c r="D202" s="26"/>
@@ -14917,24 +15287,24 @@
       <c r="G202" s="26"/>
       <c r="H202" s="27"/>
       <c r="I202" s="39"/>
-      <c r="J202" s="64"/>
-      <c r="K202" s="64"/>
-      <c r="L202" s="64"/>
-      <c r="M202" s="64"/>
-      <c r="N202" s="64"/>
-      <c r="O202" s="64"/>
-      <c r="P202" s="64"/>
-      <c r="Q202" s="64"/>
-      <c r="R202" s="64"/>
-      <c r="S202" s="64"/>
-      <c r="T202" s="64"/>
-      <c r="U202" s="64"/>
-      <c r="V202" s="64"/>
-      <c r="W202" s="64"/>
-      <c r="X202" s="64"/>
+      <c r="J202" s="32"/>
+      <c r="K202" s="26"/>
+      <c r="L202" s="26"/>
+      <c r="M202" s="26"/>
+      <c r="N202" s="26"/>
+      <c r="O202" s="26"/>
+      <c r="P202" s="26"/>
+      <c r="Q202" s="26"/>
+      <c r="R202" s="26"/>
+      <c r="S202" s="26"/>
+      <c r="T202" s="26"/>
+      <c r="U202" s="26"/>
+      <c r="V202" s="26"/>
+      <c r="W202" s="26"/>
+      <c r="X202" s="26"/>
     </row>
     <row r="203" ht="16.5" spans="1:24">
-      <c r="A203" s="26"/>
+      <c r="A203" s="28"/>
       <c r="B203" s="26"/>
       <c r="C203" s="26"/>
       <c r="D203" s="26"/>
@@ -14943,24 +15313,24 @@
       <c r="G203" s="26"/>
       <c r="H203" s="27"/>
       <c r="I203" s="39"/>
-      <c r="J203" s="64"/>
-      <c r="K203" s="64"/>
-      <c r="L203" s="64"/>
-      <c r="M203" s="64"/>
-      <c r="N203" s="64"/>
-      <c r="O203" s="64"/>
-      <c r="P203" s="64"/>
-      <c r="Q203" s="64"/>
-      <c r="R203" s="64"/>
-      <c r="S203" s="64"/>
-      <c r="T203" s="64"/>
-      <c r="U203" s="64"/>
-      <c r="V203" s="64"/>
-      <c r="W203" s="64"/>
-      <c r="X203" s="64"/>
+      <c r="J203" s="32"/>
+      <c r="K203" s="26"/>
+      <c r="L203" s="26"/>
+      <c r="M203" s="26"/>
+      <c r="N203" s="26"/>
+      <c r="O203" s="26"/>
+      <c r="P203" s="26"/>
+      <c r="Q203" s="26"/>
+      <c r="R203" s="26"/>
+      <c r="S203" s="26"/>
+      <c r="T203" s="26"/>
+      <c r="U203" s="26"/>
+      <c r="V203" s="26"/>
+      <c r="W203" s="26"/>
+      <c r="X203" s="26"/>
     </row>
     <row r="204" ht="16.5" spans="1:24">
-      <c r="A204" s="26"/>
+      <c r="A204" s="28"/>
       <c r="B204" s="26"/>
       <c r="C204" s="26"/>
       <c r="D204" s="26"/>
@@ -14969,24 +15339,24 @@
       <c r="G204" s="26"/>
       <c r="H204" s="27"/>
       <c r="I204" s="39"/>
-      <c r="J204" s="64"/>
-      <c r="K204" s="64"/>
-      <c r="L204" s="64"/>
-      <c r="M204" s="64"/>
-      <c r="N204" s="64"/>
-      <c r="O204" s="64"/>
-      <c r="P204" s="64"/>
-      <c r="Q204" s="64"/>
-      <c r="R204" s="64"/>
-      <c r="S204" s="64"/>
-      <c r="T204" s="64"/>
-      <c r="U204" s="64"/>
-      <c r="V204" s="64"/>
-      <c r="W204" s="64"/>
-      <c r="X204" s="64"/>
+      <c r="J204" s="32"/>
+      <c r="K204" s="26"/>
+      <c r="L204" s="26"/>
+      <c r="M204" s="26"/>
+      <c r="N204" s="26"/>
+      <c r="O204" s="26"/>
+      <c r="P204" s="26"/>
+      <c r="Q204" s="26"/>
+      <c r="R204" s="26"/>
+      <c r="S204" s="26"/>
+      <c r="T204" s="26"/>
+      <c r="U204" s="26"/>
+      <c r="V204" s="26"/>
+      <c r="W204" s="26"/>
+      <c r="X204" s="26"/>
     </row>
     <row r="205" ht="16.5" spans="1:24">
-      <c r="A205" s="26"/>
+      <c r="A205" s="28"/>
       <c r="B205" s="26"/>
       <c r="C205" s="26"/>
       <c r="D205" s="26"/>
@@ -14995,24 +15365,24 @@
       <c r="G205" s="26"/>
       <c r="H205" s="27"/>
       <c r="I205" s="39"/>
-      <c r="J205" s="64"/>
-      <c r="K205" s="64"/>
-      <c r="L205" s="64"/>
-      <c r="M205" s="64"/>
-      <c r="N205" s="64"/>
-      <c r="O205" s="64"/>
-      <c r="P205" s="64"/>
-      <c r="Q205" s="64"/>
-      <c r="R205" s="64"/>
-      <c r="S205" s="64"/>
-      <c r="T205" s="64"/>
-      <c r="U205" s="64"/>
-      <c r="V205" s="64"/>
-      <c r="W205" s="64"/>
-      <c r="X205" s="64"/>
+      <c r="J205" s="32"/>
+      <c r="K205" s="26"/>
+      <c r="L205" s="26"/>
+      <c r="M205" s="26"/>
+      <c r="N205" s="26"/>
+      <c r="O205" s="26"/>
+      <c r="P205" s="26"/>
+      <c r="Q205" s="26"/>
+      <c r="R205" s="26"/>
+      <c r="S205" s="26"/>
+      <c r="T205" s="26"/>
+      <c r="U205" s="26"/>
+      <c r="V205" s="26"/>
+      <c r="W205" s="26"/>
+      <c r="X205" s="26"/>
     </row>
     <row r="206" ht="16.5" spans="1:24">
-      <c r="A206" s="26"/>
+      <c r="A206" s="28"/>
       <c r="B206" s="26"/>
       <c r="C206" s="26"/>
       <c r="D206" s="26"/>
@@ -15021,24 +15391,24 @@
       <c r="G206" s="26"/>
       <c r="H206" s="27"/>
       <c r="I206" s="39"/>
-      <c r="J206" s="64"/>
-      <c r="K206" s="64"/>
-      <c r="L206" s="64"/>
-      <c r="M206" s="64"/>
-      <c r="N206" s="64"/>
-      <c r="O206" s="64"/>
-      <c r="P206" s="64"/>
-      <c r="Q206" s="64"/>
-      <c r="R206" s="64"/>
-      <c r="S206" s="64"/>
-      <c r="T206" s="64"/>
-      <c r="U206" s="64"/>
-      <c r="V206" s="64"/>
-      <c r="W206" s="64"/>
-      <c r="X206" s="64"/>
+      <c r="J206" s="32"/>
+      <c r="K206" s="26"/>
+      <c r="L206" s="26"/>
+      <c r="M206" s="26"/>
+      <c r="N206" s="26"/>
+      <c r="O206" s="26"/>
+      <c r="P206" s="26"/>
+      <c r="Q206" s="26"/>
+      <c r="R206" s="26"/>
+      <c r="S206" s="26"/>
+      <c r="T206" s="26"/>
+      <c r="U206" s="26"/>
+      <c r="V206" s="26"/>
+      <c r="W206" s="26"/>
+      <c r="X206" s="26"/>
     </row>
     <row r="207" ht="16.5" spans="1:24">
-      <c r="A207" s="26"/>
+      <c r="A207" s="28"/>
       <c r="B207" s="26"/>
       <c r="C207" s="26"/>
       <c r="D207" s="26"/>
@@ -15047,24 +15417,24 @@
       <c r="G207" s="26"/>
       <c r="H207" s="27"/>
       <c r="I207" s="39"/>
-      <c r="J207" s="64"/>
-      <c r="K207" s="64"/>
-      <c r="L207" s="64"/>
-      <c r="M207" s="64"/>
-      <c r="N207" s="64"/>
-      <c r="O207" s="64"/>
-      <c r="P207" s="64"/>
-      <c r="Q207" s="64"/>
-      <c r="R207" s="64"/>
-      <c r="S207" s="64"/>
-      <c r="T207" s="64"/>
-      <c r="U207" s="64"/>
-      <c r="V207" s="64"/>
-      <c r="W207" s="64"/>
-      <c r="X207" s="64"/>
+      <c r="J207" s="32"/>
+      <c r="K207" s="26"/>
+      <c r="L207" s="26"/>
+      <c r="M207" s="26"/>
+      <c r="N207" s="26"/>
+      <c r="O207" s="26"/>
+      <c r="P207" s="26"/>
+      <c r="Q207" s="26"/>
+      <c r="R207" s="26"/>
+      <c r="S207" s="26"/>
+      <c r="T207" s="26"/>
+      <c r="U207" s="26"/>
+      <c r="V207" s="26"/>
+      <c r="W207" s="26"/>
+      <c r="X207" s="26"/>
     </row>
     <row r="208" ht="16.5" spans="1:24">
-      <c r="A208" s="26"/>
+      <c r="A208" s="28"/>
       <c r="B208" s="26"/>
       <c r="C208" s="26"/>
       <c r="D208" s="26"/>
@@ -15073,21 +15443,21 @@
       <c r="G208" s="26"/>
       <c r="H208" s="27"/>
       <c r="I208" s="39"/>
-      <c r="J208" s="64"/>
-      <c r="K208" s="64"/>
-      <c r="L208" s="64"/>
-      <c r="M208" s="64"/>
-      <c r="N208" s="64"/>
-      <c r="O208" s="64"/>
-      <c r="P208" s="64"/>
-      <c r="Q208" s="64"/>
-      <c r="R208" s="64"/>
-      <c r="S208" s="64"/>
-      <c r="T208" s="64"/>
-      <c r="U208" s="64"/>
-      <c r="V208" s="64"/>
-      <c r="W208" s="64"/>
-      <c r="X208" s="64"/>
+      <c r="J208" s="32"/>
+      <c r="K208" s="26"/>
+      <c r="L208" s="26"/>
+      <c r="M208" s="26"/>
+      <c r="N208" s="26"/>
+      <c r="O208" s="26"/>
+      <c r="P208" s="26"/>
+      <c r="Q208" s="26"/>
+      <c r="R208" s="26"/>
+      <c r="S208" s="26"/>
+      <c r="T208" s="26"/>
+      <c r="U208" s="26"/>
+      <c r="V208" s="26"/>
+      <c r="W208" s="26"/>
+      <c r="X208" s="26"/>
     </row>
     <row r="209" ht="16.5" spans="1:24">
       <c r="A209" s="26"/>
@@ -16858,7 +17228,7 @@
       <c r="X276" s="64"/>
     </row>
     <row r="277" ht="16.5" spans="1:24">
-      <c r="A277" s="28"/>
+      <c r="A277" s="26"/>
       <c r="B277" s="26"/>
       <c r="C277" s="26"/>
       <c r="D277" s="26"/>
@@ -16867,24 +17237,24 @@
       <c r="G277" s="26"/>
       <c r="H277" s="27"/>
       <c r="I277" s="39"/>
-      <c r="J277" s="32"/>
-      <c r="K277" s="26"/>
-      <c r="L277" s="26"/>
-      <c r="M277" s="26"/>
-      <c r="N277" s="26"/>
-      <c r="O277" s="26"/>
-      <c r="P277" s="26"/>
-      <c r="Q277" s="26"/>
-      <c r="R277" s="26"/>
-      <c r="S277" s="26"/>
-      <c r="T277" s="26"/>
-      <c r="U277" s="26"/>
-      <c r="V277" s="26"/>
-      <c r="W277" s="26"/>
-      <c r="X277" s="26"/>
+      <c r="J277" s="64"/>
+      <c r="K277" s="64"/>
+      <c r="L277" s="64"/>
+      <c r="M277" s="64"/>
+      <c r="N277" s="64"/>
+      <c r="O277" s="64"/>
+      <c r="P277" s="64"/>
+      <c r="Q277" s="64"/>
+      <c r="R277" s="64"/>
+      <c r="S277" s="64"/>
+      <c r="T277" s="64"/>
+      <c r="U277" s="64"/>
+      <c r="V277" s="64"/>
+      <c r="W277" s="64"/>
+      <c r="X277" s="64"/>
     </row>
     <row r="278" ht="16.5" spans="1:24">
-      <c r="A278" s="28"/>
+      <c r="A278" s="26"/>
       <c r="B278" s="26"/>
       <c r="C278" s="26"/>
       <c r="D278" s="26"/>
@@ -16893,24 +17263,24 @@
       <c r="G278" s="26"/>
       <c r="H278" s="27"/>
       <c r="I278" s="39"/>
-      <c r="J278" s="32"/>
-      <c r="K278" s="26"/>
-      <c r="L278" s="26"/>
-      <c r="M278" s="26"/>
-      <c r="N278" s="26"/>
-      <c r="O278" s="26"/>
-      <c r="P278" s="26"/>
-      <c r="Q278" s="26"/>
-      <c r="R278" s="26"/>
-      <c r="S278" s="26"/>
-      <c r="T278" s="26"/>
-      <c r="U278" s="26"/>
-      <c r="V278" s="26"/>
-      <c r="W278" s="26"/>
-      <c r="X278" s="26"/>
+      <c r="J278" s="64"/>
+      <c r="K278" s="64"/>
+      <c r="L278" s="64"/>
+      <c r="M278" s="64"/>
+      <c r="N278" s="64"/>
+      <c r="O278" s="64"/>
+      <c r="P278" s="64"/>
+      <c r="Q278" s="64"/>
+      <c r="R278" s="64"/>
+      <c r="S278" s="64"/>
+      <c r="T278" s="64"/>
+      <c r="U278" s="64"/>
+      <c r="V278" s="64"/>
+      <c r="W278" s="64"/>
+      <c r="X278" s="64"/>
     </row>
     <row r="279" ht="16.5" spans="1:24">
-      <c r="A279" s="28"/>
+      <c r="A279" s="26"/>
       <c r="B279" s="26"/>
       <c r="C279" s="26"/>
       <c r="D279" s="26"/>
@@ -16919,24 +17289,24 @@
       <c r="G279" s="26"/>
       <c r="H279" s="27"/>
       <c r="I279" s="39"/>
-      <c r="J279" s="32"/>
-      <c r="K279" s="26"/>
-      <c r="L279" s="26"/>
-      <c r="M279" s="26"/>
-      <c r="N279" s="26"/>
-      <c r="O279" s="26"/>
-      <c r="P279" s="26"/>
-      <c r="Q279" s="26"/>
-      <c r="R279" s="26"/>
-      <c r="S279" s="26"/>
-      <c r="T279" s="26"/>
-      <c r="U279" s="26"/>
-      <c r="V279" s="26"/>
-      <c r="W279" s="26"/>
-      <c r="X279" s="26"/>
+      <c r="J279" s="64"/>
+      <c r="K279" s="64"/>
+      <c r="L279" s="64"/>
+      <c r="M279" s="64"/>
+      <c r="N279" s="64"/>
+      <c r="O279" s="64"/>
+      <c r="P279" s="64"/>
+      <c r="Q279" s="64"/>
+      <c r="R279" s="64"/>
+      <c r="S279" s="64"/>
+      <c r="T279" s="64"/>
+      <c r="U279" s="64"/>
+      <c r="V279" s="64"/>
+      <c r="W279" s="64"/>
+      <c r="X279" s="64"/>
     </row>
     <row r="280" ht="16.5" spans="1:24">
-      <c r="A280" s="28"/>
+      <c r="A280" s="26"/>
       <c r="B280" s="26"/>
       <c r="C280" s="26"/>
       <c r="D280" s="26"/>
@@ -16945,24 +17315,24 @@
       <c r="G280" s="26"/>
       <c r="H280" s="27"/>
       <c r="I280" s="39"/>
-      <c r="J280" s="32"/>
-      <c r="K280" s="26"/>
-      <c r="L280" s="26"/>
-      <c r="M280" s="26"/>
-      <c r="N280" s="26"/>
-      <c r="O280" s="26"/>
-      <c r="P280" s="26"/>
-      <c r="Q280" s="26"/>
-      <c r="R280" s="26"/>
-      <c r="S280" s="26"/>
-      <c r="T280" s="26"/>
-      <c r="U280" s="26"/>
-      <c r="V280" s="26"/>
-      <c r="W280" s="26"/>
-      <c r="X280" s="26"/>
+      <c r="J280" s="64"/>
+      <c r="K280" s="64"/>
+      <c r="L280" s="64"/>
+      <c r="M280" s="64"/>
+      <c r="N280" s="64"/>
+      <c r="O280" s="64"/>
+      <c r="P280" s="64"/>
+      <c r="Q280" s="64"/>
+      <c r="R280" s="64"/>
+      <c r="S280" s="64"/>
+      <c r="T280" s="64"/>
+      <c r="U280" s="64"/>
+      <c r="V280" s="64"/>
+      <c r="W280" s="64"/>
+      <c r="X280" s="64"/>
     </row>
     <row r="281" ht="16.5" spans="1:24">
-      <c r="A281" s="28"/>
+      <c r="A281" s="26"/>
       <c r="B281" s="26"/>
       <c r="C281" s="26"/>
       <c r="D281" s="26"/>
@@ -16971,24 +17341,24 @@
       <c r="G281" s="26"/>
       <c r="H281" s="27"/>
       <c r="I281" s="39"/>
-      <c r="J281" s="32"/>
-      <c r="K281" s="26"/>
-      <c r="L281" s="26"/>
-      <c r="M281" s="26"/>
-      <c r="N281" s="26"/>
-      <c r="O281" s="26"/>
-      <c r="P281" s="26"/>
-      <c r="Q281" s="26"/>
-      <c r="R281" s="26"/>
-      <c r="S281" s="26"/>
-      <c r="T281" s="26"/>
-      <c r="U281" s="26"/>
-      <c r="V281" s="26"/>
-      <c r="W281" s="26"/>
-      <c r="X281" s="26"/>
+      <c r="J281" s="64"/>
+      <c r="K281" s="64"/>
+      <c r="L281" s="64"/>
+      <c r="M281" s="64"/>
+      <c r="N281" s="64"/>
+      <c r="O281" s="64"/>
+      <c r="P281" s="64"/>
+      <c r="Q281" s="64"/>
+      <c r="R281" s="64"/>
+      <c r="S281" s="64"/>
+      <c r="T281" s="64"/>
+      <c r="U281" s="64"/>
+      <c r="V281" s="64"/>
+      <c r="W281" s="64"/>
+      <c r="X281" s="64"/>
     </row>
     <row r="282" ht="16.5" spans="1:24">
-      <c r="A282" s="28"/>
+      <c r="A282" s="26"/>
       <c r="B282" s="26"/>
       <c r="C282" s="26"/>
       <c r="D282" s="26"/>
@@ -16997,24 +17367,24 @@
       <c r="G282" s="26"/>
       <c r="H282" s="27"/>
       <c r="I282" s="39"/>
-      <c r="J282" s="32"/>
-      <c r="K282" s="26"/>
-      <c r="L282" s="26"/>
-      <c r="M282" s="26"/>
-      <c r="N282" s="26"/>
-      <c r="O282" s="26"/>
-      <c r="P282" s="26"/>
-      <c r="Q282" s="26"/>
-      <c r="R282" s="26"/>
-      <c r="S282" s="26"/>
-      <c r="T282" s="26"/>
-      <c r="U282" s="26"/>
-      <c r="V282" s="26"/>
-      <c r="W282" s="26"/>
-      <c r="X282" s="26"/>
+      <c r="J282" s="64"/>
+      <c r="K282" s="64"/>
+      <c r="L282" s="64"/>
+      <c r="M282" s="64"/>
+      <c r="N282" s="64"/>
+      <c r="O282" s="64"/>
+      <c r="P282" s="64"/>
+      <c r="Q282" s="64"/>
+      <c r="R282" s="64"/>
+      <c r="S282" s="64"/>
+      <c r="T282" s="64"/>
+      <c r="U282" s="64"/>
+      <c r="V282" s="64"/>
+      <c r="W282" s="64"/>
+      <c r="X282" s="64"/>
     </row>
     <row r="283" ht="16.5" spans="1:24">
-      <c r="A283" s="28"/>
+      <c r="A283" s="26"/>
       <c r="B283" s="26"/>
       <c r="C283" s="26"/>
       <c r="D283" s="26"/>
@@ -17023,24 +17393,24 @@
       <c r="G283" s="26"/>
       <c r="H283" s="27"/>
       <c r="I283" s="39"/>
-      <c r="J283" s="32"/>
-      <c r="K283" s="26"/>
-      <c r="L283" s="26"/>
-      <c r="M283" s="26"/>
-      <c r="N283" s="26"/>
-      <c r="O283" s="26"/>
-      <c r="P283" s="26"/>
-      <c r="Q283" s="26"/>
-      <c r="R283" s="26"/>
-      <c r="S283" s="26"/>
-      <c r="T283" s="26"/>
-      <c r="U283" s="26"/>
-      <c r="V283" s="26"/>
-      <c r="W283" s="26"/>
-      <c r="X283" s="26"/>
+      <c r="J283" s="64"/>
+      <c r="K283" s="64"/>
+      <c r="L283" s="64"/>
+      <c r="M283" s="64"/>
+      <c r="N283" s="64"/>
+      <c r="O283" s="64"/>
+      <c r="P283" s="64"/>
+      <c r="Q283" s="64"/>
+      <c r="R283" s="64"/>
+      <c r="S283" s="64"/>
+      <c r="T283" s="64"/>
+      <c r="U283" s="64"/>
+      <c r="V283" s="64"/>
+      <c r="W283" s="64"/>
+      <c r="X283" s="64"/>
     </row>
     <row r="284" ht="16.5" spans="1:24">
-      <c r="A284" s="28"/>
+      <c r="A284" s="26"/>
       <c r="B284" s="26"/>
       <c r="C284" s="26"/>
       <c r="D284" s="26"/>
@@ -17049,24 +17419,24 @@
       <c r="G284" s="26"/>
       <c r="H284" s="27"/>
       <c r="I284" s="39"/>
-      <c r="J284" s="32"/>
-      <c r="K284" s="26"/>
-      <c r="L284" s="26"/>
-      <c r="M284" s="26"/>
-      <c r="N284" s="26"/>
-      <c r="O284" s="26"/>
-      <c r="P284" s="26"/>
-      <c r="Q284" s="26"/>
-      <c r="R284" s="26"/>
-      <c r="S284" s="26"/>
-      <c r="T284" s="26"/>
-      <c r="U284" s="26"/>
-      <c r="V284" s="26"/>
-      <c r="W284" s="26"/>
-      <c r="X284" s="26"/>
+      <c r="J284" s="64"/>
+      <c r="K284" s="64"/>
+      <c r="L284" s="64"/>
+      <c r="M284" s="64"/>
+      <c r="N284" s="64"/>
+      <c r="O284" s="64"/>
+      <c r="P284" s="64"/>
+      <c r="Q284" s="64"/>
+      <c r="R284" s="64"/>
+      <c r="S284" s="64"/>
+      <c r="T284" s="64"/>
+      <c r="U284" s="64"/>
+      <c r="V284" s="64"/>
+      <c r="W284" s="64"/>
+      <c r="X284" s="64"/>
     </row>
     <row r="285" ht="16.5" spans="1:24">
-      <c r="A285" s="28"/>
+      <c r="A285" s="26"/>
       <c r="B285" s="26"/>
       <c r="C285" s="26"/>
       <c r="D285" s="26"/>
@@ -17075,24 +17445,24 @@
       <c r="G285" s="26"/>
       <c r="H285" s="27"/>
       <c r="I285" s="39"/>
-      <c r="J285" s="32"/>
-      <c r="K285" s="26"/>
-      <c r="L285" s="26"/>
-      <c r="M285" s="26"/>
-      <c r="N285" s="26"/>
-      <c r="O285" s="26"/>
-      <c r="P285" s="26"/>
-      <c r="Q285" s="26"/>
-      <c r="R285" s="26"/>
-      <c r="S285" s="26"/>
-      <c r="T285" s="26"/>
-      <c r="U285" s="26"/>
-      <c r="V285" s="26"/>
-      <c r="W285" s="26"/>
-      <c r="X285" s="26"/>
+      <c r="J285" s="64"/>
+      <c r="K285" s="64"/>
+      <c r="L285" s="64"/>
+      <c r="M285" s="64"/>
+      <c r="N285" s="64"/>
+      <c r="O285" s="64"/>
+      <c r="P285" s="64"/>
+      <c r="Q285" s="64"/>
+      <c r="R285" s="64"/>
+      <c r="S285" s="64"/>
+      <c r="T285" s="64"/>
+      <c r="U285" s="64"/>
+      <c r="V285" s="64"/>
+      <c r="W285" s="64"/>
+      <c r="X285" s="64"/>
     </row>
     <row r="286" ht="16.5" spans="1:24">
-      <c r="A286" s="28"/>
+      <c r="A286" s="26"/>
       <c r="B286" s="26"/>
       <c r="C286" s="26"/>
       <c r="D286" s="26"/>
@@ -17101,24 +17471,24 @@
       <c r="G286" s="26"/>
       <c r="H286" s="27"/>
       <c r="I286" s="39"/>
-      <c r="J286" s="32"/>
-      <c r="K286" s="26"/>
-      <c r="L286" s="26"/>
-      <c r="M286" s="26"/>
-      <c r="N286" s="26"/>
-      <c r="O286" s="26"/>
-      <c r="P286" s="26"/>
-      <c r="Q286" s="26"/>
-      <c r="R286" s="26"/>
-      <c r="S286" s="26"/>
-      <c r="T286" s="26"/>
-      <c r="U286" s="26"/>
-      <c r="V286" s="26"/>
-      <c r="W286" s="26"/>
-      <c r="X286" s="26"/>
+      <c r="J286" s="64"/>
+      <c r="K286" s="64"/>
+      <c r="L286" s="64"/>
+      <c r="M286" s="64"/>
+      <c r="N286" s="64"/>
+      <c r="O286" s="64"/>
+      <c r="P286" s="64"/>
+      <c r="Q286" s="64"/>
+      <c r="R286" s="64"/>
+      <c r="S286" s="64"/>
+      <c r="T286" s="64"/>
+      <c r="U286" s="64"/>
+      <c r="V286" s="64"/>
+      <c r="W286" s="64"/>
+      <c r="X286" s="64"/>
     </row>
     <row r="287" ht="16.5" spans="1:24">
-      <c r="A287" s="28"/>
+      <c r="A287" s="26"/>
       <c r="B287" s="26"/>
       <c r="C287" s="26"/>
       <c r="D287" s="26"/>
@@ -17127,21 +17497,21 @@
       <c r="G287" s="26"/>
       <c r="H287" s="27"/>
       <c r="I287" s="39"/>
-      <c r="J287" s="32"/>
-      <c r="K287" s="26"/>
-      <c r="L287" s="26"/>
-      <c r="M287" s="26"/>
-      <c r="N287" s="26"/>
-      <c r="O287" s="26"/>
-      <c r="P287" s="26"/>
-      <c r="Q287" s="26"/>
-      <c r="R287" s="26"/>
-      <c r="S287" s="26"/>
-      <c r="T287" s="26"/>
-      <c r="U287" s="26"/>
-      <c r="V287" s="26"/>
-      <c r="W287" s="26"/>
-      <c r="X287" s="26"/>
+      <c r="J287" s="64"/>
+      <c r="K287" s="64"/>
+      <c r="L287" s="64"/>
+      <c r="M287" s="64"/>
+      <c r="N287" s="64"/>
+      <c r="O287" s="64"/>
+      <c r="P287" s="64"/>
+      <c r="Q287" s="64"/>
+      <c r="R287" s="64"/>
+      <c r="S287" s="64"/>
+      <c r="T287" s="64"/>
+      <c r="U287" s="64"/>
+      <c r="V287" s="64"/>
+      <c r="W287" s="64"/>
+      <c r="X287" s="64"/>
     </row>
     <row r="288" ht="16.5" spans="1:24">
       <c r="A288" s="28"/>
@@ -17560,7 +17930,7 @@
       <c r="X303" s="26"/>
     </row>
     <row r="304" ht="16.5" spans="1:24">
-      <c r="A304" s="26"/>
+      <c r="A304" s="28"/>
       <c r="B304" s="26"/>
       <c r="C304" s="26"/>
       <c r="D304" s="26"/>
@@ -17569,24 +17939,24 @@
       <c r="G304" s="26"/>
       <c r="H304" s="27"/>
       <c r="I304" s="39"/>
-      <c r="J304" s="64"/>
-      <c r="K304" s="64"/>
-      <c r="L304" s="64"/>
-      <c r="M304" s="64"/>
-      <c r="N304" s="64"/>
-      <c r="O304" s="64"/>
-      <c r="P304" s="64"/>
-      <c r="Q304" s="64"/>
-      <c r="R304" s="64"/>
-      <c r="S304" s="64"/>
-      <c r="T304" s="64"/>
-      <c r="U304" s="64"/>
-      <c r="V304" s="64"/>
-      <c r="W304" s="64"/>
-      <c r="X304" s="64"/>
+      <c r="J304" s="32"/>
+      <c r="K304" s="26"/>
+      <c r="L304" s="26"/>
+      <c r="M304" s="26"/>
+      <c r="N304" s="26"/>
+      <c r="O304" s="26"/>
+      <c r="P304" s="26"/>
+      <c r="Q304" s="26"/>
+      <c r="R304" s="26"/>
+      <c r="S304" s="26"/>
+      <c r="T304" s="26"/>
+      <c r="U304" s="26"/>
+      <c r="V304" s="26"/>
+      <c r="W304" s="26"/>
+      <c r="X304" s="26"/>
     </row>
     <row r="305" ht="16.5" spans="1:24">
-      <c r="A305" s="26"/>
+      <c r="A305" s="28"/>
       <c r="B305" s="26"/>
       <c r="C305" s="26"/>
       <c r="D305" s="26"/>
@@ -17595,24 +17965,24 @@
       <c r="G305" s="26"/>
       <c r="H305" s="27"/>
       <c r="I305" s="39"/>
-      <c r="J305" s="64"/>
-      <c r="K305" s="64"/>
-      <c r="L305" s="64"/>
-      <c r="M305" s="64"/>
-      <c r="N305" s="64"/>
-      <c r="O305" s="64"/>
-      <c r="P305" s="64"/>
-      <c r="Q305" s="64"/>
-      <c r="R305" s="64"/>
-      <c r="S305" s="64"/>
-      <c r="T305" s="64"/>
-      <c r="U305" s="64"/>
-      <c r="V305" s="64"/>
-      <c r="W305" s="64"/>
-      <c r="X305" s="64"/>
+      <c r="J305" s="32"/>
+      <c r="K305" s="26"/>
+      <c r="L305" s="26"/>
+      <c r="M305" s="26"/>
+      <c r="N305" s="26"/>
+      <c r="O305" s="26"/>
+      <c r="P305" s="26"/>
+      <c r="Q305" s="26"/>
+      <c r="R305" s="26"/>
+      <c r="S305" s="26"/>
+      <c r="T305" s="26"/>
+      <c r="U305" s="26"/>
+      <c r="V305" s="26"/>
+      <c r="W305" s="26"/>
+      <c r="X305" s="26"/>
     </row>
     <row r="306" ht="16.5" spans="1:24">
-      <c r="A306" s="26"/>
+      <c r="A306" s="28"/>
       <c r="B306" s="26"/>
       <c r="C306" s="26"/>
       <c r="D306" s="26"/>
@@ -17621,24 +17991,24 @@
       <c r="G306" s="26"/>
       <c r="H306" s="27"/>
       <c r="I306" s="39"/>
-      <c r="J306" s="64"/>
-      <c r="K306" s="64"/>
-      <c r="L306" s="64"/>
-      <c r="M306" s="64"/>
-      <c r="N306" s="64"/>
-      <c r="O306" s="64"/>
-      <c r="P306" s="64"/>
-      <c r="Q306" s="64"/>
-      <c r="R306" s="64"/>
-      <c r="S306" s="64"/>
-      <c r="T306" s="64"/>
-      <c r="U306" s="64"/>
-      <c r="V306" s="64"/>
-      <c r="W306" s="64"/>
-      <c r="X306" s="64"/>
+      <c r="J306" s="32"/>
+      <c r="K306" s="26"/>
+      <c r="L306" s="26"/>
+      <c r="M306" s="26"/>
+      <c r="N306" s="26"/>
+      <c r="O306" s="26"/>
+      <c r="P306" s="26"/>
+      <c r="Q306" s="26"/>
+      <c r="R306" s="26"/>
+      <c r="S306" s="26"/>
+      <c r="T306" s="26"/>
+      <c r="U306" s="26"/>
+      <c r="V306" s="26"/>
+      <c r="W306" s="26"/>
+      <c r="X306" s="26"/>
     </row>
     <row r="307" ht="16.5" spans="1:24">
-      <c r="A307" s="26"/>
+      <c r="A307" s="28"/>
       <c r="B307" s="26"/>
       <c r="C307" s="26"/>
       <c r="D307" s="26"/>
@@ -17647,24 +18017,24 @@
       <c r="G307" s="26"/>
       <c r="H307" s="27"/>
       <c r="I307" s="39"/>
-      <c r="J307" s="64"/>
-      <c r="K307" s="64"/>
-      <c r="L307" s="64"/>
-      <c r="M307" s="64"/>
-      <c r="N307" s="64"/>
-      <c r="O307" s="64"/>
-      <c r="P307" s="64"/>
-      <c r="Q307" s="64"/>
-      <c r="R307" s="64"/>
-      <c r="S307" s="64"/>
-      <c r="T307" s="64"/>
-      <c r="U307" s="64"/>
-      <c r="V307" s="64"/>
-      <c r="W307" s="64"/>
-      <c r="X307" s="64"/>
+      <c r="J307" s="32"/>
+      <c r="K307" s="26"/>
+      <c r="L307" s="26"/>
+      <c r="M307" s="26"/>
+      <c r="N307" s="26"/>
+      <c r="O307" s="26"/>
+      <c r="P307" s="26"/>
+      <c r="Q307" s="26"/>
+      <c r="R307" s="26"/>
+      <c r="S307" s="26"/>
+      <c r="T307" s="26"/>
+      <c r="U307" s="26"/>
+      <c r="V307" s="26"/>
+      <c r="W307" s="26"/>
+      <c r="X307" s="26"/>
     </row>
     <row r="308" ht="16.5" spans="1:24">
-      <c r="A308" s="26"/>
+      <c r="A308" s="28"/>
       <c r="B308" s="26"/>
       <c r="C308" s="26"/>
       <c r="D308" s="26"/>
@@ -17673,24 +18043,24 @@
       <c r="G308" s="26"/>
       <c r="H308" s="27"/>
       <c r="I308" s="39"/>
-      <c r="J308" s="64"/>
-      <c r="K308" s="64"/>
-      <c r="L308" s="64"/>
-      <c r="M308" s="64"/>
-      <c r="N308" s="64"/>
-      <c r="O308" s="64"/>
-      <c r="P308" s="64"/>
-      <c r="Q308" s="64"/>
-      <c r="R308" s="64"/>
-      <c r="S308" s="64"/>
-      <c r="T308" s="64"/>
-      <c r="U308" s="64"/>
-      <c r="V308" s="64"/>
-      <c r="W308" s="64"/>
-      <c r="X308" s="64"/>
+      <c r="J308" s="32"/>
+      <c r="K308" s="26"/>
+      <c r="L308" s="26"/>
+      <c r="M308" s="26"/>
+      <c r="N308" s="26"/>
+      <c r="O308" s="26"/>
+      <c r="P308" s="26"/>
+      <c r="Q308" s="26"/>
+      <c r="R308" s="26"/>
+      <c r="S308" s="26"/>
+      <c r="T308" s="26"/>
+      <c r="U308" s="26"/>
+      <c r="V308" s="26"/>
+      <c r="W308" s="26"/>
+      <c r="X308" s="26"/>
     </row>
     <row r="309" ht="16.5" spans="1:24">
-      <c r="A309" s="26"/>
+      <c r="A309" s="28"/>
       <c r="B309" s="26"/>
       <c r="C309" s="26"/>
       <c r="D309" s="26"/>
@@ -17699,24 +18069,24 @@
       <c r="G309" s="26"/>
       <c r="H309" s="27"/>
       <c r="I309" s="39"/>
-      <c r="J309" s="64"/>
-      <c r="K309" s="64"/>
-      <c r="L309" s="64"/>
-      <c r="M309" s="64"/>
-      <c r="N309" s="64"/>
-      <c r="O309" s="64"/>
-      <c r="P309" s="64"/>
-      <c r="Q309" s="64"/>
-      <c r="R309" s="64"/>
-      <c r="S309" s="64"/>
-      <c r="T309" s="64"/>
-      <c r="U309" s="64"/>
-      <c r="V309" s="64"/>
-      <c r="W309" s="64"/>
-      <c r="X309" s="64"/>
+      <c r="J309" s="32"/>
+      <c r="K309" s="26"/>
+      <c r="L309" s="26"/>
+      <c r="M309" s="26"/>
+      <c r="N309" s="26"/>
+      <c r="O309" s="26"/>
+      <c r="P309" s="26"/>
+      <c r="Q309" s="26"/>
+      <c r="R309" s="26"/>
+      <c r="S309" s="26"/>
+      <c r="T309" s="26"/>
+      <c r="U309" s="26"/>
+      <c r="V309" s="26"/>
+      <c r="W309" s="26"/>
+      <c r="X309" s="26"/>
     </row>
     <row r="310" ht="16.5" spans="1:24">
-      <c r="A310" s="26"/>
+      <c r="A310" s="28"/>
       <c r="B310" s="26"/>
       <c r="C310" s="26"/>
       <c r="D310" s="26"/>
@@ -17725,24 +18095,24 @@
       <c r="G310" s="26"/>
       <c r="H310" s="27"/>
       <c r="I310" s="39"/>
-      <c r="J310" s="64"/>
-      <c r="K310" s="64"/>
-      <c r="L310" s="64"/>
-      <c r="M310" s="64"/>
-      <c r="N310" s="64"/>
-      <c r="O310" s="64"/>
-      <c r="P310" s="64"/>
-      <c r="Q310" s="64"/>
-      <c r="R310" s="64"/>
-      <c r="S310" s="64"/>
-      <c r="T310" s="64"/>
-      <c r="U310" s="64"/>
-      <c r="V310" s="64"/>
-      <c r="W310" s="64"/>
-      <c r="X310" s="64"/>
+      <c r="J310" s="32"/>
+      <c r="K310" s="26"/>
+      <c r="L310" s="26"/>
+      <c r="M310" s="26"/>
+      <c r="N310" s="26"/>
+      <c r="O310" s="26"/>
+      <c r="P310" s="26"/>
+      <c r="Q310" s="26"/>
+      <c r="R310" s="26"/>
+      <c r="S310" s="26"/>
+      <c r="T310" s="26"/>
+      <c r="U310" s="26"/>
+      <c r="V310" s="26"/>
+      <c r="W310" s="26"/>
+      <c r="X310" s="26"/>
     </row>
     <row r="311" ht="16.5" spans="1:24">
-      <c r="A311" s="26"/>
+      <c r="A311" s="28"/>
       <c r="B311" s="26"/>
       <c r="C311" s="26"/>
       <c r="D311" s="26"/>
@@ -17751,24 +18121,24 @@
       <c r="G311" s="26"/>
       <c r="H311" s="27"/>
       <c r="I311" s="39"/>
-      <c r="J311" s="64"/>
-      <c r="K311" s="64"/>
-      <c r="L311" s="64"/>
-      <c r="M311" s="64"/>
-      <c r="N311" s="64"/>
-      <c r="O311" s="64"/>
-      <c r="P311" s="64"/>
-      <c r="Q311" s="64"/>
-      <c r="R311" s="64"/>
-      <c r="S311" s="64"/>
-      <c r="T311" s="64"/>
-      <c r="U311" s="64"/>
-      <c r="V311" s="64"/>
-      <c r="W311" s="64"/>
-      <c r="X311" s="64"/>
+      <c r="J311" s="32"/>
+      <c r="K311" s="26"/>
+      <c r="L311" s="26"/>
+      <c r="M311" s="26"/>
+      <c r="N311" s="26"/>
+      <c r="O311" s="26"/>
+      <c r="P311" s="26"/>
+      <c r="Q311" s="26"/>
+      <c r="R311" s="26"/>
+      <c r="S311" s="26"/>
+      <c r="T311" s="26"/>
+      <c r="U311" s="26"/>
+      <c r="V311" s="26"/>
+      <c r="W311" s="26"/>
+      <c r="X311" s="26"/>
     </row>
     <row r="312" ht="16.5" spans="1:24">
-      <c r="A312" s="26"/>
+      <c r="A312" s="28"/>
       <c r="B312" s="26"/>
       <c r="C312" s="26"/>
       <c r="D312" s="26"/>
@@ -17777,24 +18147,24 @@
       <c r="G312" s="26"/>
       <c r="H312" s="27"/>
       <c r="I312" s="39"/>
-      <c r="J312" s="64"/>
-      <c r="K312" s="64"/>
-      <c r="L312" s="64"/>
-      <c r="M312" s="64"/>
-      <c r="N312" s="64"/>
-      <c r="O312" s="64"/>
-      <c r="P312" s="64"/>
-      <c r="Q312" s="64"/>
-      <c r="R312" s="64"/>
-      <c r="S312" s="64"/>
-      <c r="T312" s="64"/>
-      <c r="U312" s="64"/>
-      <c r="V312" s="64"/>
-      <c r="W312" s="64"/>
-      <c r="X312" s="64"/>
+      <c r="J312" s="32"/>
+      <c r="K312" s="26"/>
+      <c r="L312" s="26"/>
+      <c r="M312" s="26"/>
+      <c r="N312" s="26"/>
+      <c r="O312" s="26"/>
+      <c r="P312" s="26"/>
+      <c r="Q312" s="26"/>
+      <c r="R312" s="26"/>
+      <c r="S312" s="26"/>
+      <c r="T312" s="26"/>
+      <c r="U312" s="26"/>
+      <c r="V312" s="26"/>
+      <c r="W312" s="26"/>
+      <c r="X312" s="26"/>
     </row>
     <row r="313" ht="16.5" spans="1:24">
-      <c r="A313" s="26"/>
+      <c r="A313" s="28"/>
       <c r="B313" s="26"/>
       <c r="C313" s="26"/>
       <c r="D313" s="26"/>
@@ -17803,24 +18173,24 @@
       <c r="G313" s="26"/>
       <c r="H313" s="27"/>
       <c r="I313" s="39"/>
-      <c r="J313" s="64"/>
-      <c r="K313" s="64"/>
-      <c r="L313" s="64"/>
-      <c r="M313" s="64"/>
-      <c r="N313" s="64"/>
-      <c r="O313" s="64"/>
-      <c r="P313" s="64"/>
-      <c r="Q313" s="64"/>
-      <c r="R313" s="64"/>
-      <c r="S313" s="64"/>
-      <c r="T313" s="64"/>
-      <c r="U313" s="64"/>
-      <c r="V313" s="64"/>
-      <c r="W313" s="64"/>
-      <c r="X313" s="64"/>
+      <c r="J313" s="32"/>
+      <c r="K313" s="26"/>
+      <c r="L313" s="26"/>
+      <c r="M313" s="26"/>
+      <c r="N313" s="26"/>
+      <c r="O313" s="26"/>
+      <c r="P313" s="26"/>
+      <c r="Q313" s="26"/>
+      <c r="R313" s="26"/>
+      <c r="S313" s="26"/>
+      <c r="T313" s="26"/>
+      <c r="U313" s="26"/>
+      <c r="V313" s="26"/>
+      <c r="W313" s="26"/>
+      <c r="X313" s="26"/>
     </row>
     <row r="314" ht="16.5" spans="1:24">
-      <c r="A314" s="26"/>
+      <c r="A314" s="28"/>
       <c r="B314" s="26"/>
       <c r="C314" s="26"/>
       <c r="D314" s="26"/>
@@ -17829,21 +18199,21 @@
       <c r="G314" s="26"/>
       <c r="H314" s="27"/>
       <c r="I314" s="39"/>
-      <c r="J314" s="64"/>
-      <c r="K314" s="64"/>
-      <c r="L314" s="64"/>
-      <c r="M314" s="64"/>
-      <c r="N314" s="64"/>
-      <c r="O314" s="64"/>
-      <c r="P314" s="64"/>
-      <c r="Q314" s="64"/>
-      <c r="R314" s="64"/>
-      <c r="S314" s="64"/>
-      <c r="T314" s="64"/>
-      <c r="U314" s="64"/>
-      <c r="V314" s="64"/>
-      <c r="W314" s="64"/>
-      <c r="X314" s="64"/>
+      <c r="J314" s="32"/>
+      <c r="K314" s="26"/>
+      <c r="L314" s="26"/>
+      <c r="M314" s="26"/>
+      <c r="N314" s="26"/>
+      <c r="O314" s="26"/>
+      <c r="P314" s="26"/>
+      <c r="Q314" s="26"/>
+      <c r="R314" s="26"/>
+      <c r="S314" s="26"/>
+      <c r="T314" s="26"/>
+      <c r="U314" s="26"/>
+      <c r="V314" s="26"/>
+      <c r="W314" s="26"/>
+      <c r="X314" s="26"/>
     </row>
     <row r="315" ht="16.5" spans="1:24">
       <c r="A315" s="26"/>
@@ -19224,7 +19594,7 @@
       <c r="X367" s="64"/>
     </row>
     <row r="368" ht="16.5" spans="1:24">
-      <c r="A368" s="28"/>
+      <c r="A368" s="26"/>
       <c r="B368" s="26"/>
       <c r="C368" s="26"/>
       <c r="D368" s="26"/>
@@ -19233,24 +19603,24 @@
       <c r="G368" s="26"/>
       <c r="H368" s="27"/>
       <c r="I368" s="39"/>
-      <c r="J368" s="32"/>
-      <c r="K368" s="26"/>
-      <c r="L368" s="26"/>
-      <c r="M368" s="26"/>
-      <c r="N368" s="26"/>
-      <c r="O368" s="26"/>
-      <c r="P368" s="26"/>
-      <c r="Q368" s="26"/>
-      <c r="R368" s="26"/>
-      <c r="S368" s="26"/>
-      <c r="T368" s="26"/>
-      <c r="U368" s="26"/>
-      <c r="V368" s="26"/>
-      <c r="W368" s="26"/>
-      <c r="X368" s="26"/>
+      <c r="J368" s="64"/>
+      <c r="K368" s="64"/>
+      <c r="L368" s="64"/>
+      <c r="M368" s="64"/>
+      <c r="N368" s="64"/>
+      <c r="O368" s="64"/>
+      <c r="P368" s="64"/>
+      <c r="Q368" s="64"/>
+      <c r="R368" s="64"/>
+      <c r="S368" s="64"/>
+      <c r="T368" s="64"/>
+      <c r="U368" s="64"/>
+      <c r="V368" s="64"/>
+      <c r="W368" s="64"/>
+      <c r="X368" s="64"/>
     </row>
     <row r="369" ht="16.5" spans="1:24">
-      <c r="A369" s="28"/>
+      <c r="A369" s="26"/>
       <c r="B369" s="26"/>
       <c r="C369" s="26"/>
       <c r="D369" s="26"/>
@@ -19259,24 +19629,24 @@
       <c r="G369" s="26"/>
       <c r="H369" s="27"/>
       <c r="I369" s="39"/>
-      <c r="J369" s="32"/>
-      <c r="K369" s="26"/>
-      <c r="L369" s="26"/>
-      <c r="M369" s="26"/>
-      <c r="N369" s="26"/>
-      <c r="O369" s="26"/>
-      <c r="P369" s="26"/>
-      <c r="Q369" s="26"/>
-      <c r="R369" s="26"/>
-      <c r="S369" s="26"/>
-      <c r="T369" s="26"/>
-      <c r="U369" s="26"/>
-      <c r="V369" s="26"/>
-      <c r="W369" s="26"/>
-      <c r="X369" s="26"/>
+      <c r="J369" s="64"/>
+      <c r="K369" s="64"/>
+      <c r="L369" s="64"/>
+      <c r="M369" s="64"/>
+      <c r="N369" s="64"/>
+      <c r="O369" s="64"/>
+      <c r="P369" s="64"/>
+      <c r="Q369" s="64"/>
+      <c r="R369" s="64"/>
+      <c r="S369" s="64"/>
+      <c r="T369" s="64"/>
+      <c r="U369" s="64"/>
+      <c r="V369" s="64"/>
+      <c r="W369" s="64"/>
+      <c r="X369" s="64"/>
     </row>
     <row r="370" ht="16.5" spans="1:24">
-      <c r="A370" s="28"/>
+      <c r="A370" s="26"/>
       <c r="B370" s="26"/>
       <c r="C370" s="26"/>
       <c r="D370" s="26"/>
@@ -19285,24 +19655,24 @@
       <c r="G370" s="26"/>
       <c r="H370" s="27"/>
       <c r="I370" s="39"/>
-      <c r="J370" s="32"/>
-      <c r="K370" s="26"/>
-      <c r="L370" s="26"/>
-      <c r="M370" s="26"/>
-      <c r="N370" s="26"/>
-      <c r="O370" s="26"/>
-      <c r="P370" s="26"/>
-      <c r="Q370" s="26"/>
-      <c r="R370" s="26"/>
-      <c r="S370" s="26"/>
-      <c r="T370" s="26"/>
-      <c r="U370" s="26"/>
-      <c r="V370" s="26"/>
-      <c r="W370" s="26"/>
-      <c r="X370" s="26"/>
+      <c r="J370" s="64"/>
+      <c r="K370" s="64"/>
+      <c r="L370" s="64"/>
+      <c r="M370" s="64"/>
+      <c r="N370" s="64"/>
+      <c r="O370" s="64"/>
+      <c r="P370" s="64"/>
+      <c r="Q370" s="64"/>
+      <c r="R370" s="64"/>
+      <c r="S370" s="64"/>
+      <c r="T370" s="64"/>
+      <c r="U370" s="64"/>
+      <c r="V370" s="64"/>
+      <c r="W370" s="64"/>
+      <c r="X370" s="64"/>
     </row>
     <row r="371" ht="16.5" spans="1:24">
-      <c r="A371" s="28"/>
+      <c r="A371" s="26"/>
       <c r="B371" s="26"/>
       <c r="C371" s="26"/>
       <c r="D371" s="26"/>
@@ -19311,24 +19681,24 @@
       <c r="G371" s="26"/>
       <c r="H371" s="27"/>
       <c r="I371" s="39"/>
-      <c r="J371" s="32"/>
-      <c r="K371" s="26"/>
-      <c r="L371" s="26"/>
-      <c r="M371" s="26"/>
-      <c r="N371" s="26"/>
-      <c r="O371" s="26"/>
-      <c r="P371" s="26"/>
-      <c r="Q371" s="26"/>
-      <c r="R371" s="26"/>
-      <c r="S371" s="26"/>
-      <c r="T371" s="26"/>
-      <c r="U371" s="26"/>
-      <c r="V371" s="26"/>
-      <c r="W371" s="26"/>
-      <c r="X371" s="26"/>
+      <c r="J371" s="64"/>
+      <c r="K371" s="64"/>
+      <c r="L371" s="64"/>
+      <c r="M371" s="64"/>
+      <c r="N371" s="64"/>
+      <c r="O371" s="64"/>
+      <c r="P371" s="64"/>
+      <c r="Q371" s="64"/>
+      <c r="R371" s="64"/>
+      <c r="S371" s="64"/>
+      <c r="T371" s="64"/>
+      <c r="U371" s="64"/>
+      <c r="V371" s="64"/>
+      <c r="W371" s="64"/>
+      <c r="X371" s="64"/>
     </row>
     <row r="372" ht="16.5" spans="1:24">
-      <c r="A372" s="28"/>
+      <c r="A372" s="26"/>
       <c r="B372" s="26"/>
       <c r="C372" s="26"/>
       <c r="D372" s="26"/>
@@ -19337,24 +19707,24 @@
       <c r="G372" s="26"/>
       <c r="H372" s="27"/>
       <c r="I372" s="39"/>
-      <c r="J372" s="32"/>
-      <c r="K372" s="26"/>
-      <c r="L372" s="26"/>
-      <c r="M372" s="26"/>
-      <c r="N372" s="26"/>
-      <c r="O372" s="26"/>
-      <c r="P372" s="26"/>
-      <c r="Q372" s="26"/>
-      <c r="R372" s="26"/>
-      <c r="S372" s="26"/>
-      <c r="T372" s="26"/>
-      <c r="U372" s="26"/>
-      <c r="V372" s="26"/>
-      <c r="W372" s="26"/>
-      <c r="X372" s="26"/>
+      <c r="J372" s="64"/>
+      <c r="K372" s="64"/>
+      <c r="L372" s="64"/>
+      <c r="M372" s="64"/>
+      <c r="N372" s="64"/>
+      <c r="O372" s="64"/>
+      <c r="P372" s="64"/>
+      <c r="Q372" s="64"/>
+      <c r="R372" s="64"/>
+      <c r="S372" s="64"/>
+      <c r="T372" s="64"/>
+      <c r="U372" s="64"/>
+      <c r="V372" s="64"/>
+      <c r="W372" s="64"/>
+      <c r="X372" s="64"/>
     </row>
     <row r="373" ht="16.5" spans="1:24">
-      <c r="A373" s="28"/>
+      <c r="A373" s="26"/>
       <c r="B373" s="26"/>
       <c r="C373" s="26"/>
       <c r="D373" s="26"/>
@@ -19363,24 +19733,24 @@
       <c r="G373" s="26"/>
       <c r="H373" s="27"/>
       <c r="I373" s="39"/>
-      <c r="J373" s="32"/>
-      <c r="K373" s="26"/>
-      <c r="L373" s="26"/>
-      <c r="M373" s="26"/>
-      <c r="N373" s="26"/>
-      <c r="O373" s="26"/>
-      <c r="P373" s="26"/>
-      <c r="Q373" s="26"/>
-      <c r="R373" s="26"/>
-      <c r="S373" s="26"/>
-      <c r="T373" s="26"/>
-      <c r="U373" s="26"/>
-      <c r="V373" s="26"/>
-      <c r="W373" s="26"/>
-      <c r="X373" s="26"/>
+      <c r="J373" s="64"/>
+      <c r="K373" s="64"/>
+      <c r="L373" s="64"/>
+      <c r="M373" s="64"/>
+      <c r="N373" s="64"/>
+      <c r="O373" s="64"/>
+      <c r="P373" s="64"/>
+      <c r="Q373" s="64"/>
+      <c r="R373" s="64"/>
+      <c r="S373" s="64"/>
+      <c r="T373" s="64"/>
+      <c r="U373" s="64"/>
+      <c r="V373" s="64"/>
+      <c r="W373" s="64"/>
+      <c r="X373" s="64"/>
     </row>
     <row r="374" ht="16.5" spans="1:24">
-      <c r="A374" s="28"/>
+      <c r="A374" s="26"/>
       <c r="B374" s="26"/>
       <c r="C374" s="26"/>
       <c r="D374" s="26"/>
@@ -19389,24 +19759,24 @@
       <c r="G374" s="26"/>
       <c r="H374" s="27"/>
       <c r="I374" s="39"/>
-      <c r="J374" s="32"/>
-      <c r="K374" s="26"/>
-      <c r="L374" s="26"/>
-      <c r="M374" s="26"/>
-      <c r="N374" s="26"/>
-      <c r="O374" s="26"/>
-      <c r="P374" s="26"/>
-      <c r="Q374" s="26"/>
-      <c r="R374" s="26"/>
-      <c r="S374" s="26"/>
-      <c r="T374" s="26"/>
-      <c r="U374" s="26"/>
-      <c r="V374" s="26"/>
-      <c r="W374" s="26"/>
-      <c r="X374" s="26"/>
+      <c r="J374" s="64"/>
+      <c r="K374" s="64"/>
+      <c r="L374" s="64"/>
+      <c r="M374" s="64"/>
+      <c r="N374" s="64"/>
+      <c r="O374" s="64"/>
+      <c r="P374" s="64"/>
+      <c r="Q374" s="64"/>
+      <c r="R374" s="64"/>
+      <c r="S374" s="64"/>
+      <c r="T374" s="64"/>
+      <c r="U374" s="64"/>
+      <c r="V374" s="64"/>
+      <c r="W374" s="64"/>
+      <c r="X374" s="64"/>
     </row>
     <row r="375" ht="16.5" spans="1:24">
-      <c r="A375" s="28"/>
+      <c r="A375" s="26"/>
       <c r="B375" s="26"/>
       <c r="C375" s="26"/>
       <c r="D375" s="26"/>
@@ -19415,24 +19785,24 @@
       <c r="G375" s="26"/>
       <c r="H375" s="27"/>
       <c r="I375" s="39"/>
-      <c r="J375" s="32"/>
-      <c r="K375" s="26"/>
-      <c r="L375" s="26"/>
-      <c r="M375" s="26"/>
-      <c r="N375" s="26"/>
-      <c r="O375" s="26"/>
-      <c r="P375" s="26"/>
-      <c r="Q375" s="26"/>
-      <c r="R375" s="26"/>
-      <c r="S375" s="26"/>
-      <c r="T375" s="26"/>
-      <c r="U375" s="26"/>
-      <c r="V375" s="26"/>
-      <c r="W375" s="26"/>
-      <c r="X375" s="26"/>
+      <c r="J375" s="64"/>
+      <c r="K375" s="64"/>
+      <c r="L375" s="64"/>
+      <c r="M375" s="64"/>
+      <c r="N375" s="64"/>
+      <c r="O375" s="64"/>
+      <c r="P375" s="64"/>
+      <c r="Q375" s="64"/>
+      <c r="R375" s="64"/>
+      <c r="S375" s="64"/>
+      <c r="T375" s="64"/>
+      <c r="U375" s="64"/>
+      <c r="V375" s="64"/>
+      <c r="W375" s="64"/>
+      <c r="X375" s="64"/>
     </row>
     <row r="376" ht="16.5" spans="1:24">
-      <c r="A376" s="28"/>
+      <c r="A376" s="26"/>
       <c r="B376" s="26"/>
       <c r="C376" s="26"/>
       <c r="D376" s="26"/>
@@ -19441,24 +19811,24 @@
       <c r="G376" s="26"/>
       <c r="H376" s="27"/>
       <c r="I376" s="39"/>
-      <c r="J376" s="32"/>
-      <c r="K376" s="26"/>
-      <c r="L376" s="26"/>
-      <c r="M376" s="26"/>
-      <c r="N376" s="26"/>
-      <c r="O376" s="26"/>
-      <c r="P376" s="26"/>
-      <c r="Q376" s="26"/>
-      <c r="R376" s="26"/>
-      <c r="S376" s="26"/>
-      <c r="T376" s="26"/>
-      <c r="U376" s="26"/>
-      <c r="V376" s="26"/>
-      <c r="W376" s="26"/>
-      <c r="X376" s="26"/>
+      <c r="J376" s="64"/>
+      <c r="K376" s="64"/>
+      <c r="L376" s="64"/>
+      <c r="M376" s="64"/>
+      <c r="N376" s="64"/>
+      <c r="O376" s="64"/>
+      <c r="P376" s="64"/>
+      <c r="Q376" s="64"/>
+      <c r="R376" s="64"/>
+      <c r="S376" s="64"/>
+      <c r="T376" s="64"/>
+      <c r="U376" s="64"/>
+      <c r="V376" s="64"/>
+      <c r="W376" s="64"/>
+      <c r="X376" s="64"/>
     </row>
     <row r="377" ht="16.5" spans="1:24">
-      <c r="A377" s="28"/>
+      <c r="A377" s="26"/>
       <c r="B377" s="26"/>
       <c r="C377" s="26"/>
       <c r="D377" s="26"/>
@@ -19467,24 +19837,24 @@
       <c r="G377" s="26"/>
       <c r="H377" s="27"/>
       <c r="I377" s="39"/>
-      <c r="J377" s="32"/>
-      <c r="K377" s="26"/>
-      <c r="L377" s="26"/>
-      <c r="M377" s="26"/>
-      <c r="N377" s="26"/>
-      <c r="O377" s="26"/>
-      <c r="P377" s="26"/>
-      <c r="Q377" s="26"/>
-      <c r="R377" s="26"/>
-      <c r="S377" s="26"/>
-      <c r="T377" s="26"/>
-      <c r="U377" s="26"/>
-      <c r="V377" s="26"/>
-      <c r="W377" s="26"/>
-      <c r="X377" s="26"/>
+      <c r="J377" s="64"/>
+      <c r="K377" s="64"/>
+      <c r="L377" s="64"/>
+      <c r="M377" s="64"/>
+      <c r="N377" s="64"/>
+      <c r="O377" s="64"/>
+      <c r="P377" s="64"/>
+      <c r="Q377" s="64"/>
+      <c r="R377" s="64"/>
+      <c r="S377" s="64"/>
+      <c r="T377" s="64"/>
+      <c r="U377" s="64"/>
+      <c r="V377" s="64"/>
+      <c r="W377" s="64"/>
+      <c r="X377" s="64"/>
     </row>
     <row r="378" ht="16.5" spans="1:24">
-      <c r="A378" s="28"/>
+      <c r="A378" s="26"/>
       <c r="B378" s="26"/>
       <c r="C378" s="26"/>
       <c r="D378" s="26"/>
@@ -19493,21 +19863,21 @@
       <c r="G378" s="26"/>
       <c r="H378" s="27"/>
       <c r="I378" s="39"/>
-      <c r="J378" s="32"/>
-      <c r="K378" s="26"/>
-      <c r="L378" s="26"/>
-      <c r="M378" s="26"/>
-      <c r="N378" s="26"/>
-      <c r="O378" s="26"/>
-      <c r="P378" s="26"/>
-      <c r="Q378" s="26"/>
-      <c r="R378" s="26"/>
-      <c r="S378" s="26"/>
-      <c r="T378" s="26"/>
-      <c r="U378" s="26"/>
-      <c r="V378" s="26"/>
-      <c r="W378" s="26"/>
-      <c r="X378" s="26"/>
+      <c r="J378" s="64"/>
+      <c r="K378" s="64"/>
+      <c r="L378" s="64"/>
+      <c r="M378" s="64"/>
+      <c r="N378" s="64"/>
+      <c r="O378" s="64"/>
+      <c r="P378" s="64"/>
+      <c r="Q378" s="64"/>
+      <c r="R378" s="64"/>
+      <c r="S378" s="64"/>
+      <c r="T378" s="64"/>
+      <c r="U378" s="64"/>
+      <c r="V378" s="64"/>
+      <c r="W378" s="64"/>
+      <c r="X378" s="64"/>
     </row>
     <row r="379" ht="16.5" spans="1:24">
       <c r="A379" s="28"/>
@@ -19796,7 +20166,7 @@
       <c r="X389" s="26"/>
     </row>
     <row r="390" ht="16.5" spans="1:24">
-      <c r="A390" s="26"/>
+      <c r="A390" s="28"/>
       <c r="B390" s="26"/>
       <c r="C390" s="26"/>
       <c r="D390" s="26"/>
@@ -19805,24 +20175,24 @@
       <c r="G390" s="26"/>
       <c r="H390" s="27"/>
       <c r="I390" s="39"/>
-      <c r="J390" s="64"/>
-      <c r="K390" s="64"/>
-      <c r="L390" s="64"/>
-      <c r="M390" s="64"/>
-      <c r="N390" s="64"/>
-      <c r="O390" s="64"/>
-      <c r="P390" s="64"/>
-      <c r="Q390" s="64"/>
-      <c r="R390" s="64"/>
-      <c r="S390" s="64"/>
-      <c r="T390" s="64"/>
-      <c r="U390" s="64"/>
-      <c r="V390" s="64"/>
-      <c r="W390" s="64"/>
-      <c r="X390" s="64"/>
+      <c r="J390" s="32"/>
+      <c r="K390" s="26"/>
+      <c r="L390" s="26"/>
+      <c r="M390" s="26"/>
+      <c r="N390" s="26"/>
+      <c r="O390" s="26"/>
+      <c r="P390" s="26"/>
+      <c r="Q390" s="26"/>
+      <c r="R390" s="26"/>
+      <c r="S390" s="26"/>
+      <c r="T390" s="26"/>
+      <c r="U390" s="26"/>
+      <c r="V390" s="26"/>
+      <c r="W390" s="26"/>
+      <c r="X390" s="26"/>
     </row>
     <row r="391" ht="16.5" spans="1:24">
-      <c r="A391" s="26"/>
+      <c r="A391" s="28"/>
       <c r="B391" s="26"/>
       <c r="C391" s="26"/>
       <c r="D391" s="26"/>
@@ -19831,24 +20201,24 @@
       <c r="G391" s="26"/>
       <c r="H391" s="27"/>
       <c r="I391" s="39"/>
-      <c r="J391" s="64"/>
-      <c r="K391" s="64"/>
-      <c r="L391" s="64"/>
-      <c r="M391" s="64"/>
-      <c r="N391" s="64"/>
-      <c r="O391" s="64"/>
-      <c r="P391" s="64"/>
-      <c r="Q391" s="64"/>
-      <c r="R391" s="64"/>
-      <c r="S391" s="64"/>
-      <c r="T391" s="64"/>
-      <c r="U391" s="64"/>
-      <c r="V391" s="64"/>
-      <c r="W391" s="64"/>
-      <c r="X391" s="64"/>
+      <c r="J391" s="32"/>
+      <c r="K391" s="26"/>
+      <c r="L391" s="26"/>
+      <c r="M391" s="26"/>
+      <c r="N391" s="26"/>
+      <c r="O391" s="26"/>
+      <c r="P391" s="26"/>
+      <c r="Q391" s="26"/>
+      <c r="R391" s="26"/>
+      <c r="S391" s="26"/>
+      <c r="T391" s="26"/>
+      <c r="U391" s="26"/>
+      <c r="V391" s="26"/>
+      <c r="W391" s="26"/>
+      <c r="X391" s="26"/>
     </row>
     <row r="392" ht="16.5" spans="1:24">
-      <c r="A392" s="26"/>
+      <c r="A392" s="28"/>
       <c r="B392" s="26"/>
       <c r="C392" s="26"/>
       <c r="D392" s="26"/>
@@ -19857,24 +20227,24 @@
       <c r="G392" s="26"/>
       <c r="H392" s="27"/>
       <c r="I392" s="39"/>
-      <c r="J392" s="64"/>
-      <c r="K392" s="64"/>
-      <c r="L392" s="64"/>
-      <c r="M392" s="64"/>
-      <c r="N392" s="64"/>
-      <c r="O392" s="64"/>
-      <c r="P392" s="64"/>
-      <c r="Q392" s="64"/>
-      <c r="R392" s="64"/>
-      <c r="S392" s="64"/>
-      <c r="T392" s="64"/>
-      <c r="U392" s="64"/>
-      <c r="V392" s="64"/>
-      <c r="W392" s="64"/>
-      <c r="X392" s="64"/>
+      <c r="J392" s="32"/>
+      <c r="K392" s="26"/>
+      <c r="L392" s="26"/>
+      <c r="M392" s="26"/>
+      <c r="N392" s="26"/>
+      <c r="O392" s="26"/>
+      <c r="P392" s="26"/>
+      <c r="Q392" s="26"/>
+      <c r="R392" s="26"/>
+      <c r="S392" s="26"/>
+      <c r="T392" s="26"/>
+      <c r="U392" s="26"/>
+      <c r="V392" s="26"/>
+      <c r="W392" s="26"/>
+      <c r="X392" s="26"/>
     </row>
     <row r="393" ht="16.5" spans="1:24">
-      <c r="A393" s="26"/>
+      <c r="A393" s="28"/>
       <c r="B393" s="26"/>
       <c r="C393" s="26"/>
       <c r="D393" s="26"/>
@@ -19883,24 +20253,24 @@
       <c r="G393" s="26"/>
       <c r="H393" s="27"/>
       <c r="I393" s="39"/>
-      <c r="J393" s="64"/>
-      <c r="K393" s="64"/>
-      <c r="L393" s="64"/>
-      <c r="M393" s="64"/>
-      <c r="N393" s="64"/>
-      <c r="O393" s="64"/>
-      <c r="P393" s="64"/>
-      <c r="Q393" s="64"/>
-      <c r="R393" s="64"/>
-      <c r="S393" s="64"/>
-      <c r="T393" s="64"/>
-      <c r="U393" s="64"/>
-      <c r="V393" s="64"/>
-      <c r="W393" s="64"/>
-      <c r="X393" s="64"/>
+      <c r="J393" s="32"/>
+      <c r="K393" s="26"/>
+      <c r="L393" s="26"/>
+      <c r="M393" s="26"/>
+      <c r="N393" s="26"/>
+      <c r="O393" s="26"/>
+      <c r="P393" s="26"/>
+      <c r="Q393" s="26"/>
+      <c r="R393" s="26"/>
+      <c r="S393" s="26"/>
+      <c r="T393" s="26"/>
+      <c r="U393" s="26"/>
+      <c r="V393" s="26"/>
+      <c r="W393" s="26"/>
+      <c r="X393" s="26"/>
     </row>
     <row r="394" ht="16.5" spans="1:24">
-      <c r="A394" s="26"/>
+      <c r="A394" s="28"/>
       <c r="B394" s="26"/>
       <c r="C394" s="26"/>
       <c r="D394" s="26"/>
@@ -19909,24 +20279,24 @@
       <c r="G394" s="26"/>
       <c r="H394" s="27"/>
       <c r="I394" s="39"/>
-      <c r="J394" s="64"/>
-      <c r="K394" s="64"/>
-      <c r="L394" s="64"/>
-      <c r="M394" s="64"/>
-      <c r="N394" s="64"/>
-      <c r="O394" s="64"/>
-      <c r="P394" s="64"/>
-      <c r="Q394" s="64"/>
-      <c r="R394" s="64"/>
-      <c r="S394" s="64"/>
-      <c r="T394" s="64"/>
-      <c r="U394" s="64"/>
-      <c r="V394" s="64"/>
-      <c r="W394" s="64"/>
-      <c r="X394" s="64"/>
+      <c r="J394" s="32"/>
+      <c r="K394" s="26"/>
+      <c r="L394" s="26"/>
+      <c r="M394" s="26"/>
+      <c r="N394" s="26"/>
+      <c r="O394" s="26"/>
+      <c r="P394" s="26"/>
+      <c r="Q394" s="26"/>
+      <c r="R394" s="26"/>
+      <c r="S394" s="26"/>
+      <c r="T394" s="26"/>
+      <c r="U394" s="26"/>
+      <c r="V394" s="26"/>
+      <c r="W394" s="26"/>
+      <c r="X394" s="26"/>
     </row>
     <row r="395" ht="16.5" spans="1:24">
-      <c r="A395" s="26"/>
+      <c r="A395" s="28"/>
       <c r="B395" s="26"/>
       <c r="C395" s="26"/>
       <c r="D395" s="26"/>
@@ -19935,24 +20305,24 @@
       <c r="G395" s="26"/>
       <c r="H395" s="27"/>
       <c r="I395" s="39"/>
-      <c r="J395" s="64"/>
-      <c r="K395" s="64"/>
-      <c r="L395" s="64"/>
-      <c r="M395" s="64"/>
-      <c r="N395" s="64"/>
-      <c r="O395" s="64"/>
-      <c r="P395" s="64"/>
-      <c r="Q395" s="64"/>
-      <c r="R395" s="64"/>
-      <c r="S395" s="64"/>
-      <c r="T395" s="64"/>
-      <c r="U395" s="64"/>
-      <c r="V395" s="64"/>
-      <c r="W395" s="64"/>
-      <c r="X395" s="64"/>
+      <c r="J395" s="32"/>
+      <c r="K395" s="26"/>
+      <c r="L395" s="26"/>
+      <c r="M395" s="26"/>
+      <c r="N395" s="26"/>
+      <c r="O395" s="26"/>
+      <c r="P395" s="26"/>
+      <c r="Q395" s="26"/>
+      <c r="R395" s="26"/>
+      <c r="S395" s="26"/>
+      <c r="T395" s="26"/>
+      <c r="U395" s="26"/>
+      <c r="V395" s="26"/>
+      <c r="W395" s="26"/>
+      <c r="X395" s="26"/>
     </row>
     <row r="396" ht="16.5" spans="1:24">
-      <c r="A396" s="26"/>
+      <c r="A396" s="28"/>
       <c r="B396" s="26"/>
       <c r="C396" s="26"/>
       <c r="D396" s="26"/>
@@ -19961,24 +20331,24 @@
       <c r="G396" s="26"/>
       <c r="H396" s="27"/>
       <c r="I396" s="39"/>
-      <c r="J396" s="64"/>
-      <c r="K396" s="64"/>
-      <c r="L396" s="64"/>
-      <c r="M396" s="64"/>
-      <c r="N396" s="64"/>
-      <c r="O396" s="64"/>
-      <c r="P396" s="64"/>
-      <c r="Q396" s="64"/>
-      <c r="R396" s="64"/>
-      <c r="S396" s="64"/>
-      <c r="T396" s="64"/>
-      <c r="U396" s="64"/>
-      <c r="V396" s="64"/>
-      <c r="W396" s="64"/>
-      <c r="X396" s="64"/>
+      <c r="J396" s="32"/>
+      <c r="K396" s="26"/>
+      <c r="L396" s="26"/>
+      <c r="M396" s="26"/>
+      <c r="N396" s="26"/>
+      <c r="O396" s="26"/>
+      <c r="P396" s="26"/>
+      <c r="Q396" s="26"/>
+      <c r="R396" s="26"/>
+      <c r="S396" s="26"/>
+      <c r="T396" s="26"/>
+      <c r="U396" s="26"/>
+      <c r="V396" s="26"/>
+      <c r="W396" s="26"/>
+      <c r="X396" s="26"/>
     </row>
     <row r="397" ht="16.5" spans="1:24">
-      <c r="A397" s="26"/>
+      <c r="A397" s="28"/>
       <c r="B397" s="26"/>
       <c r="C397" s="26"/>
       <c r="D397" s="26"/>
@@ -19987,24 +20357,24 @@
       <c r="G397" s="26"/>
       <c r="H397" s="27"/>
       <c r="I397" s="39"/>
-      <c r="J397" s="64"/>
-      <c r="K397" s="64"/>
-      <c r="L397" s="64"/>
-      <c r="M397" s="64"/>
-      <c r="N397" s="64"/>
-      <c r="O397" s="64"/>
-      <c r="P397" s="64"/>
-      <c r="Q397" s="64"/>
-      <c r="R397" s="64"/>
-      <c r="S397" s="64"/>
-      <c r="T397" s="64"/>
-      <c r="U397" s="64"/>
-      <c r="V397" s="64"/>
-      <c r="W397" s="64"/>
-      <c r="X397" s="64"/>
+      <c r="J397" s="32"/>
+      <c r="K397" s="26"/>
+      <c r="L397" s="26"/>
+      <c r="M397" s="26"/>
+      <c r="N397" s="26"/>
+      <c r="O397" s="26"/>
+      <c r="P397" s="26"/>
+      <c r="Q397" s="26"/>
+      <c r="R397" s="26"/>
+      <c r="S397" s="26"/>
+      <c r="T397" s="26"/>
+      <c r="U397" s="26"/>
+      <c r="V397" s="26"/>
+      <c r="W397" s="26"/>
+      <c r="X397" s="26"/>
     </row>
     <row r="398" ht="16.5" spans="1:24">
-      <c r="A398" s="26"/>
+      <c r="A398" s="28"/>
       <c r="B398" s="26"/>
       <c r="C398" s="26"/>
       <c r="D398" s="26"/>
@@ -20013,24 +20383,24 @@
       <c r="G398" s="26"/>
       <c r="H398" s="27"/>
       <c r="I398" s="39"/>
-      <c r="J398" s="64"/>
-      <c r="K398" s="64"/>
-      <c r="L398" s="64"/>
-      <c r="M398" s="64"/>
-      <c r="N398" s="64"/>
-      <c r="O398" s="64"/>
-      <c r="P398" s="64"/>
-      <c r="Q398" s="64"/>
-      <c r="R398" s="64"/>
-      <c r="S398" s="64"/>
-      <c r="T398" s="64"/>
-      <c r="U398" s="64"/>
-      <c r="V398" s="64"/>
-      <c r="W398" s="64"/>
-      <c r="X398" s="64"/>
+      <c r="J398" s="32"/>
+      <c r="K398" s="26"/>
+      <c r="L398" s="26"/>
+      <c r="M398" s="26"/>
+      <c r="N398" s="26"/>
+      <c r="O398" s="26"/>
+      <c r="P398" s="26"/>
+      <c r="Q398" s="26"/>
+      <c r="R398" s="26"/>
+      <c r="S398" s="26"/>
+      <c r="T398" s="26"/>
+      <c r="U398" s="26"/>
+      <c r="V398" s="26"/>
+      <c r="W398" s="26"/>
+      <c r="X398" s="26"/>
     </row>
     <row r="399" ht="16.5" spans="1:24">
-      <c r="A399" s="26"/>
+      <c r="A399" s="28"/>
       <c r="B399" s="26"/>
       <c r="C399" s="26"/>
       <c r="D399" s="26"/>
@@ -20039,24 +20409,24 @@
       <c r="G399" s="26"/>
       <c r="H399" s="27"/>
       <c r="I399" s="39"/>
-      <c r="J399" s="64"/>
-      <c r="K399" s="64"/>
-      <c r="L399" s="64"/>
-      <c r="M399" s="64"/>
-      <c r="N399" s="64"/>
-      <c r="O399" s="64"/>
-      <c r="P399" s="64"/>
-      <c r="Q399" s="64"/>
-      <c r="R399" s="64"/>
-      <c r="S399" s="64"/>
-      <c r="T399" s="64"/>
-      <c r="U399" s="64"/>
-      <c r="V399" s="64"/>
-      <c r="W399" s="64"/>
-      <c r="X399" s="64"/>
+      <c r="J399" s="32"/>
+      <c r="K399" s="26"/>
+      <c r="L399" s="26"/>
+      <c r="M399" s="26"/>
+      <c r="N399" s="26"/>
+      <c r="O399" s="26"/>
+      <c r="P399" s="26"/>
+      <c r="Q399" s="26"/>
+      <c r="R399" s="26"/>
+      <c r="S399" s="26"/>
+      <c r="T399" s="26"/>
+      <c r="U399" s="26"/>
+      <c r="V399" s="26"/>
+      <c r="W399" s="26"/>
+      <c r="X399" s="26"/>
     </row>
     <row r="400" ht="16.5" spans="1:24">
-      <c r="A400" s="26"/>
+      <c r="A400" s="28"/>
       <c r="B400" s="26"/>
       <c r="C400" s="26"/>
       <c r="D400" s="26"/>
@@ -20065,21 +20435,21 @@
       <c r="G400" s="26"/>
       <c r="H400" s="27"/>
       <c r="I400" s="39"/>
-      <c r="J400" s="64"/>
-      <c r="K400" s="64"/>
-      <c r="L400" s="64"/>
-      <c r="M400" s="64"/>
-      <c r="N400" s="64"/>
-      <c r="O400" s="64"/>
-      <c r="P400" s="64"/>
-      <c r="Q400" s="64"/>
-      <c r="R400" s="64"/>
-      <c r="S400" s="64"/>
-      <c r="T400" s="64"/>
-      <c r="U400" s="64"/>
-      <c r="V400" s="64"/>
-      <c r="W400" s="64"/>
-      <c r="X400" s="64"/>
+      <c r="J400" s="32"/>
+      <c r="K400" s="26"/>
+      <c r="L400" s="26"/>
+      <c r="M400" s="26"/>
+      <c r="N400" s="26"/>
+      <c r="O400" s="26"/>
+      <c r="P400" s="26"/>
+      <c r="Q400" s="26"/>
+      <c r="R400" s="26"/>
+      <c r="S400" s="26"/>
+      <c r="T400" s="26"/>
+      <c r="U400" s="26"/>
+      <c r="V400" s="26"/>
+      <c r="W400" s="26"/>
+      <c r="X400" s="26"/>
     </row>
     <row r="401" ht="16.5" spans="1:24">
       <c r="A401" s="26"/>
@@ -21356,7 +21726,7 @@
       <c r="X449" s="64"/>
     </row>
     <row r="450" ht="16.5" spans="1:24">
-      <c r="A450" s="28"/>
+      <c r="A450" s="26"/>
       <c r="B450" s="26"/>
       <c r="C450" s="26"/>
       <c r="D450" s="26"/>
@@ -21365,24 +21735,24 @@
       <c r="G450" s="26"/>
       <c r="H450" s="27"/>
       <c r="I450" s="39"/>
-      <c r="J450" s="32"/>
-      <c r="K450" s="26"/>
-      <c r="L450" s="26"/>
-      <c r="M450" s="26"/>
-      <c r="N450" s="26"/>
-      <c r="O450" s="26"/>
-      <c r="P450" s="26"/>
-      <c r="Q450" s="26"/>
-      <c r="R450" s="26"/>
-      <c r="S450" s="26"/>
-      <c r="T450" s="26"/>
-      <c r="U450" s="26"/>
-      <c r="V450" s="26"/>
-      <c r="W450" s="26"/>
-      <c r="X450" s="26"/>
+      <c r="J450" s="64"/>
+      <c r="K450" s="64"/>
+      <c r="L450" s="64"/>
+      <c r="M450" s="64"/>
+      <c r="N450" s="64"/>
+      <c r="O450" s="64"/>
+      <c r="P450" s="64"/>
+      <c r="Q450" s="64"/>
+      <c r="R450" s="64"/>
+      <c r="S450" s="64"/>
+      <c r="T450" s="64"/>
+      <c r="U450" s="64"/>
+      <c r="V450" s="64"/>
+      <c r="W450" s="64"/>
+      <c r="X450" s="64"/>
     </row>
     <row r="451" ht="16.5" spans="1:24">
-      <c r="A451" s="28"/>
+      <c r="A451" s="26"/>
       <c r="B451" s="26"/>
       <c r="C451" s="26"/>
       <c r="D451" s="26"/>
@@ -21391,24 +21761,24 @@
       <c r="G451" s="26"/>
       <c r="H451" s="27"/>
       <c r="I451" s="39"/>
-      <c r="J451" s="32"/>
-      <c r="K451" s="26"/>
-      <c r="L451" s="26"/>
-      <c r="M451" s="26"/>
-      <c r="N451" s="26"/>
-      <c r="O451" s="26"/>
-      <c r="P451" s="26"/>
-      <c r="Q451" s="26"/>
-      <c r="R451" s="26"/>
-      <c r="S451" s="26"/>
-      <c r="T451" s="26"/>
-      <c r="U451" s="26"/>
-      <c r="V451" s="26"/>
-      <c r="W451" s="26"/>
-      <c r="X451" s="26"/>
+      <c r="J451" s="64"/>
+      <c r="K451" s="64"/>
+      <c r="L451" s="64"/>
+      <c r="M451" s="64"/>
+      <c r="N451" s="64"/>
+      <c r="O451" s="64"/>
+      <c r="P451" s="64"/>
+      <c r="Q451" s="64"/>
+      <c r="R451" s="64"/>
+      <c r="S451" s="64"/>
+      <c r="T451" s="64"/>
+      <c r="U451" s="64"/>
+      <c r="V451" s="64"/>
+      <c r="W451" s="64"/>
+      <c r="X451" s="64"/>
     </row>
     <row r="452" ht="16.5" spans="1:24">
-      <c r="A452" s="28"/>
+      <c r="A452" s="26"/>
       <c r="B452" s="26"/>
       <c r="C452" s="26"/>
       <c r="D452" s="26"/>
@@ -21417,24 +21787,24 @@
       <c r="G452" s="26"/>
       <c r="H452" s="27"/>
       <c r="I452" s="39"/>
-      <c r="J452" s="32"/>
-      <c r="K452" s="26"/>
-      <c r="L452" s="26"/>
-      <c r="M452" s="26"/>
-      <c r="N452" s="26"/>
-      <c r="O452" s="26"/>
-      <c r="P452" s="26"/>
-      <c r="Q452" s="26"/>
-      <c r="R452" s="26"/>
-      <c r="S452" s="26"/>
-      <c r="T452" s="26"/>
-      <c r="U452" s="26"/>
-      <c r="V452" s="26"/>
-      <c r="W452" s="26"/>
-      <c r="X452" s="26"/>
+      <c r="J452" s="64"/>
+      <c r="K452" s="64"/>
+      <c r="L452" s="64"/>
+      <c r="M452" s="64"/>
+      <c r="N452" s="64"/>
+      <c r="O452" s="64"/>
+      <c r="P452" s="64"/>
+      <c r="Q452" s="64"/>
+      <c r="R452" s="64"/>
+      <c r="S452" s="64"/>
+      <c r="T452" s="64"/>
+      <c r="U452" s="64"/>
+      <c r="V452" s="64"/>
+      <c r="W452" s="64"/>
+      <c r="X452" s="64"/>
     </row>
     <row r="453" ht="16.5" spans="1:24">
-      <c r="A453" s="28"/>
+      <c r="A453" s="26"/>
       <c r="B453" s="26"/>
       <c r="C453" s="26"/>
       <c r="D453" s="26"/>
@@ -21443,24 +21813,24 @@
       <c r="G453" s="26"/>
       <c r="H453" s="27"/>
       <c r="I453" s="39"/>
-      <c r="J453" s="32"/>
-      <c r="K453" s="26"/>
-      <c r="L453" s="26"/>
-      <c r="M453" s="26"/>
-      <c r="N453" s="26"/>
-      <c r="O453" s="26"/>
-      <c r="P453" s="26"/>
-      <c r="Q453" s="26"/>
-      <c r="R453" s="26"/>
-      <c r="S453" s="26"/>
-      <c r="T453" s="26"/>
-      <c r="U453" s="26"/>
-      <c r="V453" s="26"/>
-      <c r="W453" s="26"/>
-      <c r="X453" s="26"/>
+      <c r="J453" s="64"/>
+      <c r="K453" s="64"/>
+      <c r="L453" s="64"/>
+      <c r="M453" s="64"/>
+      <c r="N453" s="64"/>
+      <c r="O453" s="64"/>
+      <c r="P453" s="64"/>
+      <c r="Q453" s="64"/>
+      <c r="R453" s="64"/>
+      <c r="S453" s="64"/>
+      <c r="T453" s="64"/>
+      <c r="U453" s="64"/>
+      <c r="V453" s="64"/>
+      <c r="W453" s="64"/>
+      <c r="X453" s="64"/>
     </row>
     <row r="454" ht="16.5" spans="1:24">
-      <c r="A454" s="28"/>
+      <c r="A454" s="26"/>
       <c r="B454" s="26"/>
       <c r="C454" s="26"/>
       <c r="D454" s="26"/>
@@ -21469,24 +21839,24 @@
       <c r="G454" s="26"/>
       <c r="H454" s="27"/>
       <c r="I454" s="39"/>
-      <c r="J454" s="32"/>
-      <c r="K454" s="26"/>
-      <c r="L454" s="26"/>
-      <c r="M454" s="26"/>
-      <c r="N454" s="26"/>
-      <c r="O454" s="26"/>
-      <c r="P454" s="26"/>
-      <c r="Q454" s="26"/>
-      <c r="R454" s="26"/>
-      <c r="S454" s="26"/>
-      <c r="T454" s="26"/>
-      <c r="U454" s="26"/>
-      <c r="V454" s="26"/>
-      <c r="W454" s="26"/>
-      <c r="X454" s="26"/>
+      <c r="J454" s="64"/>
+      <c r="K454" s="64"/>
+      <c r="L454" s="64"/>
+      <c r="M454" s="64"/>
+      <c r="N454" s="64"/>
+      <c r="O454" s="64"/>
+      <c r="P454" s="64"/>
+      <c r="Q454" s="64"/>
+      <c r="R454" s="64"/>
+      <c r="S454" s="64"/>
+      <c r="T454" s="64"/>
+      <c r="U454" s="64"/>
+      <c r="V454" s="64"/>
+      <c r="W454" s="64"/>
+      <c r="X454" s="64"/>
     </row>
     <row r="455" ht="16.5" spans="1:24">
-      <c r="A455" s="28"/>
+      <c r="A455" s="26"/>
       <c r="B455" s="26"/>
       <c r="C455" s="26"/>
       <c r="D455" s="26"/>
@@ -21495,24 +21865,24 @@
       <c r="G455" s="26"/>
       <c r="H455" s="27"/>
       <c r="I455" s="39"/>
-      <c r="J455" s="32"/>
-      <c r="K455" s="26"/>
-      <c r="L455" s="26"/>
-      <c r="M455" s="26"/>
-      <c r="N455" s="26"/>
-      <c r="O455" s="26"/>
-      <c r="P455" s="26"/>
-      <c r="Q455" s="26"/>
-      <c r="R455" s="26"/>
-      <c r="S455" s="26"/>
-      <c r="T455" s="26"/>
-      <c r="U455" s="26"/>
-      <c r="V455" s="26"/>
-      <c r="W455" s="26"/>
-      <c r="X455" s="26"/>
+      <c r="J455" s="64"/>
+      <c r="K455" s="64"/>
+      <c r="L455" s="64"/>
+      <c r="M455" s="64"/>
+      <c r="N455" s="64"/>
+      <c r="O455" s="64"/>
+      <c r="P455" s="64"/>
+      <c r="Q455" s="64"/>
+      <c r="R455" s="64"/>
+      <c r="S455" s="64"/>
+      <c r="T455" s="64"/>
+      <c r="U455" s="64"/>
+      <c r="V455" s="64"/>
+      <c r="W455" s="64"/>
+      <c r="X455" s="64"/>
     </row>
     <row r="456" ht="16.5" spans="1:24">
-      <c r="A456" s="28"/>
+      <c r="A456" s="26"/>
       <c r="B456" s="26"/>
       <c r="C456" s="26"/>
       <c r="D456" s="26"/>
@@ -21521,24 +21891,24 @@
       <c r="G456" s="26"/>
       <c r="H456" s="27"/>
       <c r="I456" s="39"/>
-      <c r="J456" s="32"/>
-      <c r="K456" s="26"/>
-      <c r="L456" s="26"/>
-      <c r="M456" s="26"/>
-      <c r="N456" s="26"/>
-      <c r="O456" s="26"/>
-      <c r="P456" s="26"/>
-      <c r="Q456" s="26"/>
-      <c r="R456" s="26"/>
-      <c r="S456" s="26"/>
-      <c r="T456" s="26"/>
-      <c r="U456" s="26"/>
-      <c r="V456" s="26"/>
-      <c r="W456" s="26"/>
-      <c r="X456" s="26"/>
+      <c r="J456" s="64"/>
+      <c r="K456" s="64"/>
+      <c r="L456" s="64"/>
+      <c r="M456" s="64"/>
+      <c r="N456" s="64"/>
+      <c r="O456" s="64"/>
+      <c r="P456" s="64"/>
+      <c r="Q456" s="64"/>
+      <c r="R456" s="64"/>
+      <c r="S456" s="64"/>
+      <c r="T456" s="64"/>
+      <c r="U456" s="64"/>
+      <c r="V456" s="64"/>
+      <c r="W456" s="64"/>
+      <c r="X456" s="64"/>
     </row>
     <row r="457" ht="16.5" spans="1:24">
-      <c r="A457" s="28"/>
+      <c r="A457" s="26"/>
       <c r="B457" s="26"/>
       <c r="C457" s="26"/>
       <c r="D457" s="26"/>
@@ -21547,24 +21917,24 @@
       <c r="G457" s="26"/>
       <c r="H457" s="27"/>
       <c r="I457" s="39"/>
-      <c r="J457" s="32"/>
-      <c r="K457" s="26"/>
-      <c r="L457" s="26"/>
-      <c r="M457" s="26"/>
-      <c r="N457" s="26"/>
-      <c r="O457" s="26"/>
-      <c r="P457" s="26"/>
-      <c r="Q457" s="26"/>
-      <c r="R457" s="26"/>
-      <c r="S457" s="26"/>
-      <c r="T457" s="26"/>
-      <c r="U457" s="26"/>
-      <c r="V457" s="26"/>
-      <c r="W457" s="26"/>
-      <c r="X457" s="26"/>
+      <c r="J457" s="64"/>
+      <c r="K457" s="64"/>
+      <c r="L457" s="64"/>
+      <c r="M457" s="64"/>
+      <c r="N457" s="64"/>
+      <c r="O457" s="64"/>
+      <c r="P457" s="64"/>
+      <c r="Q457" s="64"/>
+      <c r="R457" s="64"/>
+      <c r="S457" s="64"/>
+      <c r="T457" s="64"/>
+      <c r="U457" s="64"/>
+      <c r="V457" s="64"/>
+      <c r="W457" s="64"/>
+      <c r="X457" s="64"/>
     </row>
     <row r="458" ht="16.5" spans="1:24">
-      <c r="A458" s="28"/>
+      <c r="A458" s="26"/>
       <c r="B458" s="26"/>
       <c r="C458" s="26"/>
       <c r="D458" s="26"/>
@@ -21573,24 +21943,24 @@
       <c r="G458" s="26"/>
       <c r="H458" s="27"/>
       <c r="I458" s="39"/>
-      <c r="J458" s="32"/>
-      <c r="K458" s="26"/>
-      <c r="L458" s="26"/>
-      <c r="M458" s="26"/>
-      <c r="N458" s="26"/>
-      <c r="O458" s="26"/>
-      <c r="P458" s="26"/>
-      <c r="Q458" s="26"/>
-      <c r="R458" s="26"/>
-      <c r="S458" s="26"/>
-      <c r="T458" s="26"/>
-      <c r="U458" s="26"/>
-      <c r="V458" s="26"/>
-      <c r="W458" s="26"/>
-      <c r="X458" s="26"/>
+      <c r="J458" s="64"/>
+      <c r="K458" s="64"/>
+      <c r="L458" s="64"/>
+      <c r="M458" s="64"/>
+      <c r="N458" s="64"/>
+      <c r="O458" s="64"/>
+      <c r="P458" s="64"/>
+      <c r="Q458" s="64"/>
+      <c r="R458" s="64"/>
+      <c r="S458" s="64"/>
+      <c r="T458" s="64"/>
+      <c r="U458" s="64"/>
+      <c r="V458" s="64"/>
+      <c r="W458" s="64"/>
+      <c r="X458" s="64"/>
     </row>
     <row r="459" ht="16.5" spans="1:24">
-      <c r="A459" s="28"/>
+      <c r="A459" s="26"/>
       <c r="B459" s="26"/>
       <c r="C459" s="26"/>
       <c r="D459" s="26"/>
@@ -21599,24 +21969,24 @@
       <c r="G459" s="26"/>
       <c r="H459" s="27"/>
       <c r="I459" s="39"/>
-      <c r="J459" s="32"/>
-      <c r="K459" s="26"/>
-      <c r="L459" s="26"/>
-      <c r="M459" s="26"/>
-      <c r="N459" s="26"/>
-      <c r="O459" s="26"/>
-      <c r="P459" s="26"/>
-      <c r="Q459" s="26"/>
-      <c r="R459" s="26"/>
-      <c r="S459" s="26"/>
-      <c r="T459" s="26"/>
-      <c r="U459" s="26"/>
-      <c r="V459" s="26"/>
-      <c r="W459" s="26"/>
-      <c r="X459" s="26"/>
+      <c r="J459" s="64"/>
+      <c r="K459" s="64"/>
+      <c r="L459" s="64"/>
+      <c r="M459" s="64"/>
+      <c r="N459" s="64"/>
+      <c r="O459" s="64"/>
+      <c r="P459" s="64"/>
+      <c r="Q459" s="64"/>
+      <c r="R459" s="64"/>
+      <c r="S459" s="64"/>
+      <c r="T459" s="64"/>
+      <c r="U459" s="64"/>
+      <c r="V459" s="64"/>
+      <c r="W459" s="64"/>
+      <c r="X459" s="64"/>
     </row>
     <row r="460" ht="16.5" spans="1:24">
-      <c r="A460" s="28"/>
+      <c r="A460" s="26"/>
       <c r="B460" s="26"/>
       <c r="C460" s="26"/>
       <c r="D460" s="26"/>
@@ -21625,21 +21995,21 @@
       <c r="G460" s="26"/>
       <c r="H460" s="27"/>
       <c r="I460" s="39"/>
-      <c r="J460" s="32"/>
-      <c r="K460" s="26"/>
-      <c r="L460" s="26"/>
-      <c r="M460" s="26"/>
-      <c r="N460" s="26"/>
-      <c r="O460" s="26"/>
-      <c r="P460" s="26"/>
-      <c r="Q460" s="26"/>
-      <c r="R460" s="26"/>
-      <c r="S460" s="26"/>
-      <c r="T460" s="26"/>
-      <c r="U460" s="26"/>
-      <c r="V460" s="26"/>
-      <c r="W460" s="26"/>
-      <c r="X460" s="26"/>
+      <c r="J460" s="64"/>
+      <c r="K460" s="64"/>
+      <c r="L460" s="64"/>
+      <c r="M460" s="64"/>
+      <c r="N460" s="64"/>
+      <c r="O460" s="64"/>
+      <c r="P460" s="64"/>
+      <c r="Q460" s="64"/>
+      <c r="R460" s="64"/>
+      <c r="S460" s="64"/>
+      <c r="T460" s="64"/>
+      <c r="U460" s="64"/>
+      <c r="V460" s="64"/>
+      <c r="W460" s="64"/>
+      <c r="X460" s="64"/>
     </row>
     <row r="461" ht="16.5" spans="1:24">
       <c r="A461" s="28"/>
@@ -21824,290 +22194,290 @@
       <c r="X467" s="26"/>
     </row>
     <row r="468" ht="16.5" spans="1:24">
-      <c r="A468" s="64"/>
-      <c r="B468" s="64"/>
-      <c r="C468" s="64"/>
-      <c r="D468" s="64"/>
-      <c r="E468" s="64"/>
-      <c r="F468" s="64"/>
-      <c r="G468" s="64"/>
-      <c r="H468" s="64"/>
+      <c r="A468" s="28"/>
+      <c r="B468" s="26"/>
+      <c r="C468" s="26"/>
+      <c r="D468" s="26"/>
+      <c r="E468" s="26"/>
+      <c r="F468" s="26"/>
+      <c r="G468" s="26"/>
+      <c r="H468" s="27"/>
       <c r="I468" s="39"/>
-      <c r="J468" s="64"/>
-      <c r="K468" s="64"/>
-      <c r="L468" s="64"/>
-      <c r="M468" s="64"/>
-      <c r="N468" s="64"/>
-      <c r="O468" s="64"/>
-      <c r="P468" s="64"/>
-      <c r="Q468" s="64"/>
-      <c r="R468" s="64"/>
-      <c r="S468" s="64"/>
-      <c r="T468" s="64"/>
-      <c r="U468" s="64"/>
-      <c r="V468" s="64"/>
-      <c r="W468" s="64"/>
-      <c r="X468" s="64"/>
+      <c r="J468" s="32"/>
+      <c r="K468" s="26"/>
+      <c r="L468" s="26"/>
+      <c r="M468" s="26"/>
+      <c r="N468" s="26"/>
+      <c r="O468" s="26"/>
+      <c r="P468" s="26"/>
+      <c r="Q468" s="26"/>
+      <c r="R468" s="26"/>
+      <c r="S468" s="26"/>
+      <c r="T468" s="26"/>
+      <c r="U468" s="26"/>
+      <c r="V468" s="26"/>
+      <c r="W468" s="26"/>
+      <c r="X468" s="26"/>
     </row>
     <row r="469" ht="16.5" spans="1:24">
-      <c r="A469" s="64"/>
-      <c r="B469" s="64"/>
-      <c r="C469" s="64"/>
-      <c r="D469" s="64"/>
-      <c r="E469" s="64"/>
-      <c r="F469" s="64"/>
-      <c r="G469" s="64"/>
-      <c r="H469" s="64"/>
+      <c r="A469" s="28"/>
+      <c r="B469" s="26"/>
+      <c r="C469" s="26"/>
+      <c r="D469" s="26"/>
+      <c r="E469" s="26"/>
+      <c r="F469" s="26"/>
+      <c r="G469" s="26"/>
+      <c r="H469" s="27"/>
       <c r="I469" s="39"/>
-      <c r="J469" s="64"/>
-      <c r="K469" s="64"/>
-      <c r="L469" s="64"/>
-      <c r="M469" s="64"/>
-      <c r="N469" s="64"/>
-      <c r="O469" s="64"/>
-      <c r="P469" s="64"/>
-      <c r="Q469" s="64"/>
-      <c r="R469" s="64"/>
-      <c r="S469" s="64"/>
-      <c r="T469" s="64"/>
-      <c r="U469" s="64"/>
-      <c r="V469" s="64"/>
-      <c r="W469" s="64"/>
-      <c r="X469" s="64"/>
+      <c r="J469" s="32"/>
+      <c r="K469" s="26"/>
+      <c r="L469" s="26"/>
+      <c r="M469" s="26"/>
+      <c r="N469" s="26"/>
+      <c r="O469" s="26"/>
+      <c r="P469" s="26"/>
+      <c r="Q469" s="26"/>
+      <c r="R469" s="26"/>
+      <c r="S469" s="26"/>
+      <c r="T469" s="26"/>
+      <c r="U469" s="26"/>
+      <c r="V469" s="26"/>
+      <c r="W469" s="26"/>
+      <c r="X469" s="26"/>
     </row>
     <row r="470" ht="16.5" spans="1:24">
-      <c r="A470" s="64"/>
-      <c r="B470" s="64"/>
-      <c r="C470" s="64"/>
-      <c r="D470" s="64"/>
-      <c r="E470" s="64"/>
-      <c r="F470" s="64"/>
-      <c r="G470" s="64"/>
-      <c r="H470" s="64"/>
+      <c r="A470" s="28"/>
+      <c r="B470" s="26"/>
+      <c r="C470" s="26"/>
+      <c r="D470" s="26"/>
+      <c r="E470" s="26"/>
+      <c r="F470" s="26"/>
+      <c r="G470" s="26"/>
+      <c r="H470" s="27"/>
       <c r="I470" s="39"/>
-      <c r="J470" s="64"/>
-      <c r="K470" s="64"/>
-      <c r="L470" s="64"/>
-      <c r="M470" s="64"/>
-      <c r="N470" s="64"/>
-      <c r="O470" s="64"/>
-      <c r="P470" s="64"/>
-      <c r="Q470" s="64"/>
-      <c r="R470" s="64"/>
-      <c r="S470" s="64"/>
-      <c r="T470" s="64"/>
-      <c r="U470" s="64"/>
-      <c r="V470" s="64"/>
-      <c r="W470" s="64"/>
-      <c r="X470" s="64"/>
+      <c r="J470" s="32"/>
+      <c r="K470" s="26"/>
+      <c r="L470" s="26"/>
+      <c r="M470" s="26"/>
+      <c r="N470" s="26"/>
+      <c r="O470" s="26"/>
+      <c r="P470" s="26"/>
+      <c r="Q470" s="26"/>
+      <c r="R470" s="26"/>
+      <c r="S470" s="26"/>
+      <c r="T470" s="26"/>
+      <c r="U470" s="26"/>
+      <c r="V470" s="26"/>
+      <c r="W470" s="26"/>
+      <c r="X470" s="26"/>
     </row>
     <row r="471" ht="16.5" spans="1:24">
-      <c r="A471" s="64"/>
-      <c r="B471" s="64"/>
-      <c r="C471" s="64"/>
-      <c r="D471" s="64"/>
-      <c r="E471" s="64"/>
-      <c r="F471" s="64"/>
-      <c r="G471" s="64"/>
-      <c r="H471" s="64"/>
+      <c r="A471" s="28"/>
+      <c r="B471" s="26"/>
+      <c r="C471" s="26"/>
+      <c r="D471" s="26"/>
+      <c r="E471" s="26"/>
+      <c r="F471" s="26"/>
+      <c r="G471" s="26"/>
+      <c r="H471" s="27"/>
       <c r="I471" s="39"/>
-      <c r="J471" s="64"/>
-      <c r="K471" s="64"/>
-      <c r="L471" s="64"/>
-      <c r="M471" s="64"/>
-      <c r="N471" s="64"/>
-      <c r="O471" s="64"/>
-      <c r="P471" s="64"/>
-      <c r="Q471" s="64"/>
-      <c r="R471" s="64"/>
-      <c r="S471" s="64"/>
-      <c r="T471" s="64"/>
-      <c r="U471" s="64"/>
-      <c r="V471" s="64"/>
-      <c r="W471" s="64"/>
-      <c r="X471" s="64"/>
+      <c r="J471" s="32"/>
+      <c r="K471" s="26"/>
+      <c r="L471" s="26"/>
+      <c r="M471" s="26"/>
+      <c r="N471" s="26"/>
+      <c r="O471" s="26"/>
+      <c r="P471" s="26"/>
+      <c r="Q471" s="26"/>
+      <c r="R471" s="26"/>
+      <c r="S471" s="26"/>
+      <c r="T471" s="26"/>
+      <c r="U471" s="26"/>
+      <c r="V471" s="26"/>
+      <c r="W471" s="26"/>
+      <c r="X471" s="26"/>
     </row>
     <row r="472" ht="16.5" spans="1:24">
-      <c r="A472" s="64"/>
-      <c r="B472" s="64"/>
-      <c r="C472" s="64"/>
-      <c r="D472" s="64"/>
-      <c r="E472" s="64"/>
-      <c r="F472" s="64"/>
-      <c r="G472" s="64"/>
-      <c r="H472" s="64"/>
+      <c r="A472" s="28"/>
+      <c r="B472" s="26"/>
+      <c r="C472" s="26"/>
+      <c r="D472" s="26"/>
+      <c r="E472" s="26"/>
+      <c r="F472" s="26"/>
+      <c r="G472" s="26"/>
+      <c r="H472" s="27"/>
       <c r="I472" s="39"/>
-      <c r="J472" s="64"/>
-      <c r="K472" s="64"/>
-      <c r="L472" s="64"/>
-      <c r="M472" s="64"/>
-      <c r="N472" s="64"/>
-      <c r="O472" s="64"/>
-      <c r="P472" s="64"/>
-      <c r="Q472" s="64"/>
-      <c r="R472" s="64"/>
-      <c r="S472" s="64"/>
-      <c r="T472" s="64"/>
-      <c r="U472" s="64"/>
-      <c r="V472" s="64"/>
-      <c r="W472" s="64"/>
-      <c r="X472" s="64"/>
+      <c r="J472" s="32"/>
+      <c r="K472" s="26"/>
+      <c r="L472" s="26"/>
+      <c r="M472" s="26"/>
+      <c r="N472" s="26"/>
+      <c r="O472" s="26"/>
+      <c r="P472" s="26"/>
+      <c r="Q472" s="26"/>
+      <c r="R472" s="26"/>
+      <c r="S472" s="26"/>
+      <c r="T472" s="26"/>
+      <c r="U472" s="26"/>
+      <c r="V472" s="26"/>
+      <c r="W472" s="26"/>
+      <c r="X472" s="26"/>
     </row>
     <row r="473" ht="16.5" spans="1:24">
-      <c r="A473" s="64"/>
-      <c r="B473" s="64"/>
-      <c r="C473" s="64"/>
-      <c r="D473" s="64"/>
-      <c r="E473" s="64"/>
-      <c r="F473" s="64"/>
-      <c r="G473" s="64"/>
-      <c r="H473" s="64"/>
+      <c r="A473" s="28"/>
+      <c r="B473" s="26"/>
+      <c r="C473" s="26"/>
+      <c r="D473" s="26"/>
+      <c r="E473" s="26"/>
+      <c r="F473" s="26"/>
+      <c r="G473" s="26"/>
+      <c r="H473" s="27"/>
       <c r="I473" s="39"/>
-      <c r="J473" s="64"/>
-      <c r="K473" s="64"/>
-      <c r="L473" s="64"/>
-      <c r="M473" s="64"/>
-      <c r="N473" s="64"/>
-      <c r="O473" s="64"/>
-      <c r="P473" s="64"/>
-      <c r="Q473" s="64"/>
-      <c r="R473" s="64"/>
-      <c r="S473" s="64"/>
-      <c r="T473" s="64"/>
-      <c r="U473" s="64"/>
-      <c r="V473" s="64"/>
-      <c r="W473" s="64"/>
-      <c r="X473" s="64"/>
+      <c r="J473" s="32"/>
+      <c r="K473" s="26"/>
+      <c r="L473" s="26"/>
+      <c r="M473" s="26"/>
+      <c r="N473" s="26"/>
+      <c r="O473" s="26"/>
+      <c r="P473" s="26"/>
+      <c r="Q473" s="26"/>
+      <c r="R473" s="26"/>
+      <c r="S473" s="26"/>
+      <c r="T473" s="26"/>
+      <c r="U473" s="26"/>
+      <c r="V473" s="26"/>
+      <c r="W473" s="26"/>
+      <c r="X473" s="26"/>
     </row>
     <row r="474" ht="16.5" spans="1:24">
-      <c r="A474" s="64"/>
-      <c r="B474" s="64"/>
-      <c r="C474" s="64"/>
-      <c r="D474" s="64"/>
-      <c r="E474" s="64"/>
-      <c r="F474" s="64"/>
-      <c r="G474" s="64"/>
-      <c r="H474" s="64"/>
+      <c r="A474" s="28"/>
+      <c r="B474" s="26"/>
+      <c r="C474" s="26"/>
+      <c r="D474" s="26"/>
+      <c r="E474" s="26"/>
+      <c r="F474" s="26"/>
+      <c r="G474" s="26"/>
+      <c r="H474" s="27"/>
       <c r="I474" s="39"/>
-      <c r="J474" s="64"/>
-      <c r="K474" s="64"/>
-      <c r="L474" s="64"/>
-      <c r="M474" s="64"/>
-      <c r="N474" s="64"/>
-      <c r="O474" s="64"/>
-      <c r="P474" s="64"/>
-      <c r="Q474" s="64"/>
-      <c r="R474" s="64"/>
-      <c r="S474" s="64"/>
-      <c r="T474" s="64"/>
-      <c r="U474" s="64"/>
-      <c r="V474" s="64"/>
-      <c r="W474" s="64"/>
-      <c r="X474" s="64"/>
+      <c r="J474" s="32"/>
+      <c r="K474" s="26"/>
+      <c r="L474" s="26"/>
+      <c r="M474" s="26"/>
+      <c r="N474" s="26"/>
+      <c r="O474" s="26"/>
+      <c r="P474" s="26"/>
+      <c r="Q474" s="26"/>
+      <c r="R474" s="26"/>
+      <c r="S474" s="26"/>
+      <c r="T474" s="26"/>
+      <c r="U474" s="26"/>
+      <c r="V474" s="26"/>
+      <c r="W474" s="26"/>
+      <c r="X474" s="26"/>
     </row>
     <row r="475" ht="16.5" spans="1:24">
-      <c r="A475" s="64"/>
-      <c r="B475" s="64"/>
-      <c r="C475" s="64"/>
-      <c r="D475" s="64"/>
-      <c r="E475" s="64"/>
-      <c r="F475" s="64"/>
-      <c r="G475" s="64"/>
-      <c r="H475" s="64"/>
+      <c r="A475" s="28"/>
+      <c r="B475" s="26"/>
+      <c r="C475" s="26"/>
+      <c r="D475" s="26"/>
+      <c r="E475" s="26"/>
+      <c r="F475" s="26"/>
+      <c r="G475" s="26"/>
+      <c r="H475" s="27"/>
       <c r="I475" s="39"/>
-      <c r="J475" s="64"/>
-      <c r="K475" s="64"/>
-      <c r="L475" s="64"/>
-      <c r="M475" s="64"/>
-      <c r="N475" s="64"/>
-      <c r="O475" s="64"/>
-      <c r="P475" s="64"/>
-      <c r="Q475" s="64"/>
-      <c r="R475" s="64"/>
-      <c r="S475" s="64"/>
-      <c r="T475" s="64"/>
-      <c r="U475" s="64"/>
-      <c r="V475" s="64"/>
-      <c r="W475" s="64"/>
-      <c r="X475" s="64"/>
+      <c r="J475" s="32"/>
+      <c r="K475" s="26"/>
+      <c r="L475" s="26"/>
+      <c r="M475" s="26"/>
+      <c r="N475" s="26"/>
+      <c r="O475" s="26"/>
+      <c r="P475" s="26"/>
+      <c r="Q475" s="26"/>
+      <c r="R475" s="26"/>
+      <c r="S475" s="26"/>
+      <c r="T475" s="26"/>
+      <c r="U475" s="26"/>
+      <c r="V475" s="26"/>
+      <c r="W475" s="26"/>
+      <c r="X475" s="26"/>
     </row>
     <row r="476" ht="16.5" spans="1:24">
-      <c r="A476" s="64"/>
-      <c r="B476" s="64"/>
-      <c r="C476" s="64"/>
-      <c r="D476" s="64"/>
-      <c r="E476" s="64"/>
-      <c r="F476" s="64"/>
-      <c r="G476" s="64"/>
-      <c r="H476" s="64"/>
+      <c r="A476" s="28"/>
+      <c r="B476" s="26"/>
+      <c r="C476" s="26"/>
+      <c r="D476" s="26"/>
+      <c r="E476" s="26"/>
+      <c r="F476" s="26"/>
+      <c r="G476" s="26"/>
+      <c r="H476" s="27"/>
       <c r="I476" s="39"/>
-      <c r="J476" s="64"/>
-      <c r="K476" s="64"/>
-      <c r="L476" s="64"/>
-      <c r="M476" s="64"/>
-      <c r="N476" s="64"/>
-      <c r="O476" s="64"/>
-      <c r="P476" s="64"/>
-      <c r="Q476" s="64"/>
-      <c r="R476" s="64"/>
-      <c r="S476" s="64"/>
-      <c r="T476" s="64"/>
-      <c r="U476" s="64"/>
-      <c r="V476" s="64"/>
-      <c r="W476" s="64"/>
-      <c r="X476" s="64"/>
+      <c r="J476" s="32"/>
+      <c r="K476" s="26"/>
+      <c r="L476" s="26"/>
+      <c r="M476" s="26"/>
+      <c r="N476" s="26"/>
+      <c r="O476" s="26"/>
+      <c r="P476" s="26"/>
+      <c r="Q476" s="26"/>
+      <c r="R476" s="26"/>
+      <c r="S476" s="26"/>
+      <c r="T476" s="26"/>
+      <c r="U476" s="26"/>
+      <c r="V476" s="26"/>
+      <c r="W476" s="26"/>
+      <c r="X476" s="26"/>
     </row>
     <row r="477" ht="16.5" spans="1:24">
-      <c r="A477" s="64"/>
-      <c r="B477" s="64"/>
-      <c r="C477" s="64"/>
-      <c r="D477" s="64"/>
-      <c r="E477" s="64"/>
-      <c r="F477" s="64"/>
-      <c r="G477" s="64"/>
-      <c r="H477" s="64"/>
+      <c r="A477" s="28"/>
+      <c r="B477" s="26"/>
+      <c r="C477" s="26"/>
+      <c r="D477" s="26"/>
+      <c r="E477" s="26"/>
+      <c r="F477" s="26"/>
+      <c r="G477" s="26"/>
+      <c r="H477" s="27"/>
       <c r="I477" s="39"/>
-      <c r="J477" s="64"/>
-      <c r="K477" s="64"/>
-      <c r="L477" s="64"/>
-      <c r="M477" s="64"/>
-      <c r="N477" s="64"/>
-      <c r="O477" s="64"/>
-      <c r="P477" s="64"/>
-      <c r="Q477" s="64"/>
-      <c r="R477" s="64"/>
-      <c r="S477" s="64"/>
-      <c r="T477" s="64"/>
-      <c r="U477" s="64"/>
-      <c r="V477" s="64"/>
-      <c r="W477" s="64"/>
-      <c r="X477" s="64"/>
+      <c r="J477" s="32"/>
+      <c r="K477" s="26"/>
+      <c r="L477" s="26"/>
+      <c r="M477" s="26"/>
+      <c r="N477" s="26"/>
+      <c r="O477" s="26"/>
+      <c r="P477" s="26"/>
+      <c r="Q477" s="26"/>
+      <c r="R477" s="26"/>
+      <c r="S477" s="26"/>
+      <c r="T477" s="26"/>
+      <c r="U477" s="26"/>
+      <c r="V477" s="26"/>
+      <c r="W477" s="26"/>
+      <c r="X477" s="26"/>
     </row>
     <row r="478" ht="16.5" spans="1:24">
-      <c r="A478" s="64"/>
-      <c r="B478" s="64"/>
-      <c r="C478" s="64"/>
-      <c r="D478" s="64"/>
-      <c r="E478" s="64"/>
-      <c r="F478" s="64"/>
-      <c r="G478" s="64"/>
-      <c r="H478" s="64"/>
+      <c r="A478" s="28"/>
+      <c r="B478" s="26"/>
+      <c r="C478" s="26"/>
+      <c r="D478" s="26"/>
+      <c r="E478" s="26"/>
+      <c r="F478" s="26"/>
+      <c r="G478" s="26"/>
+      <c r="H478" s="27"/>
       <c r="I478" s="39"/>
-      <c r="J478" s="64"/>
-      <c r="K478" s="64"/>
-      <c r="L478" s="64"/>
-      <c r="M478" s="64"/>
-      <c r="N478" s="64"/>
-      <c r="O478" s="64"/>
-      <c r="P478" s="64"/>
-      <c r="Q478" s="64"/>
-      <c r="R478" s="64"/>
-      <c r="S478" s="64"/>
-      <c r="T478" s="64"/>
-      <c r="U478" s="64"/>
-      <c r="V478" s="64"/>
-      <c r="W478" s="64"/>
-      <c r="X478" s="64"/>
+      <c r="J478" s="32"/>
+      <c r="K478" s="26"/>
+      <c r="L478" s="26"/>
+      <c r="M478" s="26"/>
+      <c r="N478" s="26"/>
+      <c r="O478" s="26"/>
+      <c r="P478" s="26"/>
+      <c r="Q478" s="26"/>
+      <c r="R478" s="26"/>
+      <c r="S478" s="26"/>
+      <c r="T478" s="26"/>
+      <c r="U478" s="26"/>
+      <c r="V478" s="26"/>
+      <c r="W478" s="26"/>
+      <c r="X478" s="26"/>
     </row>
     <row r="479" ht="16.5" spans="1:24">
       <c r="A479" s="64"/>
@@ -25724,212 +26094,212 @@
       <c r="X617" s="64"/>
     </row>
     <row r="618" ht="16.5" spans="1:24">
-      <c r="A618" s="28"/>
-      <c r="B618" s="26"/>
-      <c r="C618" s="26"/>
-      <c r="D618" s="26"/>
-      <c r="E618" s="26"/>
-      <c r="F618" s="26"/>
-      <c r="G618" s="26"/>
-      <c r="H618" s="27"/>
+      <c r="A618" s="64"/>
+      <c r="B618" s="64"/>
+      <c r="C618" s="64"/>
+      <c r="D618" s="64"/>
+      <c r="E618" s="64"/>
+      <c r="F618" s="64"/>
+      <c r="G618" s="64"/>
+      <c r="H618" s="64"/>
       <c r="I618" s="39"/>
-      <c r="J618" s="32"/>
-      <c r="K618" s="26"/>
-      <c r="L618" s="26"/>
-      <c r="M618" s="26"/>
-      <c r="N618" s="26"/>
-      <c r="O618" s="26"/>
-      <c r="P618" s="26"/>
-      <c r="Q618" s="26"/>
-      <c r="R618" s="26"/>
-      <c r="S618" s="26"/>
-      <c r="T618" s="26"/>
-      <c r="U618" s="26"/>
-      <c r="V618" s="26"/>
-      <c r="W618" s="26"/>
-      <c r="X618" s="26"/>
+      <c r="J618" s="64"/>
+      <c r="K618" s="64"/>
+      <c r="L618" s="64"/>
+      <c r="M618" s="64"/>
+      <c r="N618" s="64"/>
+      <c r="O618" s="64"/>
+      <c r="P618" s="64"/>
+      <c r="Q618" s="64"/>
+      <c r="R618" s="64"/>
+      <c r="S618" s="64"/>
+      <c r="T618" s="64"/>
+      <c r="U618" s="64"/>
+      <c r="V618" s="64"/>
+      <c r="W618" s="64"/>
+      <c r="X618" s="64"/>
     </row>
     <row r="619" ht="16.5" spans="1:24">
-      <c r="A619" s="28"/>
-      <c r="B619" s="26"/>
-      <c r="C619" s="26"/>
-      <c r="D619" s="26"/>
-      <c r="E619" s="26"/>
-      <c r="F619" s="26"/>
-      <c r="G619" s="26"/>
-      <c r="H619" s="27"/>
+      <c r="A619" s="64"/>
+      <c r="B619" s="64"/>
+      <c r="C619" s="64"/>
+      <c r="D619" s="64"/>
+      <c r="E619" s="64"/>
+      <c r="F619" s="64"/>
+      <c r="G619" s="64"/>
+      <c r="H619" s="64"/>
       <c r="I619" s="39"/>
-      <c r="J619" s="32"/>
-      <c r="K619" s="26"/>
-      <c r="L619" s="26"/>
-      <c r="M619" s="26"/>
-      <c r="N619" s="26"/>
-      <c r="O619" s="26"/>
-      <c r="P619" s="26"/>
-      <c r="Q619" s="26"/>
-      <c r="R619" s="26"/>
-      <c r="S619" s="26"/>
-      <c r="T619" s="26"/>
-      <c r="U619" s="26"/>
-      <c r="V619" s="26"/>
-      <c r="W619" s="26"/>
-      <c r="X619" s="26"/>
+      <c r="J619" s="64"/>
+      <c r="K619" s="64"/>
+      <c r="L619" s="64"/>
+      <c r="M619" s="64"/>
+      <c r="N619" s="64"/>
+      <c r="O619" s="64"/>
+      <c r="P619" s="64"/>
+      <c r="Q619" s="64"/>
+      <c r="R619" s="64"/>
+      <c r="S619" s="64"/>
+      <c r="T619" s="64"/>
+      <c r="U619" s="64"/>
+      <c r="V619" s="64"/>
+      <c r="W619" s="64"/>
+      <c r="X619" s="64"/>
     </row>
     <row r="620" ht="16.5" spans="1:24">
-      <c r="A620" s="28"/>
-      <c r="B620" s="26"/>
-      <c r="C620" s="26"/>
-      <c r="D620" s="26"/>
-      <c r="E620" s="26"/>
-      <c r="F620" s="26"/>
-      <c r="G620" s="26"/>
-      <c r="H620" s="27"/>
+      <c r="A620" s="64"/>
+      <c r="B620" s="64"/>
+      <c r="C620" s="64"/>
+      <c r="D620" s="64"/>
+      <c r="E620" s="64"/>
+      <c r="F620" s="64"/>
+      <c r="G620" s="64"/>
+      <c r="H620" s="64"/>
       <c r="I620" s="39"/>
-      <c r="J620" s="32"/>
-      <c r="K620" s="26"/>
-      <c r="L620" s="26"/>
-      <c r="M620" s="26"/>
-      <c r="N620" s="26"/>
-      <c r="O620" s="26"/>
-      <c r="P620" s="26"/>
-      <c r="Q620" s="26"/>
-      <c r="R620" s="26"/>
-      <c r="S620" s="26"/>
-      <c r="T620" s="26"/>
-      <c r="U620" s="26"/>
-      <c r="V620" s="26"/>
-      <c r="W620" s="26"/>
-      <c r="X620" s="26"/>
+      <c r="J620" s="64"/>
+      <c r="K620" s="64"/>
+      <c r="L620" s="64"/>
+      <c r="M620" s="64"/>
+      <c r="N620" s="64"/>
+      <c r="O620" s="64"/>
+      <c r="P620" s="64"/>
+      <c r="Q620" s="64"/>
+      <c r="R620" s="64"/>
+      <c r="S620" s="64"/>
+      <c r="T620" s="64"/>
+      <c r="U620" s="64"/>
+      <c r="V620" s="64"/>
+      <c r="W620" s="64"/>
+      <c r="X620" s="64"/>
     </row>
     <row r="621" ht="16.5" spans="1:24">
-      <c r="A621" s="28"/>
-      <c r="B621" s="26"/>
-      <c r="C621" s="26"/>
-      <c r="D621" s="26"/>
-      <c r="E621" s="26"/>
-      <c r="F621" s="26"/>
-      <c r="G621" s="26"/>
-      <c r="H621" s="27"/>
+      <c r="A621" s="64"/>
+      <c r="B621" s="64"/>
+      <c r="C621" s="64"/>
+      <c r="D621" s="64"/>
+      <c r="E621" s="64"/>
+      <c r="F621" s="64"/>
+      <c r="G621" s="64"/>
+      <c r="H621" s="64"/>
       <c r="I621" s="39"/>
-      <c r="J621" s="32"/>
-      <c r="K621" s="26"/>
-      <c r="L621" s="26"/>
-      <c r="M621" s="26"/>
-      <c r="N621" s="26"/>
-      <c r="O621" s="26"/>
-      <c r="P621" s="26"/>
-      <c r="Q621" s="26"/>
-      <c r="R621" s="26"/>
-      <c r="S621" s="26"/>
-      <c r="T621" s="26"/>
-      <c r="U621" s="26"/>
-      <c r="V621" s="26"/>
-      <c r="W621" s="26"/>
-      <c r="X621" s="26"/>
+      <c r="J621" s="64"/>
+      <c r="K621" s="64"/>
+      <c r="L621" s="64"/>
+      <c r="M621" s="64"/>
+      <c r="N621" s="64"/>
+      <c r="O621" s="64"/>
+      <c r="P621" s="64"/>
+      <c r="Q621" s="64"/>
+      <c r="R621" s="64"/>
+      <c r="S621" s="64"/>
+      <c r="T621" s="64"/>
+      <c r="U621" s="64"/>
+      <c r="V621" s="64"/>
+      <c r="W621" s="64"/>
+      <c r="X621" s="64"/>
     </row>
     <row r="622" ht="16.5" spans="1:24">
-      <c r="A622" s="28"/>
-      <c r="B622" s="26"/>
-      <c r="C622" s="26"/>
-      <c r="D622" s="26"/>
-      <c r="E622" s="26"/>
-      <c r="F622" s="26"/>
-      <c r="G622" s="26"/>
-      <c r="H622" s="27"/>
+      <c r="A622" s="64"/>
+      <c r="B622" s="64"/>
+      <c r="C622" s="64"/>
+      <c r="D622" s="64"/>
+      <c r="E622" s="64"/>
+      <c r="F622" s="64"/>
+      <c r="G622" s="64"/>
+      <c r="H622" s="64"/>
       <c r="I622" s="39"/>
-      <c r="J622" s="32"/>
-      <c r="K622" s="26"/>
-      <c r="L622" s="26"/>
-      <c r="M622" s="26"/>
-      <c r="N622" s="26"/>
-      <c r="O622" s="26"/>
-      <c r="P622" s="26"/>
-      <c r="Q622" s="26"/>
-      <c r="R622" s="26"/>
-      <c r="S622" s="26"/>
-      <c r="T622" s="26"/>
-      <c r="U622" s="26"/>
-      <c r="V622" s="26"/>
-      <c r="W622" s="26"/>
-      <c r="X622" s="26"/>
+      <c r="J622" s="64"/>
+      <c r="K622" s="64"/>
+      <c r="L622" s="64"/>
+      <c r="M622" s="64"/>
+      <c r="N622" s="64"/>
+      <c r="O622" s="64"/>
+      <c r="P622" s="64"/>
+      <c r="Q622" s="64"/>
+      <c r="R622" s="64"/>
+      <c r="S622" s="64"/>
+      <c r="T622" s="64"/>
+      <c r="U622" s="64"/>
+      <c r="V622" s="64"/>
+      <c r="W622" s="64"/>
+      <c r="X622" s="64"/>
     </row>
     <row r="623" ht="16.5" spans="1:24">
-      <c r="A623" s="28"/>
-      <c r="B623" s="26"/>
-      <c r="C623" s="26"/>
-      <c r="D623" s="26"/>
-      <c r="E623" s="26"/>
-      <c r="F623" s="26"/>
-      <c r="G623" s="26"/>
-      <c r="H623" s="27"/>
+      <c r="A623" s="64"/>
+      <c r="B623" s="64"/>
+      <c r="C623" s="64"/>
+      <c r="D623" s="64"/>
+      <c r="E623" s="64"/>
+      <c r="F623" s="64"/>
+      <c r="G623" s="64"/>
+      <c r="H623" s="64"/>
       <c r="I623" s="39"/>
-      <c r="J623" s="32"/>
-      <c r="K623" s="26"/>
-      <c r="L623" s="26"/>
-      <c r="M623" s="26"/>
-      <c r="N623" s="26"/>
-      <c r="O623" s="26"/>
-      <c r="P623" s="26"/>
-      <c r="Q623" s="26"/>
-      <c r="R623" s="26"/>
-      <c r="S623" s="26"/>
-      <c r="T623" s="26"/>
-      <c r="U623" s="26"/>
-      <c r="V623" s="26"/>
-      <c r="W623" s="26"/>
-      <c r="X623" s="26"/>
+      <c r="J623" s="64"/>
+      <c r="K623" s="64"/>
+      <c r="L623" s="64"/>
+      <c r="M623" s="64"/>
+      <c r="N623" s="64"/>
+      <c r="O623" s="64"/>
+      <c r="P623" s="64"/>
+      <c r="Q623" s="64"/>
+      <c r="R623" s="64"/>
+      <c r="S623" s="64"/>
+      <c r="T623" s="64"/>
+      <c r="U623" s="64"/>
+      <c r="V623" s="64"/>
+      <c r="W623" s="64"/>
+      <c r="X623" s="64"/>
     </row>
     <row r="624" ht="16.5" spans="1:24">
-      <c r="A624" s="28"/>
-      <c r="B624" s="26"/>
-      <c r="C624" s="26"/>
-      <c r="D624" s="26"/>
-      <c r="E624" s="26"/>
-      <c r="F624" s="26"/>
-      <c r="G624" s="26"/>
-      <c r="H624" s="27"/>
+      <c r="A624" s="64"/>
+      <c r="B624" s="64"/>
+      <c r="C624" s="64"/>
+      <c r="D624" s="64"/>
+      <c r="E624" s="64"/>
+      <c r="F624" s="64"/>
+      <c r="G624" s="64"/>
+      <c r="H624" s="64"/>
       <c r="I624" s="39"/>
-      <c r="J624" s="32"/>
-      <c r="K624" s="26"/>
-      <c r="L624" s="26"/>
-      <c r="M624" s="26"/>
-      <c r="N624" s="26"/>
-      <c r="O624" s="26"/>
-      <c r="P624" s="26"/>
-      <c r="Q624" s="26"/>
-      <c r="R624" s="26"/>
-      <c r="S624" s="26"/>
-      <c r="T624" s="26"/>
-      <c r="U624" s="26"/>
-      <c r="V624" s="26"/>
-      <c r="W624" s="26"/>
-      <c r="X624" s="26"/>
+      <c r="J624" s="64"/>
+      <c r="K624" s="64"/>
+      <c r="L624" s="64"/>
+      <c r="M624" s="64"/>
+      <c r="N624" s="64"/>
+      <c r="O624" s="64"/>
+      <c r="P624" s="64"/>
+      <c r="Q624" s="64"/>
+      <c r="R624" s="64"/>
+      <c r="S624" s="64"/>
+      <c r="T624" s="64"/>
+      <c r="U624" s="64"/>
+      <c r="V624" s="64"/>
+      <c r="W624" s="64"/>
+      <c r="X624" s="64"/>
     </row>
     <row r="625" ht="16.5" spans="1:24">
-      <c r="A625" s="28"/>
-      <c r="B625" s="26"/>
-      <c r="C625" s="26"/>
-      <c r="D625" s="26"/>
-      <c r="E625" s="26"/>
-      <c r="F625" s="26"/>
-      <c r="G625" s="26"/>
-      <c r="H625" s="27"/>
+      <c r="A625" s="64"/>
+      <c r="B625" s="64"/>
+      <c r="C625" s="64"/>
+      <c r="D625" s="64"/>
+      <c r="E625" s="64"/>
+      <c r="F625" s="64"/>
+      <c r="G625" s="64"/>
+      <c r="H625" s="64"/>
       <c r="I625" s="39"/>
-      <c r="J625" s="32"/>
-      <c r="K625" s="26"/>
-      <c r="L625" s="26"/>
-      <c r="M625" s="26"/>
-      <c r="N625" s="26"/>
-      <c r="O625" s="26"/>
-      <c r="P625" s="26"/>
-      <c r="Q625" s="26"/>
-      <c r="R625" s="26"/>
-      <c r="S625" s="26"/>
-      <c r="T625" s="26"/>
-      <c r="U625" s="26"/>
-      <c r="V625" s="26"/>
-      <c r="W625" s="26"/>
-      <c r="X625" s="26"/>
+      <c r="J625" s="64"/>
+      <c r="K625" s="64"/>
+      <c r="L625" s="64"/>
+      <c r="M625" s="64"/>
+      <c r="N625" s="64"/>
+      <c r="O625" s="64"/>
+      <c r="P625" s="64"/>
+      <c r="Q625" s="64"/>
+      <c r="R625" s="64"/>
+      <c r="S625" s="64"/>
+      <c r="T625" s="64"/>
+      <c r="U625" s="64"/>
+      <c r="V625" s="64"/>
+      <c r="W625" s="64"/>
+      <c r="X625" s="64"/>
     </row>
     <row r="626" ht="16.5" spans="1:24">
       <c r="A626" s="64"/>
@@ -26010,186 +26380,186 @@
       <c r="X628" s="64"/>
     </row>
     <row r="629" ht="16.5" spans="1:24">
-      <c r="A629" s="64"/>
-      <c r="B629" s="64"/>
-      <c r="C629" s="64"/>
-      <c r="D629" s="64"/>
-      <c r="E629" s="64"/>
-      <c r="F629" s="64"/>
-      <c r="G629" s="64"/>
-      <c r="H629" s="64"/>
+      <c r="A629" s="28"/>
+      <c r="B629" s="26"/>
+      <c r="C629" s="26"/>
+      <c r="D629" s="26"/>
+      <c r="E629" s="26"/>
+      <c r="F629" s="26"/>
+      <c r="G629" s="26"/>
+      <c r="H629" s="27"/>
       <c r="I629" s="39"/>
-      <c r="J629" s="64"/>
-      <c r="K629" s="64"/>
-      <c r="L629" s="64"/>
-      <c r="M629" s="64"/>
-      <c r="N629" s="64"/>
-      <c r="O629" s="64"/>
-      <c r="P629" s="64"/>
-      <c r="Q629" s="64"/>
-      <c r="R629" s="64"/>
-      <c r="S629" s="64"/>
-      <c r="T629" s="64"/>
-      <c r="U629" s="64"/>
-      <c r="V629" s="64"/>
-      <c r="W629" s="64"/>
-      <c r="X629" s="64"/>
+      <c r="J629" s="32"/>
+      <c r="K629" s="26"/>
+      <c r="L629" s="26"/>
+      <c r="M629" s="26"/>
+      <c r="N629" s="26"/>
+      <c r="O629" s="26"/>
+      <c r="P629" s="26"/>
+      <c r="Q629" s="26"/>
+      <c r="R629" s="26"/>
+      <c r="S629" s="26"/>
+      <c r="T629" s="26"/>
+      <c r="U629" s="26"/>
+      <c r="V629" s="26"/>
+      <c r="W629" s="26"/>
+      <c r="X629" s="26"/>
     </row>
     <row r="630" ht="16.5" spans="1:24">
-      <c r="A630" s="64"/>
-      <c r="B630" s="64"/>
-      <c r="C630" s="64"/>
-      <c r="D630" s="64"/>
-      <c r="E630" s="64"/>
-      <c r="F630" s="64"/>
-      <c r="G630" s="64"/>
-      <c r="H630" s="64"/>
+      <c r="A630" s="28"/>
+      <c r="B630" s="26"/>
+      <c r="C630" s="26"/>
+      <c r="D630" s="26"/>
+      <c r="E630" s="26"/>
+      <c r="F630" s="26"/>
+      <c r="G630" s="26"/>
+      <c r="H630" s="27"/>
       <c r="I630" s="39"/>
-      <c r="J630" s="64"/>
-      <c r="K630" s="64"/>
-      <c r="L630" s="64"/>
-      <c r="M630" s="64"/>
-      <c r="N630" s="64"/>
-      <c r="O630" s="64"/>
-      <c r="P630" s="64"/>
-      <c r="Q630" s="64"/>
-      <c r="R630" s="64"/>
-      <c r="S630" s="64"/>
-      <c r="T630" s="64"/>
-      <c r="U630" s="64"/>
-      <c r="V630" s="64"/>
-      <c r="W630" s="64"/>
-      <c r="X630" s="64"/>
+      <c r="J630" s="32"/>
+      <c r="K630" s="26"/>
+      <c r="L630" s="26"/>
+      <c r="M630" s="26"/>
+      <c r="N630" s="26"/>
+      <c r="O630" s="26"/>
+      <c r="P630" s="26"/>
+      <c r="Q630" s="26"/>
+      <c r="R630" s="26"/>
+      <c r="S630" s="26"/>
+      <c r="T630" s="26"/>
+      <c r="U630" s="26"/>
+      <c r="V630" s="26"/>
+      <c r="W630" s="26"/>
+      <c r="X630" s="26"/>
     </row>
     <row r="631" ht="16.5" spans="1:24">
-      <c r="A631" s="64"/>
-      <c r="B631" s="64"/>
-      <c r="C631" s="64"/>
-      <c r="D631" s="64"/>
-      <c r="E631" s="64"/>
-      <c r="F631" s="64"/>
-      <c r="G631" s="64"/>
-      <c r="H631" s="64"/>
+      <c r="A631" s="28"/>
+      <c r="B631" s="26"/>
+      <c r="C631" s="26"/>
+      <c r="D631" s="26"/>
+      <c r="E631" s="26"/>
+      <c r="F631" s="26"/>
+      <c r="G631" s="26"/>
+      <c r="H631" s="27"/>
       <c r="I631" s="39"/>
-      <c r="J631" s="64"/>
-      <c r="K631" s="64"/>
-      <c r="L631" s="64"/>
-      <c r="M631" s="64"/>
-      <c r="N631" s="64"/>
-      <c r="O631" s="64"/>
-      <c r="P631" s="64"/>
-      <c r="Q631" s="64"/>
-      <c r="R631" s="64"/>
-      <c r="S631" s="64"/>
-      <c r="T631" s="64"/>
-      <c r="U631" s="64"/>
-      <c r="V631" s="64"/>
-      <c r="W631" s="64"/>
-      <c r="X631" s="64"/>
+      <c r="J631" s="32"/>
+      <c r="K631" s="26"/>
+      <c r="L631" s="26"/>
+      <c r="M631" s="26"/>
+      <c r="N631" s="26"/>
+      <c r="O631" s="26"/>
+      <c r="P631" s="26"/>
+      <c r="Q631" s="26"/>
+      <c r="R631" s="26"/>
+      <c r="S631" s="26"/>
+      <c r="T631" s="26"/>
+      <c r="U631" s="26"/>
+      <c r="V631" s="26"/>
+      <c r="W631" s="26"/>
+      <c r="X631" s="26"/>
     </row>
     <row r="632" ht="16.5" spans="1:24">
-      <c r="A632" s="64"/>
-      <c r="B632" s="64"/>
-      <c r="C632" s="64"/>
-      <c r="D632" s="64"/>
-      <c r="E632" s="64"/>
-      <c r="F632" s="64"/>
-      <c r="G632" s="64"/>
-      <c r="H632" s="64"/>
+      <c r="A632" s="28"/>
+      <c r="B632" s="26"/>
+      <c r="C632" s="26"/>
+      <c r="D632" s="26"/>
+      <c r="E632" s="26"/>
+      <c r="F632" s="26"/>
+      <c r="G632" s="26"/>
+      <c r="H632" s="27"/>
       <c r="I632" s="39"/>
-      <c r="J632" s="64"/>
-      <c r="K632" s="64"/>
-      <c r="L632" s="64"/>
-      <c r="M632" s="64"/>
-      <c r="N632" s="64"/>
-      <c r="O632" s="64"/>
-      <c r="P632" s="64"/>
-      <c r="Q632" s="64"/>
-      <c r="R632" s="64"/>
-      <c r="S632" s="64"/>
-      <c r="T632" s="64"/>
-      <c r="U632" s="64"/>
-      <c r="V632" s="64"/>
-      <c r="W632" s="64"/>
-      <c r="X632" s="64"/>
+      <c r="J632" s="32"/>
+      <c r="K632" s="26"/>
+      <c r="L632" s="26"/>
+      <c r="M632" s="26"/>
+      <c r="N632" s="26"/>
+      <c r="O632" s="26"/>
+      <c r="P632" s="26"/>
+      <c r="Q632" s="26"/>
+      <c r="R632" s="26"/>
+      <c r="S632" s="26"/>
+      <c r="T632" s="26"/>
+      <c r="U632" s="26"/>
+      <c r="V632" s="26"/>
+      <c r="W632" s="26"/>
+      <c r="X632" s="26"/>
     </row>
     <row r="633" ht="16.5" spans="1:24">
-      <c r="A633" s="64"/>
-      <c r="B633" s="64"/>
-      <c r="C633" s="64"/>
-      <c r="D633" s="64"/>
-      <c r="E633" s="64"/>
-      <c r="F633" s="64"/>
-      <c r="G633" s="64"/>
-      <c r="H633" s="64"/>
+      <c r="A633" s="28"/>
+      <c r="B633" s="26"/>
+      <c r="C633" s="26"/>
+      <c r="D633" s="26"/>
+      <c r="E633" s="26"/>
+      <c r="F633" s="26"/>
+      <c r="G633" s="26"/>
+      <c r="H633" s="27"/>
       <c r="I633" s="39"/>
-      <c r="J633" s="64"/>
-      <c r="K633" s="64"/>
-      <c r="L633" s="64"/>
-      <c r="M633" s="64"/>
-      <c r="N633" s="64"/>
-      <c r="O633" s="64"/>
-      <c r="P633" s="64"/>
-      <c r="Q633" s="64"/>
-      <c r="R633" s="64"/>
-      <c r="S633" s="64"/>
-      <c r="T633" s="64"/>
-      <c r="U633" s="64"/>
-      <c r="V633" s="64"/>
-      <c r="W633" s="64"/>
-      <c r="X633" s="64"/>
+      <c r="J633" s="32"/>
+      <c r="K633" s="26"/>
+      <c r="L633" s="26"/>
+      <c r="M633" s="26"/>
+      <c r="N633" s="26"/>
+      <c r="O633" s="26"/>
+      <c r="P633" s="26"/>
+      <c r="Q633" s="26"/>
+      <c r="R633" s="26"/>
+      <c r="S633" s="26"/>
+      <c r="T633" s="26"/>
+      <c r="U633" s="26"/>
+      <c r="V633" s="26"/>
+      <c r="W633" s="26"/>
+      <c r="X633" s="26"/>
     </row>
     <row r="634" ht="16.5" spans="1:24">
-      <c r="A634" s="64"/>
-      <c r="B634" s="64"/>
-      <c r="C634" s="64"/>
-      <c r="D634" s="64"/>
-      <c r="E634" s="64"/>
-      <c r="F634" s="64"/>
-      <c r="G634" s="64"/>
-      <c r="H634" s="64"/>
+      <c r="A634" s="28"/>
+      <c r="B634" s="26"/>
+      <c r="C634" s="26"/>
+      <c r="D634" s="26"/>
+      <c r="E634" s="26"/>
+      <c r="F634" s="26"/>
+      <c r="G634" s="26"/>
+      <c r="H634" s="27"/>
       <c r="I634" s="39"/>
-      <c r="J634" s="64"/>
-      <c r="K634" s="64"/>
-      <c r="L634" s="64"/>
-      <c r="M634" s="64"/>
-      <c r="N634" s="64"/>
-      <c r="O634" s="64"/>
-      <c r="P634" s="64"/>
-      <c r="Q634" s="64"/>
-      <c r="R634" s="64"/>
-      <c r="S634" s="64"/>
-      <c r="T634" s="64"/>
-      <c r="U634" s="64"/>
-      <c r="V634" s="64"/>
-      <c r="W634" s="64"/>
-      <c r="X634" s="64"/>
+      <c r="J634" s="32"/>
+      <c r="K634" s="26"/>
+      <c r="L634" s="26"/>
+      <c r="M634" s="26"/>
+      <c r="N634" s="26"/>
+      <c r="O634" s="26"/>
+      <c r="P634" s="26"/>
+      <c r="Q634" s="26"/>
+      <c r="R634" s="26"/>
+      <c r="S634" s="26"/>
+      <c r="T634" s="26"/>
+      <c r="U634" s="26"/>
+      <c r="V634" s="26"/>
+      <c r="W634" s="26"/>
+      <c r="X634" s="26"/>
     </row>
     <row r="635" ht="16.5" spans="1:24">
-      <c r="A635" s="64"/>
-      <c r="B635" s="64"/>
-      <c r="C635" s="64"/>
-      <c r="D635" s="64"/>
-      <c r="E635" s="64"/>
-      <c r="F635" s="64"/>
-      <c r="G635" s="64"/>
-      <c r="H635" s="64"/>
+      <c r="A635" s="28"/>
+      <c r="B635" s="26"/>
+      <c r="C635" s="26"/>
+      <c r="D635" s="26"/>
+      <c r="E635" s="26"/>
+      <c r="F635" s="26"/>
+      <c r="G635" s="26"/>
+      <c r="H635" s="27"/>
       <c r="I635" s="39"/>
-      <c r="J635" s="64"/>
-      <c r="K635" s="64"/>
-      <c r="L635" s="64"/>
-      <c r="M635" s="64"/>
-      <c r="N635" s="64"/>
-      <c r="O635" s="64"/>
-      <c r="P635" s="64"/>
-      <c r="Q635" s="64"/>
-      <c r="R635" s="64"/>
-      <c r="S635" s="64"/>
-      <c r="T635" s="64"/>
-      <c r="U635" s="64"/>
-      <c r="V635" s="64"/>
-      <c r="W635" s="64"/>
-      <c r="X635" s="64"/>
+      <c r="J635" s="32"/>
+      <c r="K635" s="26"/>
+      <c r="L635" s="26"/>
+      <c r="M635" s="26"/>
+      <c r="N635" s="26"/>
+      <c r="O635" s="26"/>
+      <c r="P635" s="26"/>
+      <c r="Q635" s="26"/>
+      <c r="R635" s="26"/>
+      <c r="S635" s="26"/>
+      <c r="T635" s="26"/>
+      <c r="U635" s="26"/>
+      <c r="V635" s="26"/>
+      <c r="W635" s="26"/>
+      <c r="X635" s="26"/>
     </row>
     <row r="636" ht="16.5" spans="1:24">
       <c r="A636" s="28"/>
@@ -26218,56 +26588,56 @@
       <c r="X636" s="26"/>
     </row>
     <row r="637" ht="16.5" spans="1:24">
-      <c r="A637" s="28"/>
-      <c r="B637" s="26"/>
-      <c r="C637" s="26"/>
-      <c r="D637" s="26"/>
-      <c r="E637" s="26"/>
-      <c r="F637" s="26"/>
-      <c r="G637" s="26"/>
-      <c r="H637" s="27"/>
+      <c r="A637" s="64"/>
+      <c r="B637" s="64"/>
+      <c r="C637" s="64"/>
+      <c r="D637" s="64"/>
+      <c r="E637" s="64"/>
+      <c r="F637" s="64"/>
+      <c r="G637" s="64"/>
+      <c r="H637" s="64"/>
       <c r="I637" s="39"/>
-      <c r="J637" s="32"/>
-      <c r="K637" s="26"/>
-      <c r="L637" s="26"/>
-      <c r="M637" s="26"/>
-      <c r="N637" s="26"/>
-      <c r="O637" s="26"/>
-      <c r="P637" s="26"/>
-      <c r="Q637" s="26"/>
-      <c r="R637" s="26"/>
-      <c r="S637" s="26"/>
-      <c r="T637" s="26"/>
-      <c r="U637" s="26"/>
-      <c r="V637" s="26"/>
-      <c r="W637" s="26"/>
-      <c r="X637" s="26"/>
+      <c r="J637" s="64"/>
+      <c r="K637" s="64"/>
+      <c r="L637" s="64"/>
+      <c r="M637" s="64"/>
+      <c r="N637" s="64"/>
+      <c r="O637" s="64"/>
+      <c r="P637" s="64"/>
+      <c r="Q637" s="64"/>
+      <c r="R637" s="64"/>
+      <c r="S637" s="64"/>
+      <c r="T637" s="64"/>
+      <c r="U637" s="64"/>
+      <c r="V637" s="64"/>
+      <c r="W637" s="64"/>
+      <c r="X637" s="64"/>
     </row>
     <row r="638" ht="16.5" spans="1:24">
-      <c r="A638" s="28"/>
-      <c r="B638" s="26"/>
-      <c r="C638" s="26"/>
-      <c r="D638" s="26"/>
-      <c r="E638" s="26"/>
-      <c r="F638" s="26"/>
-      <c r="G638" s="26"/>
-      <c r="H638" s="27"/>
+      <c r="A638" s="64"/>
+      <c r="B638" s="64"/>
+      <c r="C638" s="64"/>
+      <c r="D638" s="64"/>
+      <c r="E638" s="64"/>
+      <c r="F638" s="64"/>
+      <c r="G638" s="64"/>
+      <c r="H638" s="64"/>
       <c r="I638" s="39"/>
-      <c r="J638" s="32"/>
-      <c r="K638" s="26"/>
-      <c r="L638" s="26"/>
-      <c r="M638" s="26"/>
-      <c r="N638" s="26"/>
-      <c r="O638" s="26"/>
-      <c r="P638" s="26"/>
-      <c r="Q638" s="26"/>
-      <c r="R638" s="26"/>
-      <c r="S638" s="26"/>
-      <c r="T638" s="26"/>
-      <c r="U638" s="26"/>
-      <c r="V638" s="26"/>
-      <c r="W638" s="26"/>
-      <c r="X638" s="26"/>
+      <c r="J638" s="64"/>
+      <c r="K638" s="64"/>
+      <c r="L638" s="64"/>
+      <c r="M638" s="64"/>
+      <c r="N638" s="64"/>
+      <c r="O638" s="64"/>
+      <c r="P638" s="64"/>
+      <c r="Q638" s="64"/>
+      <c r="R638" s="64"/>
+      <c r="S638" s="64"/>
+      <c r="T638" s="64"/>
+      <c r="U638" s="64"/>
+      <c r="V638" s="64"/>
+      <c r="W638" s="64"/>
+      <c r="X638" s="64"/>
     </row>
     <row r="639" ht="16.5" spans="1:24">
       <c r="A639" s="64"/>
@@ -26296,37 +26666,323 @@
       <c r="X639" s="64"/>
     </row>
     <row r="640" ht="16.5" spans="1:24">
-      <c r="A640" s="28"/>
-      <c r="B640" s="26"/>
-      <c r="C640" s="26"/>
-      <c r="D640" s="26"/>
-      <c r="E640" s="26"/>
-      <c r="F640" s="26"/>
-      <c r="G640" s="26"/>
-      <c r="H640" s="27"/>
+      <c r="A640" s="64"/>
+      <c r="B640" s="64"/>
+      <c r="C640" s="64"/>
+      <c r="D640" s="64"/>
+      <c r="E640" s="64"/>
+      <c r="F640" s="64"/>
+      <c r="G640" s="64"/>
+      <c r="H640" s="64"/>
       <c r="I640" s="39"/>
-      <c r="J640" s="32"/>
-      <c r="K640" s="26"/>
-      <c r="L640" s="26"/>
-      <c r="M640" s="26"/>
-      <c r="N640" s="26"/>
-      <c r="O640" s="26"/>
-      <c r="P640" s="26"/>
-      <c r="Q640" s="26"/>
-      <c r="R640" s="26"/>
-      <c r="S640" s="26"/>
-      <c r="T640" s="26"/>
-      <c r="U640" s="26"/>
-      <c r="V640" s="26"/>
-      <c r="W640" s="26"/>
-      <c r="X640" s="26"/>
+      <c r="J640" s="64"/>
+      <c r="K640" s="64"/>
+      <c r="L640" s="64"/>
+      <c r="M640" s="64"/>
+      <c r="N640" s="64"/>
+      <c r="O640" s="64"/>
+      <c r="P640" s="64"/>
+      <c r="Q640" s="64"/>
+      <c r="R640" s="64"/>
+      <c r="S640" s="64"/>
+      <c r="T640" s="64"/>
+      <c r="U640" s="64"/>
+      <c r="V640" s="64"/>
+      <c r="W640" s="64"/>
+      <c r="X640" s="64"/>
+    </row>
+    <row r="641" ht="16.5" spans="1:24">
+      <c r="A641" s="64"/>
+      <c r="B641" s="64"/>
+      <c r="C641" s="64"/>
+      <c r="D641" s="64"/>
+      <c r="E641" s="64"/>
+      <c r="F641" s="64"/>
+      <c r="G641" s="64"/>
+      <c r="H641" s="64"/>
+      <c r="I641" s="39"/>
+      <c r="J641" s="64"/>
+      <c r="K641" s="64"/>
+      <c r="L641" s="64"/>
+      <c r="M641" s="64"/>
+      <c r="N641" s="64"/>
+      <c r="O641" s="64"/>
+      <c r="P641" s="64"/>
+      <c r="Q641" s="64"/>
+      <c r="R641" s="64"/>
+      <c r="S641" s="64"/>
+      <c r="T641" s="64"/>
+      <c r="U641" s="64"/>
+      <c r="V641" s="64"/>
+      <c r="W641" s="64"/>
+      <c r="X641" s="64"/>
+    </row>
+    <row r="642" ht="16.5" spans="1:24">
+      <c r="A642" s="64"/>
+      <c r="B642" s="64"/>
+      <c r="C642" s="64"/>
+      <c r="D642" s="64"/>
+      <c r="E642" s="64"/>
+      <c r="F642" s="64"/>
+      <c r="G642" s="64"/>
+      <c r="H642" s="64"/>
+      <c r="I642" s="39"/>
+      <c r="J642" s="64"/>
+      <c r="K642" s="64"/>
+      <c r="L642" s="64"/>
+      <c r="M642" s="64"/>
+      <c r="N642" s="64"/>
+      <c r="O642" s="64"/>
+      <c r="P642" s="64"/>
+      <c r="Q642" s="64"/>
+      <c r="R642" s="64"/>
+      <c r="S642" s="64"/>
+      <c r="T642" s="64"/>
+      <c r="U642" s="64"/>
+      <c r="V642" s="64"/>
+      <c r="W642" s="64"/>
+      <c r="X642" s="64"/>
+    </row>
+    <row r="643" ht="16.5" spans="1:24">
+      <c r="A643" s="64"/>
+      <c r="B643" s="64"/>
+      <c r="C643" s="64"/>
+      <c r="D643" s="64"/>
+      <c r="E643" s="64"/>
+      <c r="F643" s="64"/>
+      <c r="G643" s="64"/>
+      <c r="H643" s="64"/>
+      <c r="I643" s="39"/>
+      <c r="J643" s="64"/>
+      <c r="K643" s="64"/>
+      <c r="L643" s="64"/>
+      <c r="M643" s="64"/>
+      <c r="N643" s="64"/>
+      <c r="O643" s="64"/>
+      <c r="P643" s="64"/>
+      <c r="Q643" s="64"/>
+      <c r="R643" s="64"/>
+      <c r="S643" s="64"/>
+      <c r="T643" s="64"/>
+      <c r="U643" s="64"/>
+      <c r="V643" s="64"/>
+      <c r="W643" s="64"/>
+      <c r="X643" s="64"/>
+    </row>
+    <row r="644" ht="16.5" spans="1:24">
+      <c r="A644" s="64"/>
+      <c r="B644" s="64"/>
+      <c r="C644" s="64"/>
+      <c r="D644" s="64"/>
+      <c r="E644" s="64"/>
+      <c r="F644" s="64"/>
+      <c r="G644" s="64"/>
+      <c r="H644" s="64"/>
+      <c r="I644" s="39"/>
+      <c r="J644" s="64"/>
+      <c r="K644" s="64"/>
+      <c r="L644" s="64"/>
+      <c r="M644" s="64"/>
+      <c r="N644" s="64"/>
+      <c r="O644" s="64"/>
+      <c r="P644" s="64"/>
+      <c r="Q644" s="64"/>
+      <c r="R644" s="64"/>
+      <c r="S644" s="64"/>
+      <c r="T644" s="64"/>
+      <c r="U644" s="64"/>
+      <c r="V644" s="64"/>
+      <c r="W644" s="64"/>
+      <c r="X644" s="64"/>
+    </row>
+    <row r="645" ht="16.5" spans="1:24">
+      <c r="A645" s="64"/>
+      <c r="B645" s="64"/>
+      <c r="C645" s="64"/>
+      <c r="D645" s="64"/>
+      <c r="E645" s="64"/>
+      <c r="F645" s="64"/>
+      <c r="G645" s="64"/>
+      <c r="H645" s="64"/>
+      <c r="I645" s="39"/>
+      <c r="J645" s="64"/>
+      <c r="K645" s="64"/>
+      <c r="L645" s="64"/>
+      <c r="M645" s="64"/>
+      <c r="N645" s="64"/>
+      <c r="O645" s="64"/>
+      <c r="P645" s="64"/>
+      <c r="Q645" s="64"/>
+      <c r="R645" s="64"/>
+      <c r="S645" s="64"/>
+      <c r="T645" s="64"/>
+      <c r="U645" s="64"/>
+      <c r="V645" s="64"/>
+      <c r="W645" s="64"/>
+      <c r="X645" s="64"/>
+    </row>
+    <row r="646" ht="16.5" spans="1:24">
+      <c r="A646" s="64"/>
+      <c r="B646" s="64"/>
+      <c r="C646" s="64"/>
+      <c r="D646" s="64"/>
+      <c r="E646" s="64"/>
+      <c r="F646" s="64"/>
+      <c r="G646" s="64"/>
+      <c r="H646" s="64"/>
+      <c r="I646" s="39"/>
+      <c r="J646" s="64"/>
+      <c r="K646" s="64"/>
+      <c r="L646" s="64"/>
+      <c r="M646" s="64"/>
+      <c r="N646" s="64"/>
+      <c r="O646" s="64"/>
+      <c r="P646" s="64"/>
+      <c r="Q646" s="64"/>
+      <c r="R646" s="64"/>
+      <c r="S646" s="64"/>
+      <c r="T646" s="64"/>
+      <c r="U646" s="64"/>
+      <c r="V646" s="64"/>
+      <c r="W646" s="64"/>
+      <c r="X646" s="64"/>
+    </row>
+    <row r="647" ht="16.5" spans="1:24">
+      <c r="A647" s="28"/>
+      <c r="B647" s="26"/>
+      <c r="C647" s="26"/>
+      <c r="D647" s="26"/>
+      <c r="E647" s="26"/>
+      <c r="F647" s="26"/>
+      <c r="G647" s="26"/>
+      <c r="H647" s="27"/>
+      <c r="I647" s="39"/>
+      <c r="J647" s="32"/>
+      <c r="K647" s="26"/>
+      <c r="L647" s="26"/>
+      <c r="M647" s="26"/>
+      <c r="N647" s="26"/>
+      <c r="O647" s="26"/>
+      <c r="P647" s="26"/>
+      <c r="Q647" s="26"/>
+      <c r="R647" s="26"/>
+      <c r="S647" s="26"/>
+      <c r="T647" s="26"/>
+      <c r="U647" s="26"/>
+      <c r="V647" s="26"/>
+      <c r="W647" s="26"/>
+      <c r="X647" s="26"/>
+    </row>
+    <row r="648" ht="16.5" spans="1:24">
+      <c r="A648" s="28"/>
+      <c r="B648" s="26"/>
+      <c r="C648" s="26"/>
+      <c r="D648" s="26"/>
+      <c r="E648" s="26"/>
+      <c r="F648" s="26"/>
+      <c r="G648" s="26"/>
+      <c r="H648" s="27"/>
+      <c r="I648" s="39"/>
+      <c r="J648" s="32"/>
+      <c r="K648" s="26"/>
+      <c r="L648" s="26"/>
+      <c r="M648" s="26"/>
+      <c r="N648" s="26"/>
+      <c r="O648" s="26"/>
+      <c r="P648" s="26"/>
+      <c r="Q648" s="26"/>
+      <c r="R648" s="26"/>
+      <c r="S648" s="26"/>
+      <c r="T648" s="26"/>
+      <c r="U648" s="26"/>
+      <c r="V648" s="26"/>
+      <c r="W648" s="26"/>
+      <c r="X648" s="26"/>
+    </row>
+    <row r="649" ht="16.5" spans="1:24">
+      <c r="A649" s="28"/>
+      <c r="B649" s="26"/>
+      <c r="C649" s="26"/>
+      <c r="D649" s="26"/>
+      <c r="E649" s="26"/>
+      <c r="F649" s="26"/>
+      <c r="G649" s="26"/>
+      <c r="H649" s="27"/>
+      <c r="I649" s="39"/>
+      <c r="J649" s="32"/>
+      <c r="K649" s="26"/>
+      <c r="L649" s="26"/>
+      <c r="M649" s="26"/>
+      <c r="N649" s="26"/>
+      <c r="O649" s="26"/>
+      <c r="P649" s="26"/>
+      <c r="Q649" s="26"/>
+      <c r="R649" s="26"/>
+      <c r="S649" s="26"/>
+      <c r="T649" s="26"/>
+      <c r="U649" s="26"/>
+      <c r="V649" s="26"/>
+      <c r="W649" s="26"/>
+      <c r="X649" s="26"/>
+    </row>
+    <row r="650" ht="16.5" spans="1:24">
+      <c r="A650" s="64"/>
+      <c r="B650" s="64"/>
+      <c r="C650" s="64"/>
+      <c r="D650" s="64"/>
+      <c r="E650" s="64"/>
+      <c r="F650" s="64"/>
+      <c r="G650" s="64"/>
+      <c r="H650" s="64"/>
+      <c r="I650" s="39"/>
+      <c r="J650" s="64"/>
+      <c r="K650" s="64"/>
+      <c r="L650" s="64"/>
+      <c r="M650" s="64"/>
+      <c r="N650" s="64"/>
+      <c r="O650" s="64"/>
+      <c r="P650" s="64"/>
+      <c r="Q650" s="64"/>
+      <c r="R650" s="64"/>
+      <c r="S650" s="64"/>
+      <c r="T650" s="64"/>
+      <c r="U650" s="64"/>
+      <c r="V650" s="64"/>
+      <c r="W650" s="64"/>
+      <c r="X650" s="64"/>
+    </row>
+    <row r="651" ht="16.5" spans="1:24">
+      <c r="A651" s="28"/>
+      <c r="B651" s="26"/>
+      <c r="C651" s="26"/>
+      <c r="D651" s="26"/>
+      <c r="E651" s="26"/>
+      <c r="F651" s="26"/>
+      <c r="G651" s="26"/>
+      <c r="H651" s="27"/>
+      <c r="I651" s="39"/>
+      <c r="J651" s="32"/>
+      <c r="K651" s="26"/>
+      <c r="L651" s="26"/>
+      <c r="M651" s="26"/>
+      <c r="N651" s="26"/>
+      <c r="O651" s="26"/>
+      <c r="P651" s="26"/>
+      <c r="Q651" s="26"/>
+      <c r="R651" s="26"/>
+      <c r="S651" s="26"/>
+      <c r="T651" s="26"/>
+      <c r="U651" s="26"/>
+      <c r="V651" s="26"/>
+      <c r="W651" s="26"/>
+      <c r="X651" s="26"/>
     </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H29 H30 H31 H32 H33 H34 H37 H38 H39 H40 H43 H44 H47 H35:H36 H41:H42 H45:H46" errorStyle="warning">
       <formula1>"Level 0,Level 1,Level 2,Level 3,Level 4"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H74:H640" errorStyle="warning">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H85:H651" errorStyle="warning">
       <formula1>"Level 1,Level 2,Level 3,Level 4"</formula1>
     </dataValidation>
   </dataValidations>
